--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.09</v>
+        <v>12.18</v>
       </c>
       <c r="C2" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="D2" t="n">
-        <v>12.09</v>
+        <v>12.18</v>
       </c>
       <c r="E2" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="F2" t="n">
-        <v>7877.7452</v>
+        <v>56980.8978</v>
       </c>
       <c r="G2" t="n">
-        <v>12.31366666666668</v>
+        <v>12.31433333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="C3" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="D3" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="E3" t="n">
-        <v>12.08</v>
+        <v>12.09</v>
       </c>
       <c r="F3" t="n">
-        <v>77186.2746</v>
+        <v>7877.7452</v>
       </c>
       <c r="G3" t="n">
-        <v>12.31283333333335</v>
+        <v>12.31366666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="C4" t="n">
-        <v>12.29</v>
+        <v>12.08</v>
       </c>
       <c r="D4" t="n">
-        <v>12.29</v>
+        <v>12.12</v>
       </c>
       <c r="E4" t="n">
-        <v>12.11</v>
+        <v>12.08</v>
       </c>
       <c r="F4" t="n">
-        <v>118.8731</v>
+        <v>77186.2746</v>
       </c>
       <c r="G4" t="n">
-        <v>12.31550000000001</v>
+        <v>12.31283333333335</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,19 +538,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1</v>
+        <v>12.29</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1</v>
+        <v>12.29</v>
       </c>
       <c r="E5" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="F5" t="n">
-        <v>1300.5943</v>
+        <v>118.8731</v>
       </c>
       <c r="G5" t="n">
         <v>12.31550000000001</v>
@@ -576,19 +576,19 @@
         <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>12.29</v>
+        <v>12.1</v>
       </c>
       <c r="D6" t="n">
-        <v>12.29</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
         <v>12.1</v>
       </c>
       <c r="F6" t="n">
-        <v>116.6347</v>
+        <v>1300.5943</v>
       </c>
       <c r="G6" t="n">
-        <v>12.31816666666668</v>
+        <v>12.31550000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>12.1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.02</v>
+        <v>12.29</v>
       </c>
       <c r="D7" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="E7" t="n">
         <v>12.1</v>
       </c>
-      <c r="E7" t="n">
-        <v>12.02</v>
-      </c>
       <c r="F7" t="n">
-        <v>362947.521</v>
+        <v>116.6347</v>
       </c>
       <c r="G7" t="n">
-        <v>12.31633333333335</v>
+        <v>12.31816666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.03</v>
+        <v>12.1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.28</v>
+        <v>12.02</v>
       </c>
       <c r="D8" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="E8" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="F8" t="n">
-        <v>732.0805</v>
+        <v>362947.521</v>
       </c>
       <c r="G8" t="n">
-        <v>12.31883333333335</v>
+        <v>12.31633333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>12.03</v>
       </c>
       <c r="C9" t="n">
-        <v>12.02</v>
+        <v>12.28</v>
       </c>
       <c r="D9" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E9" t="n">
         <v>12.03</v>
       </c>
-      <c r="E9" t="n">
-        <v>12.02</v>
-      </c>
       <c r="F9" t="n">
-        <v>101825.4142</v>
+        <v>732.0805</v>
       </c>
       <c r="G9" t="n">
-        <v>12.31766666666668</v>
+        <v>12.31883333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.28</v>
+        <v>12.03</v>
       </c>
       <c r="C10" t="n">
-        <v>12.28</v>
+        <v>12.02</v>
       </c>
       <c r="D10" t="n">
-        <v>12.28</v>
+        <v>12.03</v>
       </c>
       <c r="E10" t="n">
-        <v>12.28</v>
+        <v>12.02</v>
       </c>
       <c r="F10" t="n">
-        <v>222.222</v>
+        <v>101825.4142</v>
       </c>
       <c r="G10" t="n">
-        <v>12.32083333333335</v>
+        <v>12.31766666666668</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="C11" t="n">
-        <v>12.3</v>
+        <v>12.28</v>
       </c>
       <c r="D11" t="n">
-        <v>12.3</v>
+        <v>12.28</v>
       </c>
       <c r="E11" t="n">
-        <v>12.26</v>
+        <v>12.28</v>
       </c>
       <c r="F11" t="n">
-        <v>33838.8813</v>
+        <v>222.222</v>
       </c>
       <c r="G11" t="n">
-        <v>12.32516666666668</v>
+        <v>12.32083333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.33</v>
+        <v>12.26</v>
       </c>
       <c r="C12" t="n">
-        <v>12.33</v>
+        <v>12.3</v>
       </c>
       <c r="D12" t="n">
-        <v>12.33</v>
+        <v>12.3</v>
       </c>
       <c r="E12" t="n">
-        <v>12.33</v>
+        <v>12.26</v>
       </c>
       <c r="F12" t="n">
-        <v>56.1064</v>
+        <v>33838.8813</v>
       </c>
       <c r="G12" t="n">
-        <v>12.33000000000001</v>
+        <v>12.32516666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.36</v>
+        <v>12.33</v>
       </c>
       <c r="C13" t="n">
-        <v>12.36</v>
+        <v>12.33</v>
       </c>
       <c r="D13" t="n">
-        <v>12.36</v>
+        <v>12.33</v>
       </c>
       <c r="E13" t="n">
-        <v>12.36</v>
+        <v>12.33</v>
       </c>
       <c r="F13" t="n">
         <v>56.1064</v>
       </c>
       <c r="G13" t="n">
-        <v>12.33533333333335</v>
+        <v>12.33000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="C14" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="D14" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="E14" t="n">
-        <v>12.33</v>
+        <v>12.36</v>
       </c>
       <c r="F14" t="n">
-        <v>39.3508</v>
+        <v>56.1064</v>
       </c>
       <c r="G14" t="n">
-        <v>12.34016666666668</v>
+        <v>12.33533333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.28</v>
+        <v>12.33</v>
       </c>
       <c r="C15" t="n">
-        <v>12.28</v>
+        <v>12.33</v>
       </c>
       <c r="D15" t="n">
-        <v>12.28</v>
+        <v>12.33</v>
       </c>
       <c r="E15" t="n">
-        <v>12.28</v>
+        <v>12.33</v>
       </c>
       <c r="F15" t="n">
-        <v>5957.9032</v>
+        <v>39.3508</v>
       </c>
       <c r="G15" t="n">
-        <v>12.34233333333335</v>
+        <v>12.34016666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>12.28</v>
       </c>
       <c r="F16" t="n">
-        <v>100000</v>
+        <v>5957.9032</v>
       </c>
       <c r="G16" t="n">
-        <v>12.34366666666668</v>
+        <v>12.34233333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="C17" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="D17" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="E17" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="F17" t="n">
-        <v>54.1188</v>
+        <v>100000</v>
       </c>
       <c r="G17" t="n">
-        <v>12.34233333333335</v>
+        <v>12.34366666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.28</v>
+        <v>12.12</v>
       </c>
       <c r="C18" t="n">
-        <v>12.28</v>
+        <v>12.12</v>
       </c>
       <c r="D18" t="n">
-        <v>12.28</v>
+        <v>12.12</v>
       </c>
       <c r="E18" t="n">
-        <v>12.28</v>
+        <v>12.12</v>
       </c>
       <c r="F18" t="n">
         <v>54.1188</v>
       </c>
       <c r="G18" t="n">
-        <v>12.34366666666668</v>
+        <v>12.34233333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.11</v>
+        <v>12.28</v>
       </c>
       <c r="C19" t="n">
-        <v>12.11</v>
+        <v>12.28</v>
       </c>
       <c r="D19" t="n">
-        <v>12.11</v>
+        <v>12.28</v>
       </c>
       <c r="E19" t="n">
-        <v>12.11</v>
+        <v>12.28</v>
       </c>
       <c r="F19" t="n">
-        <v>4465</v>
+        <v>54.1188</v>
       </c>
       <c r="G19" t="n">
-        <v>12.34133333333335</v>
+        <v>12.34366666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.28</v>
+        <v>12.11</v>
       </c>
       <c r="C20" t="n">
-        <v>12.28</v>
+        <v>12.11</v>
       </c>
       <c r="D20" t="n">
-        <v>12.28</v>
+        <v>12.11</v>
       </c>
       <c r="E20" t="n">
-        <v>12.28</v>
+        <v>12.11</v>
       </c>
       <c r="F20" t="n">
-        <v>234.7851</v>
+        <v>4465</v>
       </c>
       <c r="G20" t="n">
-        <v>12.33633333333334</v>
+        <v>12.34133333333335</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="C21" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="D21" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="E21" t="n">
-        <v>12.12</v>
+        <v>12.28</v>
       </c>
       <c r="F21" t="n">
-        <v>46181.7172</v>
+        <v>234.7851</v>
       </c>
       <c r="G21" t="n">
-        <v>12.32866666666668</v>
+        <v>12.33633333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.12</v>
       </c>
       <c r="F22" t="n">
-        <v>35097.8689</v>
+        <v>46181.7172</v>
       </c>
       <c r="G22" t="n">
-        <v>12.32083333333334</v>
+        <v>12.32866666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="C23" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="D23" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="E23" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="F23" t="n">
-        <v>2760.4267</v>
+        <v>35097.8689</v>
       </c>
       <c r="G23" t="n">
-        <v>12.31150000000001</v>
+        <v>12.32083333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>12.11</v>
       </c>
       <c r="F24" t="n">
-        <v>137002.0441</v>
+        <v>2760.4267</v>
       </c>
       <c r="G24" t="n">
-        <v>12.30000000000001</v>
+        <v>12.31150000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>12.11</v>
       </c>
       <c r="F25" t="n">
-        <v>5927.6408</v>
+        <v>137002.0441</v>
       </c>
       <c r="G25" t="n">
-        <v>12.29216666666668</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>12.11</v>
       </c>
       <c r="C26" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="D26" t="n">
         <v>12.11</v>
       </c>
       <c r="E26" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="F26" t="n">
-        <v>71028.10890000001</v>
+        <v>5927.6408</v>
       </c>
       <c r="G26" t="n">
-        <v>12.28700000000001</v>
+        <v>12.29216666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="C27" t="n">
         <v>12.1</v>
       </c>
       <c r="D27" t="n">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="E27" t="n">
         <v>12.1</v>
       </c>
       <c r="F27" t="n">
-        <v>2676.2278</v>
+        <v>71028.10890000001</v>
       </c>
       <c r="G27" t="n">
-        <v>12.27533333333335</v>
+        <v>12.28700000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E28" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F28" t="n">
-        <v>78054.9298</v>
+        <v>2676.2278</v>
       </c>
       <c r="G28" t="n">
-        <v>12.27000000000001</v>
+        <v>12.27533333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="C29" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="D29" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="E29" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F29" t="n">
-        <v>12600</v>
+        <v>78054.9298</v>
       </c>
       <c r="G29" t="n">
-        <v>12.26400000000001</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>12.14</v>
       </c>
       <c r="F30" t="n">
-        <v>3072.7217</v>
+        <v>12600</v>
       </c>
       <c r="G30" t="n">
-        <v>12.25883333333335</v>
+        <v>12.26400000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="C31" t="n">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="D31" t="n">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="E31" t="n">
-        <v>12.2</v>
+        <v>12.14</v>
       </c>
       <c r="F31" t="n">
-        <v>88505.2577</v>
+        <v>3072.7217</v>
       </c>
       <c r="G31" t="n">
-        <v>12.25050000000001</v>
+        <v>12.25883333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>12.2</v>
       </c>
       <c r="F32" t="n">
-        <v>61247.7437</v>
+        <v>88505.2577</v>
       </c>
       <c r="G32" t="n">
-        <v>12.24716666666668</v>
+        <v>12.25050000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>12.2</v>
       </c>
       <c r="F33" t="n">
-        <v>10383.718</v>
+        <v>61247.7437</v>
       </c>
       <c r="G33" t="n">
-        <v>12.23950000000002</v>
+        <v>12.24716666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>12.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11.98</v>
+        <v>12.2</v>
       </c>
       <c r="D34" t="n">
         <v>12.2</v>
       </c>
       <c r="E34" t="n">
-        <v>11.98</v>
+        <v>12.2</v>
       </c>
       <c r="F34" t="n">
-        <v>600161.525</v>
+        <v>10383.718</v>
       </c>
       <c r="G34" t="n">
-        <v>12.23083333333335</v>
+        <v>12.23950000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="C35" t="n">
         <v>11.98</v>
       </c>
       <c r="D35" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="E35" t="n">
         <v>11.98</v>
       </c>
       <c r="F35" t="n">
-        <v>25691.3811</v>
+        <v>600161.525</v>
       </c>
       <c r="G35" t="n">
-        <v>12.22300000000001</v>
+        <v>12.23083333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="C36" t="n">
         <v>11.98</v>
       </c>
       <c r="D36" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="E36" t="n">
         <v>11.98</v>
       </c>
       <c r="F36" t="n">
-        <v>24332.8476</v>
+        <v>25691.3811</v>
       </c>
       <c r="G36" t="n">
-        <v>12.21316666666668</v>
+        <v>12.22300000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="C37" t="n">
         <v>11.98</v>
       </c>
       <c r="D37" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="E37" t="n">
         <v>11.98</v>
       </c>
       <c r="F37" t="n">
-        <v>47523.0173</v>
+        <v>24332.8476</v>
       </c>
       <c r="G37" t="n">
-        <v>12.20966666666668</v>
+        <v>12.21316666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.27</v>
+        <v>11.99</v>
       </c>
       <c r="C38" t="n">
-        <v>12.27</v>
+        <v>11.98</v>
       </c>
       <c r="D38" t="n">
-        <v>12.27</v>
+        <v>11.99</v>
       </c>
       <c r="E38" t="n">
-        <v>12.27</v>
+        <v>11.98</v>
       </c>
       <c r="F38" t="n">
-        <v>8957.720499999999</v>
+        <v>47523.0173</v>
       </c>
       <c r="G38" t="n">
-        <v>12.21100000000001</v>
+        <v>12.20966666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="F39" t="n">
-        <v>90293.7329</v>
+        <v>8957.720499999999</v>
       </c>
       <c r="G39" t="n">
-        <v>12.20400000000001</v>
+        <v>12.21100000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>12.04</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>81350.9204</v>
+        <v>90293.7329</v>
       </c>
       <c r="G40" t="n">
-        <v>12.20066666666668</v>
+        <v>12.20400000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="D41" t="n">
-        <v>12.03</v>
+        <v>12.04</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="F41" t="n">
-        <v>301188.7833</v>
+        <v>81350.9204</v>
       </c>
       <c r="G41" t="n">
-        <v>12.19416666666668</v>
+        <v>12.20066666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="C42" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>11.91</v>
+        <v>12.03</v>
       </c>
       <c r="E42" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>34029.3263</v>
+        <v>301188.7833</v>
       </c>
       <c r="G42" t="n">
-        <v>12.18950000000001</v>
+        <v>12.19416666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="E43" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F43" t="n">
-        <v>1972.1157</v>
+        <v>34029.3263</v>
       </c>
       <c r="G43" t="n">
-        <v>12.18616666666668</v>
+        <v>12.18950000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>77485.9034</v>
+        <v>1972.1157</v>
       </c>
       <c r="G44" t="n">
-        <v>12.18283333333335</v>
+        <v>12.18616666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F45" t="n">
-        <v>177710.2405</v>
+        <v>77485.9034</v>
       </c>
       <c r="G45" t="n">
-        <v>12.17783333333334</v>
+        <v>12.18283333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
       </c>
       <c r="C46" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
       </c>
       <c r="D46" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
       </c>
       <c r="E46" t="n">
-        <v>11.96</v>
+        <v>11.9</v>
       </c>
       <c r="F46" t="n">
-        <v>50534.0918</v>
+        <v>177710.2405</v>
       </c>
       <c r="G46" t="n">
-        <v>12.17033333333334</v>
+        <v>12.17783333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>11.96</v>
       </c>
       <c r="F47" t="n">
-        <v>104611.457</v>
+        <v>50534.0918</v>
       </c>
       <c r="G47" t="n">
-        <v>12.16266666666668</v>
+        <v>12.17033333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.99</v>
+        <v>11.96</v>
       </c>
       <c r="C48" t="n">
-        <v>11.99</v>
+        <v>11.96</v>
       </c>
       <c r="D48" t="n">
-        <v>11.99</v>
+        <v>11.96</v>
       </c>
       <c r="E48" t="n">
-        <v>11.99</v>
+        <v>11.96</v>
       </c>
       <c r="F48" t="n">
-        <v>993.0955</v>
+        <v>104611.457</v>
       </c>
       <c r="G48" t="n">
-        <v>12.15550000000001</v>
+        <v>12.16266666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D49" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F49" t="n">
-        <v>108027.1532</v>
+        <v>993.0955</v>
       </c>
       <c r="G49" t="n">
-        <v>12.14850000000001</v>
+        <v>12.15550000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.91</v>
+        <v>12.02</v>
       </c>
       <c r="C50" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>11.91</v>
+        <v>12.02</v>
       </c>
       <c r="E50" t="n">
-        <v>11.91</v>
+        <v>12</v>
       </c>
       <c r="F50" t="n">
-        <v>24258.3268</v>
+        <v>108027.1532</v>
       </c>
       <c r="G50" t="n">
-        <v>12.14016666666668</v>
+        <v>12.14850000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="C51" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="E51" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="F51" t="n">
-        <v>79442.576</v>
+        <v>24258.3268</v>
       </c>
       <c r="G51" t="n">
-        <v>12.13716666666668</v>
+        <v>12.14016666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.93</v>
+        <v>11.99</v>
       </c>
       <c r="C52" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>11.84</v>
+        <v>11.99</v>
       </c>
       <c r="F52" t="n">
-        <v>159213.5066</v>
+        <v>79442.576</v>
       </c>
       <c r="G52" t="n">
-        <v>12.13316666666668</v>
+        <v>12.13716666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="C53" t="n">
         <v>11.84</v>
       </c>
       <c r="D53" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="E53" t="n">
         <v>11.84</v>
       </c>
       <c r="F53" t="n">
-        <v>88505.2577</v>
+        <v>159213.5066</v>
       </c>
       <c r="G53" t="n">
-        <v>12.12850000000001</v>
+        <v>12.13316666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="C54" t="n">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="D54" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="E54" t="n">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>88505.2577</v>
       </c>
       <c r="G54" t="n">
-        <v>12.12566666666668</v>
+        <v>12.12850000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,35 +2291,29 @@
         <v>11.99</v>
       </c>
       <c r="C55" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="D55" t="n">
         <v>11.99</v>
       </c>
       <c r="E55" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="F55" t="n">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="G55" t="n">
-        <v>12.11700000000002</v>
+        <v>12.12566666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>11.99</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2329,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="C56" t="n">
         <v>11.85</v>
       </c>
       <c r="D56" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="E56" t="n">
         <v>11.85</v>
       </c>
       <c r="F56" t="n">
-        <v>15349.7322</v>
+        <v>204</v>
       </c>
       <c r="G56" t="n">
-        <v>12.10833333333335</v>
+        <v>12.11700000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2354,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="C57" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="D57" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="E57" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="F57" t="n">
-        <v>163.4006</v>
+        <v>15349.7322</v>
       </c>
       <c r="G57" t="n">
-        <v>12.09866666666668</v>
+        <v>12.10833333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2407,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="E58" t="n">
-        <v>11.99</v>
+        <v>11.84</v>
       </c>
       <c r="F58" t="n">
-        <v>7500</v>
+        <v>163.4006</v>
       </c>
       <c r="G58" t="n">
-        <v>12.09216666666669</v>
+        <v>12.09866666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2432,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2446,38 +2428,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="C59" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>11.85</v>
+        <v>11.99</v>
       </c>
       <c r="F59" t="n">
-        <v>59.6658</v>
+        <v>7500</v>
       </c>
       <c r="G59" t="n">
-        <v>12.08550000000002</v>
+        <v>12.09216666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>12</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,38 +2463,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.89</v>
+        <v>11.85</v>
       </c>
       <c r="C60" t="n">
-        <v>11.89</v>
+        <v>11.85</v>
       </c>
       <c r="D60" t="n">
-        <v>11.89</v>
+        <v>11.85</v>
       </c>
       <c r="E60" t="n">
-        <v>11.89</v>
+        <v>11.85</v>
       </c>
       <c r="F60" t="n">
-        <v>66583.7424</v>
+        <v>59.6658</v>
       </c>
       <c r="G60" t="n">
-        <v>12.08050000000002</v>
+        <v>12.08550000000002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2540,26 +2510,20 @@
         <v>11.89</v>
       </c>
       <c r="F61" t="n">
-        <v>80386.3579</v>
+        <v>66583.7424</v>
       </c>
       <c r="G61" t="n">
-        <v>12.07733333333335</v>
+        <v>12.08050000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>11.89</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2569,38 +2533,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="D62" t="n">
-        <v>11.9</v>
+        <v>11.89</v>
       </c>
       <c r="E62" t="n">
-        <v>11.88</v>
+        <v>11.89</v>
       </c>
       <c r="F62" t="n">
-        <v>80364.5981</v>
+        <v>80386.3579</v>
       </c>
       <c r="G62" t="n">
-        <v>12.07416666666668</v>
+        <v>12.07733333333335</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>11.89</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2610,38 +2568,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.98</v>
+        <v>11.88</v>
       </c>
       <c r="C63" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.98</v>
+        <v>11.9</v>
       </c>
       <c r="E63" t="n">
-        <v>11.98</v>
+        <v>11.88</v>
       </c>
       <c r="F63" t="n">
-        <v>59.6658</v>
+        <v>80364.5981</v>
       </c>
       <c r="G63" t="n">
-        <v>12.07250000000002</v>
+        <v>12.07416666666668</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2651,38 +2603,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F64" t="n">
-        <v>117.5964</v>
+        <v>59.6658</v>
       </c>
       <c r="G64" t="n">
-        <v>12.06766666666668</v>
+        <v>12.07250000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>11.98</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2692,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>11.84</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>62550.3375</v>
+        <v>117.5964</v>
       </c>
       <c r="G65" t="n">
-        <v>12.06333333333335</v>
+        <v>12.06766666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2717,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2731,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="C66" t="n">
         <v>11.84</v>
       </c>
       <c r="D66" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="E66" t="n">
         <v>11.84</v>
       </c>
       <c r="F66" t="n">
-        <v>100400.6755</v>
+        <v>62550.3375</v>
       </c>
       <c r="G66" t="n">
-        <v>12.05583333333335</v>
+        <v>12.06333333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2756,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2770,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.83</v>
+        <v>11.84</v>
       </c>
       <c r="C67" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="D67" t="n">
-        <v>11.98</v>
+        <v>11.84</v>
       </c>
       <c r="E67" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="F67" t="n">
-        <v>213722.9407</v>
+        <v>100400.6755</v>
       </c>
       <c r="G67" t="n">
-        <v>12.05216666666668</v>
+        <v>12.05583333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2795,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2809,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8</v>
+        <v>11.83</v>
       </c>
       <c r="C68" t="n">
         <v>11.8</v>
       </c>
       <c r="D68" t="n">
-        <v>11.8</v>
+        <v>11.98</v>
       </c>
       <c r="E68" t="n">
         <v>11.8</v>
       </c>
       <c r="F68" t="n">
-        <v>319.6504</v>
+        <v>213722.9407</v>
       </c>
       <c r="G68" t="n">
-        <v>12.04416666666668</v>
+        <v>12.05216666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2834,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2790,10 @@
         <v>11.8</v>
       </c>
       <c r="F69" t="n">
-        <v>80845.6156</v>
+        <v>319.6504</v>
       </c>
       <c r="G69" t="n">
-        <v>12.04050000000002</v>
+        <v>12.04416666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2873,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2899,10 +2825,10 @@
         <v>11.8</v>
       </c>
       <c r="F70" t="n">
-        <v>239.9133</v>
+        <v>80845.6156</v>
       </c>
       <c r="G70" t="n">
-        <v>12.03250000000002</v>
+        <v>12.04050000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2912,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2938,10 +2860,10 @@
         <v>11.8</v>
       </c>
       <c r="F71" t="n">
-        <v>1470.9183</v>
+        <v>239.9133</v>
       </c>
       <c r="G71" t="n">
-        <v>12.02416666666668</v>
+        <v>12.03250000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2951,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2968,19 +2886,19 @@
         <v>11.8</v>
       </c>
       <c r="C72" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="D72" t="n">
         <v>11.8</v>
       </c>
       <c r="E72" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="F72" t="n">
-        <v>196775.0673</v>
+        <v>1470.9183</v>
       </c>
       <c r="G72" t="n">
-        <v>12.01516666666668</v>
+        <v>12.02416666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2990,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.95</v>
+        <v>11.8</v>
       </c>
       <c r="C73" t="n">
-        <v>11.97</v>
+        <v>11.79</v>
       </c>
       <c r="D73" t="n">
-        <v>11.97</v>
+        <v>11.8</v>
       </c>
       <c r="E73" t="n">
-        <v>11.95</v>
+        <v>11.79</v>
       </c>
       <c r="F73" t="n">
-        <v>1208.1655</v>
+        <v>196775.0673</v>
       </c>
       <c r="G73" t="n">
-        <v>12.00866666666668</v>
+        <v>12.01516666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3029,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3043,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.97</v>
+        <v>11.95</v>
       </c>
       <c r="C74" t="n">
         <v>11.97</v>
@@ -3052,13 +2962,13 @@
         <v>11.97</v>
       </c>
       <c r="E74" t="n">
-        <v>11.97</v>
+        <v>11.95</v>
       </c>
       <c r="F74" t="n">
-        <v>3814.8367</v>
+        <v>1208.1655</v>
       </c>
       <c r="G74" t="n">
-        <v>12.00266666666668</v>
+        <v>12.00866666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3068,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.95</v>
+        <v>11.97</v>
       </c>
       <c r="C75" t="n">
-        <v>11.95</v>
+        <v>11.97</v>
       </c>
       <c r="D75" t="n">
-        <v>11.95</v>
+        <v>11.97</v>
       </c>
       <c r="E75" t="n">
-        <v>11.95</v>
+        <v>11.97</v>
       </c>
       <c r="F75" t="n">
-        <v>837.6738</v>
+        <v>3814.8367</v>
       </c>
       <c r="G75" t="n">
-        <v>11.99716666666668</v>
+        <v>12.00266666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3107,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3121,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.88</v>
+        <v>11.95</v>
       </c>
       <c r="C76" t="n">
-        <v>11.87</v>
+        <v>11.95</v>
       </c>
       <c r="D76" t="n">
-        <v>11.88</v>
+        <v>11.95</v>
       </c>
       <c r="E76" t="n">
-        <v>11.87</v>
+        <v>11.95</v>
       </c>
       <c r="F76" t="n">
-        <v>117000</v>
+        <v>837.6738</v>
       </c>
       <c r="G76" t="n">
-        <v>11.99033333333335</v>
+        <v>11.99716666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3146,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3160,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.97</v>
+        <v>11.88</v>
       </c>
       <c r="C77" t="n">
-        <v>11.97</v>
+        <v>11.87</v>
       </c>
       <c r="D77" t="n">
-        <v>11.97</v>
+        <v>11.88</v>
       </c>
       <c r="E77" t="n">
-        <v>11.97</v>
+        <v>11.87</v>
       </c>
       <c r="F77" t="n">
-        <v>245.5507</v>
+        <v>117000</v>
       </c>
       <c r="G77" t="n">
-        <v>11.98783333333335</v>
+        <v>11.99033333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3185,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3199,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.86</v>
+        <v>11.97</v>
       </c>
       <c r="C78" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="D78" t="n">
-        <v>11.86</v>
+        <v>11.97</v>
       </c>
       <c r="E78" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="F78" t="n">
-        <v>90017.0916</v>
+        <v>245.5507</v>
       </c>
       <c r="G78" t="n">
-        <v>11.98066666666668</v>
+        <v>11.98783333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3224,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3238,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.85</v>
+        <v>11.86</v>
       </c>
       <c r="C79" t="n">
         <v>11.85</v>
       </c>
       <c r="D79" t="n">
-        <v>11.85</v>
+        <v>11.86</v>
       </c>
       <c r="E79" t="n">
         <v>11.85</v>
       </c>
       <c r="F79" t="n">
-        <v>112671.4212</v>
+        <v>90017.0916</v>
       </c>
       <c r="G79" t="n">
-        <v>11.97633333333335</v>
+        <v>11.98066666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3263,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3277,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.97</v>
+        <v>11.85</v>
       </c>
       <c r="C80" t="n">
-        <v>11.97</v>
+        <v>11.85</v>
       </c>
       <c r="D80" t="n">
-        <v>11.97</v>
+        <v>11.85</v>
       </c>
       <c r="E80" t="n">
-        <v>11.97</v>
+        <v>11.85</v>
       </c>
       <c r="F80" t="n">
-        <v>199.7339</v>
+        <v>112671.4212</v>
       </c>
       <c r="G80" t="n">
-        <v>11.97116666666668</v>
+        <v>11.97633333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3302,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="C81" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="D81" t="n">
-        <v>11.85</v>
+        <v>11.97</v>
       </c>
       <c r="E81" t="n">
-        <v>11.81</v>
+        <v>11.97</v>
       </c>
       <c r="F81" t="n">
-        <v>7107.2267</v>
+        <v>199.7339</v>
       </c>
       <c r="G81" t="n">
-        <v>11.96600000000002</v>
+        <v>11.97116666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3341,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3355,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="C82" t="n">
-        <v>11.8</v>
+        <v>11.81</v>
       </c>
       <c r="D82" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="E82" t="n">
-        <v>11.8</v>
+        <v>11.81</v>
       </c>
       <c r="F82" t="n">
-        <v>201890.6452</v>
+        <v>7107.2267</v>
       </c>
       <c r="G82" t="n">
-        <v>11.96066666666668</v>
+        <v>11.96600000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3380,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3394,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.84</v>
+        <v>11.8</v>
       </c>
       <c r="C83" t="n">
-        <v>11.84</v>
+        <v>11.8</v>
       </c>
       <c r="D83" t="n">
-        <v>11.84</v>
+        <v>11.82</v>
       </c>
       <c r="E83" t="n">
-        <v>11.84</v>
+        <v>11.8</v>
       </c>
       <c r="F83" t="n">
-        <v>240.6047</v>
+        <v>201890.6452</v>
       </c>
       <c r="G83" t="n">
-        <v>11.95616666666668</v>
+        <v>11.96066666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3419,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3433,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.79</v>
+        <v>11.84</v>
       </c>
       <c r="C84" t="n">
-        <v>11.66</v>
+        <v>11.84</v>
       </c>
       <c r="D84" t="n">
-        <v>11.79</v>
+        <v>11.84</v>
       </c>
       <c r="E84" t="n">
-        <v>11.66</v>
+        <v>11.84</v>
       </c>
       <c r="F84" t="n">
-        <v>370746.4571</v>
+        <v>240.6047</v>
       </c>
       <c r="G84" t="n">
-        <v>11.94866666666668</v>
+        <v>11.95616666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3458,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.96</v>
+        <v>11.79</v>
       </c>
       <c r="C85" t="n">
-        <v>11.96</v>
+        <v>11.66</v>
       </c>
       <c r="D85" t="n">
-        <v>11.96</v>
+        <v>11.79</v>
       </c>
       <c r="E85" t="n">
-        <v>11.96</v>
+        <v>11.66</v>
       </c>
       <c r="F85" t="n">
-        <v>379.9934</v>
+        <v>370746.4571</v>
       </c>
       <c r="G85" t="n">
-        <v>11.94616666666668</v>
+        <v>11.94866666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3497,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3514,19 +3376,19 @@
         <v>11.96</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="E86" t="n">
         <v>11.96</v>
       </c>
       <c r="F86" t="n">
-        <v>43947.5679</v>
+        <v>379.9934</v>
       </c>
       <c r="G86" t="n">
-        <v>11.94450000000002</v>
+        <v>11.94616666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3536,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3550,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="C87" t="n">
         <v>12</v>
@@ -3559,13 +3417,13 @@
         <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="F87" t="n">
-        <v>24809.5958</v>
+        <v>43947.5679</v>
       </c>
       <c r="G87" t="n">
-        <v>11.94283333333335</v>
+        <v>11.94450000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3575,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3589,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>11.82</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>42571.8414</v>
+        <v>24809.5958</v>
       </c>
       <c r="G88" t="n">
-        <v>11.93650000000002</v>
+        <v>11.94283333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3614,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3628,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="C89" t="n">
-        <v>11.71</v>
+        <v>11.82</v>
       </c>
       <c r="D89" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="E89" t="n">
-        <v>11.71</v>
+        <v>11.82</v>
       </c>
       <c r="F89" t="n">
-        <v>11610.1733</v>
+        <v>42571.8414</v>
       </c>
       <c r="G89" t="n">
-        <v>11.92933333333335</v>
+        <v>11.93650000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3653,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3667,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="C90" t="n">
-        <v>11.94</v>
+        <v>11.71</v>
       </c>
       <c r="D90" t="n">
-        <v>11.94</v>
+        <v>11.81</v>
       </c>
       <c r="E90" t="n">
-        <v>11.94</v>
+        <v>11.71</v>
       </c>
       <c r="F90" t="n">
-        <v>33743.6337</v>
+        <v>11610.1733</v>
       </c>
       <c r="G90" t="n">
-        <v>11.92600000000002</v>
+        <v>11.92933333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3692,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3718,10 +3560,10 @@
         <v>11.94</v>
       </c>
       <c r="F91" t="n">
-        <v>15609.1804</v>
+        <v>33743.6337</v>
       </c>
       <c r="G91" t="n">
-        <v>11.92166666666668</v>
+        <v>11.92600000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3731,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3748,19 +3586,19 @@
         <v>11.94</v>
       </c>
       <c r="C92" t="n">
-        <v>12.17</v>
+        <v>11.94</v>
       </c>
       <c r="D92" t="n">
-        <v>12.17</v>
+        <v>11.94</v>
       </c>
       <c r="E92" t="n">
         <v>11.94</v>
       </c>
       <c r="F92" t="n">
-        <v>108.0378</v>
+        <v>15609.1804</v>
       </c>
       <c r="G92" t="n">
-        <v>11.92116666666668</v>
+        <v>11.92166666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3770,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.25</v>
+        <v>11.94</v>
       </c>
       <c r="C93" t="n">
-        <v>12.25</v>
+        <v>12.17</v>
       </c>
       <c r="D93" t="n">
-        <v>12.25</v>
+        <v>12.17</v>
       </c>
       <c r="E93" t="n">
-        <v>12.25</v>
+        <v>11.94</v>
       </c>
       <c r="F93" t="n">
-        <v>7000</v>
+        <v>108.0378</v>
       </c>
       <c r="G93" t="n">
-        <v>11.92200000000002</v>
+        <v>11.92116666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3809,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3835,10 +3665,10 @@
         <v>12.25</v>
       </c>
       <c r="F94" t="n">
-        <v>40716.6801</v>
+        <v>7000</v>
       </c>
       <c r="G94" t="n">
-        <v>11.92650000000001</v>
+        <v>11.92200000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3848,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3862,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="C95" t="n">
-        <v>10.58</v>
+        <v>12.25</v>
       </c>
       <c r="D95" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="E95" t="n">
-        <v>10.58</v>
+        <v>12.25</v>
       </c>
       <c r="F95" t="n">
-        <v>1502951.7229</v>
+        <v>40716.6801</v>
       </c>
       <c r="G95" t="n">
-        <v>11.90316666666668</v>
+        <v>11.92650000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3887,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3901,59 +3723,57 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.16</v>
+        <v>11.94</v>
       </c>
       <c r="C96" t="n">
-        <v>11.26</v>
+        <v>10.58</v>
       </c>
       <c r="D96" t="n">
-        <v>11.26</v>
+        <v>11.94</v>
       </c>
       <c r="E96" t="n">
-        <v>11.15</v>
+        <v>10.58</v>
       </c>
       <c r="F96" t="n">
-        <v>240300.0531</v>
+        <v>1502951.7229</v>
       </c>
       <c r="G96" t="n">
-        <v>11.89116666666668</v>
+        <v>11.90316666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.8</v>
+        <v>11.16</v>
       </c>
       <c r="C97" t="n">
-        <v>11.7</v>
+        <v>11.26</v>
       </c>
       <c r="D97" t="n">
-        <v>11.8</v>
+        <v>11.26</v>
       </c>
       <c r="E97" t="n">
-        <v>11.7</v>
+        <v>11.15</v>
       </c>
       <c r="F97" t="n">
-        <v>1011.7675</v>
+        <v>240300.0531</v>
       </c>
       <c r="G97" t="n">
-        <v>11.88650000000002</v>
+        <v>11.89116666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3973,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C98" t="n">
         <v>11.7</v>
       </c>
-      <c r="C98" t="n">
-        <v>11.79</v>
-      </c>
       <c r="D98" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="E98" t="n">
         <v>11.7</v>
       </c>
       <c r="F98" t="n">
-        <v>69987.679</v>
+        <v>1011.7675</v>
       </c>
       <c r="G98" t="n">
-        <v>11.87850000000001</v>
+        <v>11.88650000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4008,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C99" t="n">
         <v>11.79</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11.69</v>
       </c>
       <c r="D99" t="n">
         <v>11.79</v>
       </c>
       <c r="E99" t="n">
-        <v>11.69</v>
+        <v>11.7</v>
       </c>
       <c r="F99" t="n">
-        <v>24239.2516</v>
+        <v>69987.679</v>
       </c>
       <c r="G99" t="n">
-        <v>11.87333333333335</v>
+        <v>11.87850000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4043,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.61</v>
+        <v>11.79</v>
       </c>
       <c r="C100" t="n">
-        <v>11.68</v>
+        <v>11.69</v>
       </c>
       <c r="D100" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="E100" t="n">
-        <v>11.03</v>
+        <v>11.69</v>
       </c>
       <c r="F100" t="n">
-        <v>25736.6992</v>
+        <v>24239.2516</v>
       </c>
       <c r="G100" t="n">
-        <v>11.86766666666668</v>
+        <v>11.87333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4078,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.47</v>
+        <v>11.61</v>
       </c>
       <c r="C101" t="n">
-        <v>11.47</v>
+        <v>11.68</v>
       </c>
       <c r="D101" t="n">
-        <v>11.47</v>
+        <v>11.68</v>
       </c>
       <c r="E101" t="n">
-        <v>11.47</v>
+        <v>11.03</v>
       </c>
       <c r="F101" t="n">
-        <v>361.8958</v>
+        <v>25736.6992</v>
       </c>
       <c r="G101" t="n">
-        <v>11.85883333333335</v>
+        <v>11.86766666666668</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4113,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.48</v>
+        <v>11.47</v>
       </c>
       <c r="C102" t="n">
-        <v>11.48</v>
+        <v>11.47</v>
       </c>
       <c r="D102" t="n">
-        <v>11.48</v>
+        <v>11.47</v>
       </c>
       <c r="E102" t="n">
-        <v>11.48</v>
+        <v>11.47</v>
       </c>
       <c r="F102" t="n">
-        <v>195.1267</v>
+        <v>361.8958</v>
       </c>
       <c r="G102" t="n">
-        <v>11.85183333333335</v>
+        <v>11.85883333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4160,10 +3980,10 @@
         <v>11.48</v>
       </c>
       <c r="F103" t="n">
-        <v>3644.8733</v>
+        <v>195.1267</v>
       </c>
       <c r="G103" t="n">
-        <v>11.84316666666668</v>
+        <v>11.85183333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4195,10 +4015,10 @@
         <v>11.48</v>
       </c>
       <c r="F104" t="n">
-        <v>277.2708</v>
+        <v>3644.8733</v>
       </c>
       <c r="G104" t="n">
-        <v>11.83450000000002</v>
+        <v>11.84316666666668</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4221,19 +4041,19 @@
         <v>11.48</v>
       </c>
       <c r="C105" t="n">
-        <v>11.4</v>
+        <v>11.48</v>
       </c>
       <c r="D105" t="n">
         <v>11.48</v>
       </c>
       <c r="E105" t="n">
-        <v>11.4</v>
+        <v>11.48</v>
       </c>
       <c r="F105" t="n">
-        <v>30339.3992</v>
+        <v>277.2708</v>
       </c>
       <c r="G105" t="n">
-        <v>11.82616666666669</v>
+        <v>11.83450000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4253,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.39</v>
+        <v>11.48</v>
       </c>
       <c r="C106" t="n">
-        <v>11.39</v>
+        <v>11.4</v>
       </c>
       <c r="D106" t="n">
-        <v>11.39</v>
+        <v>11.48</v>
       </c>
       <c r="E106" t="n">
-        <v>11.39</v>
+        <v>11.4</v>
       </c>
       <c r="F106" t="n">
-        <v>697.885</v>
+        <v>30339.3992</v>
       </c>
       <c r="G106" t="n">
-        <v>11.81666666666668</v>
+        <v>11.82616666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4288,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.3</v>
+        <v>11.39</v>
       </c>
       <c r="C107" t="n">
         <v>11.39</v>
@@ -4297,13 +4117,13 @@
         <v>11.39</v>
       </c>
       <c r="E107" t="n">
-        <v>11.3</v>
+        <v>11.39</v>
       </c>
       <c r="F107" t="n">
-        <v>61661.432</v>
+        <v>697.885</v>
       </c>
       <c r="G107" t="n">
-        <v>11.80716666666668</v>
+        <v>11.81666666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4323,32 +4143,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.58</v>
+        <v>11.3</v>
       </c>
       <c r="C108" t="n">
-        <v>11.58</v>
+        <v>11.39</v>
       </c>
       <c r="D108" t="n">
-        <v>11.58</v>
+        <v>11.39</v>
       </c>
       <c r="E108" t="n">
-        <v>11.58</v>
+        <v>11.3</v>
       </c>
       <c r="F108" t="n">
-        <v>156.7173</v>
+        <v>61661.432</v>
       </c>
       <c r="G108" t="n">
-        <v>11.80033333333335</v>
+        <v>11.80716666666668</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.39</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4361,19 +4187,19 @@
         <v>11.58</v>
       </c>
       <c r="C109" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="D109" t="n">
         <v>11.58</v>
       </c>
       <c r="E109" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="F109" t="n">
-        <v>55359.3171</v>
+        <v>156.7173</v>
       </c>
       <c r="G109" t="n">
-        <v>11.78866666666668</v>
+        <v>11.80033333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4383,7 +4209,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4393,36 +4223,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="C110" t="n">
         <v>11.3</v>
       </c>
       <c r="D110" t="n">
-        <v>11.3</v>
+        <v>11.58</v>
       </c>
       <c r="E110" t="n">
         <v>11.3</v>
       </c>
       <c r="F110" t="n">
-        <v>43368.2511</v>
+        <v>55359.3171</v>
       </c>
       <c r="G110" t="n">
-        <v>11.77850000000002</v>
+        <v>11.78866666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4435,33 +4265,33 @@
         <v>11.3</v>
       </c>
       <c r="C111" t="n">
-        <v>11.36</v>
+        <v>11.3</v>
       </c>
       <c r="D111" t="n">
-        <v>11.36</v>
+        <v>11.3</v>
       </c>
       <c r="E111" t="n">
         <v>11.3</v>
       </c>
       <c r="F111" t="n">
-        <v>46384.2511</v>
+        <v>43368.2511</v>
       </c>
       <c r="G111" t="n">
-        <v>11.76783333333335</v>
+        <v>11.77850000000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
+      <c r="J111" t="n">
         <v>11.3</v>
       </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4473,33 +4303,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.45</v>
+        <v>11.3</v>
       </c>
       <c r="C112" t="n">
-        <v>11.45</v>
+        <v>11.36</v>
       </c>
       <c r="D112" t="n">
-        <v>11.45</v>
+        <v>11.36</v>
       </c>
       <c r="E112" t="n">
-        <v>11.45</v>
+        <v>11.3</v>
       </c>
       <c r="F112" t="n">
-        <v>8994.690000000001</v>
+        <v>46384.2511</v>
       </c>
       <c r="G112" t="n">
-        <v>11.76133333333335</v>
+        <v>11.76783333333335</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
+      <c r="J112" t="n">
         <v>11.3</v>
       </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4514,33 +4344,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.68</v>
+        <v>11.45</v>
       </c>
       <c r="C113" t="n">
-        <v>11.89</v>
+        <v>11.45</v>
       </c>
       <c r="D113" t="n">
-        <v>11.89</v>
+        <v>11.45</v>
       </c>
       <c r="E113" t="n">
-        <v>11.68</v>
+        <v>11.45</v>
       </c>
       <c r="F113" t="n">
-        <v>131077.1557</v>
+        <v>8994.690000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>11.76216666666668</v>
+        <v>11.76133333333335</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="J113" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,7 +4385,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.89</v>
+        <v>11.68</v>
       </c>
       <c r="C114" t="n">
         <v>11.89</v>
@@ -4564,13 +4394,13 @@
         <v>11.89</v>
       </c>
       <c r="E114" t="n">
-        <v>11.89</v>
+        <v>11.68</v>
       </c>
       <c r="F114" t="n">
-        <v>25353.6061</v>
+        <v>131077.1557</v>
       </c>
       <c r="G114" t="n">
-        <v>11.76050000000001</v>
+        <v>11.76216666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4579,9 +4409,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,19 +4427,19 @@
         <v>11.89</v>
       </c>
       <c r="C115" t="n">
-        <v>12.19</v>
+        <v>11.89</v>
       </c>
       <c r="D115" t="n">
-        <v>12.19</v>
+        <v>11.89</v>
       </c>
       <c r="E115" t="n">
         <v>11.89</v>
       </c>
       <c r="F115" t="n">
-        <v>23668.5453</v>
+        <v>25353.6061</v>
       </c>
       <c r="G115" t="n">
-        <v>11.76616666666668</v>
+        <v>11.76050000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4620,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,7 +4463,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.19</v>
+        <v>11.89</v>
       </c>
       <c r="C116" t="n">
         <v>12.19</v>
@@ -4646,13 +4472,13 @@
         <v>12.19</v>
       </c>
       <c r="E116" t="n">
-        <v>12.19</v>
+        <v>11.89</v>
       </c>
       <c r="F116" t="n">
-        <v>183.607</v>
+        <v>23668.5453</v>
       </c>
       <c r="G116" t="n">
-        <v>11.77183333333335</v>
+        <v>11.76616666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4661,9 +4487,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,22 +4502,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.95</v>
+        <v>12.19</v>
       </c>
       <c r="C117" t="n">
-        <v>12.12</v>
+        <v>12.19</v>
       </c>
       <c r="D117" t="n">
-        <v>12.12</v>
+        <v>12.19</v>
       </c>
       <c r="E117" t="n">
-        <v>11.95</v>
+        <v>12.19</v>
       </c>
       <c r="F117" t="n">
-        <v>87559.1038</v>
+        <v>183.607</v>
       </c>
       <c r="G117" t="n">
-        <v>11.77650000000002</v>
+        <v>11.77183333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4702,9 +4526,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,22 +4541,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.15</v>
+        <v>11.95</v>
       </c>
       <c r="C118" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="D118" t="n">
-        <v>12.15</v>
+        <v>12.12</v>
       </c>
       <c r="E118" t="n">
-        <v>12.15</v>
+        <v>11.95</v>
       </c>
       <c r="F118" t="n">
-        <v>155.5691</v>
+        <v>87559.1038</v>
       </c>
       <c r="G118" t="n">
-        <v>11.77900000000002</v>
+        <v>11.77650000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4743,9 +4565,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,22 +4580,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.12</v>
+        <v>12.15</v>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>12.15</v>
       </c>
       <c r="D119" t="n">
-        <v>12.12</v>
+        <v>12.15</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>12.15</v>
       </c>
       <c r="F119" t="n">
-        <v>9754.5304</v>
+        <v>155.5691</v>
       </c>
       <c r="G119" t="n">
-        <v>11.78150000000002</v>
+        <v>11.77900000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4784,9 +4604,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,22 +4619,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="C120" t="n">
         <v>12</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="E120" t="n">
         <v>12</v>
       </c>
       <c r="F120" t="n">
-        <v>2875.9046</v>
+        <v>9754.5304</v>
       </c>
       <c r="G120" t="n">
-        <v>11.78333333333335</v>
+        <v>11.78150000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4825,9 +4643,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,22 +4658,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="F121" t="n">
-        <v>16425.8273</v>
+        <v>2875.9046</v>
       </c>
       <c r="G121" t="n">
-        <v>11.78400000000001</v>
+        <v>11.78333333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4866,9 +4682,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,22 +4697,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="C122" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="D122" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="E122" t="n">
-        <v>11.94</v>
+        <v>11.93</v>
       </c>
       <c r="F122" t="n">
-        <v>37974.5311</v>
+        <v>16425.8273</v>
       </c>
       <c r="G122" t="n">
-        <v>11.78466666666668</v>
+        <v>11.78400000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4907,9 +4721,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,22 +4736,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
       <c r="C123" t="n">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
       <c r="D123" t="n">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
       <c r="E123" t="n">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
       <c r="F123" t="n">
-        <v>21251.77</v>
+        <v>37974.5311</v>
       </c>
       <c r="G123" t="n">
-        <v>11.78366666666668</v>
+        <v>11.78466666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4948,9 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,22 +4775,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="C124" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="D124" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="E124" t="n">
-        <v>12.05</v>
+        <v>11.92</v>
       </c>
       <c r="F124" t="n">
-        <v>566.6808</v>
+        <v>21251.77</v>
       </c>
       <c r="G124" t="n">
-        <v>11.78450000000001</v>
+        <v>11.78366666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4989,9 +4799,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,22 +4814,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="C125" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="D125" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="E125" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="F125" t="n">
-        <v>763.2024</v>
+        <v>566.6808</v>
       </c>
       <c r="G125" t="n">
-        <v>11.78600000000001</v>
+        <v>11.78450000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5030,9 +4838,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,79 +4853,69 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="C126" t="n">
-        <v>11.79</v>
+        <v>11.93</v>
       </c>
       <c r="D126" t="n">
-        <v>11.89</v>
+        <v>11.93</v>
       </c>
       <c r="E126" t="n">
-        <v>11.79</v>
+        <v>11.93</v>
       </c>
       <c r="F126" t="n">
-        <v>1195.0861</v>
+        <v>763.2024</v>
       </c>
       <c r="G126" t="n">
-        <v>11.78516666666668</v>
+        <v>11.78600000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="C127" t="n">
-        <v>11.95</v>
+        <v>11.79</v>
       </c>
       <c r="D127" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="E127" t="n">
-        <v>11.95</v>
+        <v>11.79</v>
       </c>
       <c r="F127" t="n">
-        <v>79.7107</v>
+        <v>1195.0861</v>
       </c>
       <c r="G127" t="n">
-        <v>11.78766666666668</v>
+        <v>11.78516666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5129,38 +4925,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="C128" t="n">
-        <v>11.73</v>
+        <v>11.95</v>
       </c>
       <c r="D128" t="n">
-        <v>11.84</v>
+        <v>11.95</v>
       </c>
       <c r="E128" t="n">
-        <v>11.73</v>
+        <v>11.95</v>
       </c>
       <c r="F128" t="n">
-        <v>9959.397999999999</v>
+        <v>79.7107</v>
       </c>
       <c r="G128" t="n">
-        <v>11.78650000000001</v>
+        <v>11.78766666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5170,22 +4960,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="C129" t="n">
-        <v>11.85</v>
+        <v>11.73</v>
       </c>
       <c r="D129" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="E129" t="n">
-        <v>11.85</v>
+        <v>11.73</v>
       </c>
       <c r="F129" t="n">
-        <v>324.6859</v>
+        <v>9959.397999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>11.78733333333335</v>
+        <v>11.78650000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5194,14 +4984,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5211,7 +4995,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.74</v>
+        <v>11.85</v>
       </c>
       <c r="C130" t="n">
         <v>11.85</v>
@@ -5220,13 +5004,13 @@
         <v>11.85</v>
       </c>
       <c r="E130" t="n">
-        <v>11.64</v>
+        <v>11.85</v>
       </c>
       <c r="F130" t="n">
-        <v>5178.0299</v>
+        <v>324.6859</v>
       </c>
       <c r="G130" t="n">
-        <v>11.78816666666668</v>
+        <v>11.78733333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5235,14 +5019,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5252,22 +5030,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.84</v>
+        <v>11.74</v>
       </c>
       <c r="C131" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="D131" t="n">
-        <v>11.84</v>
+        <v>11.85</v>
       </c>
       <c r="E131" t="n">
-        <v>11.84</v>
+        <v>11.64</v>
       </c>
       <c r="F131" t="n">
-        <v>100</v>
+        <v>5178.0299</v>
       </c>
       <c r="G131" t="n">
-        <v>11.78883333333335</v>
+        <v>11.78816666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5276,14 +5054,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5293,22 +5065,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="C132" t="n">
-        <v>11.73</v>
+        <v>11.84</v>
       </c>
       <c r="D132" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="E132" t="n">
-        <v>11.73</v>
+        <v>11.84</v>
       </c>
       <c r="F132" t="n">
-        <v>4600</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>11.78783333333335</v>
+        <v>11.78883333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5317,14 +5089,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5334,22 +5100,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.84</v>
+        <v>11.8</v>
       </c>
       <c r="C133" t="n">
-        <v>11.84</v>
+        <v>11.73</v>
       </c>
       <c r="D133" t="n">
-        <v>11.84</v>
+        <v>11.8</v>
       </c>
       <c r="E133" t="n">
-        <v>11.84</v>
+        <v>11.73</v>
       </c>
       <c r="F133" t="n">
-        <v>336.999</v>
+        <v>4600</v>
       </c>
       <c r="G133" t="n">
-        <v>11.78566666666669</v>
+        <v>11.78783333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5358,14 +5124,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5375,7 +5135,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.73</v>
+        <v>11.84</v>
       </c>
       <c r="C134" t="n">
         <v>11.84</v>
@@ -5384,13 +5144,13 @@
         <v>11.84</v>
       </c>
       <c r="E134" t="n">
-        <v>11.73</v>
+        <v>11.84</v>
       </c>
       <c r="F134" t="n">
-        <v>11318.8262</v>
+        <v>336.999</v>
       </c>
       <c r="G134" t="n">
-        <v>11.78350000000002</v>
+        <v>11.78566666666669</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5399,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5416,22 +5170,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.85</v>
+        <v>11.73</v>
       </c>
       <c r="C135" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="D135" t="n">
-        <v>11.85</v>
+        <v>11.84</v>
       </c>
       <c r="E135" t="n">
-        <v>11.85</v>
+        <v>11.73</v>
       </c>
       <c r="F135" t="n">
-        <v>4712.9691</v>
+        <v>11318.8262</v>
       </c>
       <c r="G135" t="n">
-        <v>11.78183333333335</v>
+        <v>11.78350000000002</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5440,14 +5194,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5457,22 +5205,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="C136" t="n">
-        <v>12.04</v>
+        <v>11.85</v>
       </c>
       <c r="D136" t="n">
-        <v>12.04</v>
+        <v>11.85</v>
       </c>
       <c r="E136" t="n">
-        <v>11.95</v>
+        <v>11.85</v>
       </c>
       <c r="F136" t="n">
-        <v>6059.8485</v>
+        <v>4712.9691</v>
       </c>
       <c r="G136" t="n">
-        <v>11.78466666666668</v>
+        <v>11.78183333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5481,14 +5229,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5498,39 +5240,68 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C137" t="n">
         <v>12.04</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6059.8485</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11.78466666666668</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C138" t="n">
         <v>12.05</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D138" t="n">
         <v>12.05</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E138" t="n">
         <v>12.04</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F138" t="n">
         <v>9757.427100000001</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G138" t="n">
         <v>11.78600000000002</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>56980.8978</v>
       </c>
       <c r="G2" t="n">
+        <v>12.28533333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.31433333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>7877.7452</v>
       </c>
       <c r="G3" t="n">
+        <v>12.26333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.31366666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>77186.2746</v>
       </c>
       <c r="G4" t="n">
+        <v>12.24066666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.31283333333335</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>118.8731</v>
       </c>
       <c r="G5" t="n">
+        <v>12.232</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.31550000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1300.5943</v>
       </c>
       <c r="G6" t="n">
+        <v>12.21133333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.31550000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>116.6347</v>
       </c>
       <c r="G7" t="n">
+        <v>12.21866666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.31816666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>362947.521</v>
       </c>
       <c r="G8" t="n">
+        <v>12.21466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.31633333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>732.0805</v>
       </c>
       <c r="G9" t="n">
+        <v>12.22533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.31883333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>101825.4142</v>
       </c>
       <c r="G10" t="n">
+        <v>12.216</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.31766666666668</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>222.222</v>
       </c>
       <c r="G11" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.32083333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>33838.8813</v>
       </c>
       <c r="G12" t="n">
+        <v>12.20533333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.32516666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>56.1064</v>
       </c>
       <c r="G13" t="n">
+        <v>12.19933333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.33000000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>56.1064</v>
       </c>
       <c r="G14" t="n">
+        <v>12.19733333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.33533333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>39.3508</v>
       </c>
       <c r="G15" t="n">
+        <v>12.20266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.34016666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>5957.9032</v>
       </c>
       <c r="G16" t="n">
+        <v>12.20866666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.34233333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>100000</v>
       </c>
       <c r="G17" t="n">
+        <v>12.222</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.34366666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>54.1188</v>
       </c>
       <c r="G18" t="n">
+        <v>12.224</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.34233333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>54.1188</v>
       </c>
       <c r="G19" t="n">
+        <v>12.23733333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>12.34366666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>4465</v>
       </c>
       <c r="G20" t="n">
+        <v>12.22533333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.34133333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>234.7851</v>
       </c>
       <c r="G21" t="n">
+        <v>12.23733333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.33633333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>46181.7172</v>
       </c>
       <c r="G22" t="n">
+        <v>12.226</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.32866666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>35097.8689</v>
       </c>
       <c r="G23" t="n">
+        <v>12.23266666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.32083333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>2760.4267</v>
       </c>
       <c r="G24" t="n">
+        <v>12.22133333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>12.31150000000001</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>137002.0441</v>
       </c>
       <c r="G25" t="n">
+        <v>12.22733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.30000000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>5927.6408</v>
       </c>
       <c r="G26" t="n">
+        <v>12.216</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.29216666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>71028.10890000001</v>
       </c>
       <c r="G27" t="n">
+        <v>12.20266666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.28700000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>2676.2278</v>
       </c>
       <c r="G28" t="n">
+        <v>12.18733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.27533333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>78054.9298</v>
       </c>
       <c r="G29" t="n">
+        <v>12.17666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.27000000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>12600</v>
       </c>
       <c r="G30" t="n">
+        <v>12.16399999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.26400000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>3072.7217</v>
       </c>
       <c r="G31" t="n">
+        <v>12.15466666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.25883333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>88505.2577</v>
       </c>
       <c r="G32" t="n">
+        <v>12.14933333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.25050000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>61247.7437</v>
       </c>
       <c r="G33" t="n">
+        <v>12.15466666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.24716666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10383.718</v>
       </c>
       <c r="G34" t="n">
+        <v>12.14933333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.23950000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>600161.525</v>
       </c>
       <c r="G35" t="n">
+        <v>12.14066666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.23083333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>25691.3811</v>
       </c>
       <c r="G36" t="n">
+        <v>12.12066666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.22300000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>24332.8476</v>
       </c>
       <c r="G37" t="n">
+        <v>12.11133333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.21316666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>47523.0173</v>
       </c>
       <c r="G38" t="n">
+        <v>12.10199999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.20966666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>8957.720499999999</v>
       </c>
       <c r="G39" t="n">
+        <v>12.11266666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.21100000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>90293.7329</v>
       </c>
       <c r="G40" t="n">
+        <v>12.10533333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.20400000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>81350.9204</v>
       </c>
       <c r="G41" t="n">
+        <v>12.09933333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.20066666666668</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>301188.7833</v>
       </c>
       <c r="G42" t="n">
+        <v>12.09266666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.19416666666668</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>34029.3263</v>
       </c>
       <c r="G43" t="n">
+        <v>12.07933333333332</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.18950000000001</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1972.1157</v>
       </c>
       <c r="G44" t="n">
+        <v>12.06599999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.18616666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>77485.9034</v>
       </c>
       <c r="G45" t="n">
+        <v>12.05666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.18283333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>177710.2405</v>
       </c>
       <c r="G46" t="n">
+        <v>12.04066666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.17783333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>50534.0918</v>
       </c>
       <c r="G47" t="n">
+        <v>12.02466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.17033333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>104611.457</v>
       </c>
       <c r="G48" t="n">
+        <v>12.00866666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.16266666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>993.0955</v>
       </c>
       <c r="G49" t="n">
+        <v>11.99466666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.15550000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>108027.1532</v>
       </c>
       <c r="G50" t="n">
+        <v>11.99599999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.14850000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>24258.3268</v>
       </c>
       <c r="G51" t="n">
+        <v>11.99133333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.14016666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>79442.576</v>
       </c>
       <c r="G52" t="n">
+        <v>11.99266666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.13716666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>159213.5066</v>
       </c>
       <c r="G53" t="n">
+        <v>11.98333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.13316666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>88505.2577</v>
       </c>
       <c r="G54" t="n">
+        <v>11.95466666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.12850000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>50</v>
       </c>
       <c r="G55" t="n">
+        <v>11.954</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.12566666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>204</v>
       </c>
       <c r="G56" t="n">
+        <v>11.94266666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.11700000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>15349.7322</v>
       </c>
       <c r="G57" t="n">
+        <v>11.93266666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.10833333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>163.4006</v>
       </c>
       <c r="G58" t="n">
+        <v>11.92866666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.09866666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>7500</v>
       </c>
       <c r="G59" t="n">
+        <v>11.92866666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.09216666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>59.6658</v>
       </c>
       <c r="G60" t="n">
+        <v>11.91866666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.08550000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>66583.7424</v>
       </c>
       <c r="G61" t="n">
+        <v>11.91799999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.08050000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>80386.3579</v>
       </c>
       <c r="G62" t="n">
+        <v>11.91333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.07733333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>80364.5981</v>
       </c>
       <c r="G63" t="n">
+        <v>11.90933333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.07416666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>59.6658</v>
       </c>
       <c r="G64" t="n">
+        <v>11.90866666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.07250000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>117.5964</v>
       </c>
       <c r="G65" t="n">
+        <v>11.90866666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.06766666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>62550.3375</v>
       </c>
       <c r="G66" t="n">
+        <v>11.90399999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.06333333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>100400.6755</v>
       </c>
       <c r="G67" t="n">
+        <v>11.89333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.05583333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>213722.9407</v>
       </c>
       <c r="G68" t="n">
+        <v>11.89066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.05216666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>319.6504</v>
       </c>
       <c r="G69" t="n">
+        <v>11.88799999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.04416666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>80845.6156</v>
       </c>
       <c r="G70" t="n">
+        <v>11.87533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.04050000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>239.9133</v>
       </c>
       <c r="G71" t="n">
+        <v>11.87199999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.03250000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>1470.9183</v>
       </c>
       <c r="G72" t="n">
+        <v>11.86866666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.02416666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>196775.0673</v>
       </c>
       <c r="G73" t="n">
+        <v>11.86533333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.01516666666668</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1208.1655</v>
       </c>
       <c r="G74" t="n">
+        <v>11.86333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.00866666666668</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>3814.8367</v>
       </c>
       <c r="G75" t="n">
+        <v>11.87133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.00266666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>837.6738</v>
       </c>
       <c r="G76" t="n">
+        <v>11.87533333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>11.99716666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>117000</v>
       </c>
       <c r="G77" t="n">
+        <v>11.874</v>
+      </c>
+      <c r="H77" t="n">
         <v>11.99033333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>245.5507</v>
       </c>
       <c r="G78" t="n">
+        <v>11.87866666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>11.98783333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>90017.0916</v>
       </c>
       <c r="G79" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H79" t="n">
         <v>11.98066666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>112671.4212</v>
       </c>
       <c r="G80" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="H80" t="n">
         <v>11.97633333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>199.7339</v>
       </c>
       <c r="G81" t="n">
+        <v>11.86866666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>11.97116666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>7107.2267</v>
       </c>
       <c r="G82" t="n">
+        <v>11.86666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>11.96600000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>201890.6452</v>
       </c>
       <c r="G83" t="n">
+        <v>11.86666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>11.96066666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>240.6047</v>
       </c>
       <c r="G84" t="n">
+        <v>11.86933333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>11.95616666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>370746.4571</v>
       </c>
       <c r="G85" t="n">
+        <v>11.85999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>11.94866666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>379.9934</v>
       </c>
       <c r="G86" t="n">
+        <v>11.87066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>11.94616666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>43947.5679</v>
       </c>
       <c r="G87" t="n">
+        <v>11.88399999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>11.94450000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>24809.5958</v>
       </c>
       <c r="G88" t="n">
+        <v>11.89799999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>11.94283333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>42571.8414</v>
       </c>
       <c r="G89" t="n">
+        <v>11.88799999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>11.93650000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>11610.1733</v>
       </c>
       <c r="G90" t="n">
+        <v>11.87066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.92933333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>33743.6337</v>
       </c>
       <c r="G91" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.92600000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>15609.1804</v>
       </c>
       <c r="G92" t="n">
+        <v>11.87466666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.92166666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>108.0378</v>
       </c>
       <c r="G93" t="n">
+        <v>11.88799999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.92116666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>7000</v>
       </c>
       <c r="G94" t="n">
+        <v>11.91466666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.92200000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>40716.6801</v>
       </c>
       <c r="G95" t="n">
+        <v>11.94133333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.92650000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1502951.7229</v>
       </c>
       <c r="G96" t="n">
+        <v>11.84866666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.90316666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>240300.0531</v>
       </c>
       <c r="G97" t="n">
+        <v>11.81199999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.89116666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1011.7675</v>
       </c>
       <c r="G98" t="n">
+        <v>11.80533333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.88650000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>69987.679</v>
       </c>
       <c r="G99" t="n">
+        <v>11.80199999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.87850000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>24239.2516</v>
       </c>
       <c r="G100" t="n">
+        <v>11.80399999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.87333333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>25736.6992</v>
       </c>
       <c r="G101" t="n">
+        <v>11.78533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.86766666666668</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>361.8958</v>
       </c>
       <c r="G102" t="n">
+        <v>11.74999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.85883333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>195.1267</v>
       </c>
       <c r="G103" t="n">
+        <v>11.71533333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.85183333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,25 @@
         <v>3644.8733</v>
       </c>
       <c r="G104" t="n">
+        <v>11.69266666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.84316666666668</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L104" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4371,29 @@
         <v>277.2708</v>
       </c>
       <c r="G105" t="n">
+        <v>11.67733333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.83450000000002</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L105" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4417,29 @@
         <v>30339.3992</v>
       </c>
       <c r="G106" t="n">
+        <v>11.64133333333332</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.82616666666669</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L106" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4463,29 @@
         <v>697.885</v>
       </c>
       <c r="G107" t="n">
+        <v>11.60466666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.81666666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L107" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,24 +4509,29 @@
         <v>61661.432</v>
       </c>
       <c r="G108" t="n">
+        <v>11.55266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.80716666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
         <v>11.39</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4199,22 +4555,29 @@
         <v>156.7173</v>
       </c>
       <c r="G109" t="n">
+        <v>11.50799999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.80033333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="L109" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,22 +4601,29 @@
         <v>55359.3171</v>
       </c>
       <c r="G110" t="n">
+        <v>11.44466666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.78866666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="L110" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4277,24 +4647,29 @@
         <v>43368.2511</v>
       </c>
       <c r="G111" t="n">
+        <v>11.49266666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.77850000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
         <v>11.3</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,24 +4693,29 @@
         <v>46384.2511</v>
       </c>
       <c r="G112" t="n">
+        <v>11.49933333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.76783333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
         <v>11.3</v>
       </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4359,24 +4739,27 @@
         <v>8994.690000000001</v>
       </c>
       <c r="G113" t="n">
+        <v>11.48266666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.76133333333335</v>
       </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,22 +4783,27 @@
         <v>131077.1557</v>
       </c>
       <c r="G114" t="n">
+        <v>11.48933333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.76216666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,22 +4827,27 @@
         <v>25353.6061</v>
       </c>
       <c r="G115" t="n">
+        <v>11.50266666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.76050000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,22 +4871,27 @@
         <v>23668.5453</v>
       </c>
       <c r="G116" t="n">
+        <v>11.53666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.76616666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,22 +4915,27 @@
         <v>183.607</v>
       </c>
       <c r="G117" t="n">
+        <v>11.58466666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.77183333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,22 +4959,27 @@
         <v>87559.1038</v>
       </c>
       <c r="G118" t="n">
+        <v>11.62733333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.77650000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,22 +5003,27 @@
         <v>155.5691</v>
       </c>
       <c r="G119" t="n">
+        <v>11.672</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.77900000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,22 +5047,27 @@
         <v>9754.5304</v>
       </c>
       <c r="G120" t="n">
+        <v>11.70666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.78150000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,22 +5091,27 @@
         <v>2875.9046</v>
       </c>
       <c r="G121" t="n">
+        <v>11.74666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.78333333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,22 +5135,27 @@
         <v>16425.8273</v>
       </c>
       <c r="G122" t="n">
+        <v>11.78266666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.78400000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,22 +5179,27 @@
         <v>37974.5311</v>
       </c>
       <c r="G123" t="n">
+        <v>11.81933333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.78466666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,22 +5223,27 @@
         <v>21251.77</v>
       </c>
       <c r="G124" t="n">
+        <v>11.842</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.78366666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,22 +5267,27 @@
         <v>566.6808</v>
       </c>
       <c r="G125" t="n">
+        <v>11.892</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.78450000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4868,22 +5311,29 @@
         <v>763.2024</v>
       </c>
       <c r="G126" t="n">
+        <v>11.934</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.78600000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4905,18 +5355,27 @@
         <v>1195.0861</v>
       </c>
       <c r="G127" t="n">
+        <v>11.96266666666666</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.78516666666668</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,18 +5399,27 @@
         <v>79.7107</v>
       </c>
       <c r="G128" t="n">
+        <v>11.996</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.78766666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4975,18 +5443,27 @@
         <v>9959.397999999999</v>
       </c>
       <c r="G129" t="n">
+        <v>11.98533333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.78650000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,18 +5487,27 @@
         <v>324.6859</v>
       </c>
       <c r="G130" t="n">
+        <v>11.98266666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.78733333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5045,18 +5531,27 @@
         <v>5178.0299</v>
       </c>
       <c r="G131" t="n">
+        <v>11.95999999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.78816666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,18 +5575,27 @@
         <v>100</v>
       </c>
       <c r="G132" t="n">
+        <v>11.93666666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.78883333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5115,18 +5619,27 @@
         <v>4600</v>
       </c>
       <c r="G133" t="n">
+        <v>11.91066666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.78783333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,18 +5663,27 @@
         <v>336.999</v>
       </c>
       <c r="G134" t="n">
+        <v>11.88999999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.78566666666669</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5185,18 +5707,27 @@
         <v>11318.8262</v>
       </c>
       <c r="G135" t="n">
+        <v>11.87933333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.78350000000002</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5220,18 +5751,27 @@
         <v>4712.9691</v>
       </c>
       <c r="G136" t="n">
+        <v>11.86933333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.78183333333335</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5255,18 +5795,27 @@
         <v>6059.8485</v>
       </c>
       <c r="G137" t="n">
+        <v>11.87666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.78466666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,18 +5839,467 @@
         <v>9757.427100000001</v>
       </c>
       <c r="G138" t="n">
+        <v>11.88399999999999</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.78600000000002</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3872.5398</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11.88599999999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>11.78766666666668</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F140" t="n">
+        <v>277.2945</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11.88599999999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>11.79100000000002</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13280.3553</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11.90066666666666</v>
+      </c>
+      <c r="H141" t="n">
+        <v>11.79400000000001</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18285.8341</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.92266666666666</v>
+      </c>
+      <c r="H142" t="n">
+        <v>11.79916666666668</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3818.3594</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11.93399999999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>11.80450000000002</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F144" t="n">
+        <v>202058.24</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11.97999999999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>11.81416666666668</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29532.6065</v>
+      </c>
+      <c r="G145" t="n">
+        <v>12.00466666666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>11.82350000000002</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3639.4894</v>
+      </c>
+      <c r="G146" t="n">
+        <v>12.03266666666666</v>
+      </c>
+      <c r="H146" t="n">
+        <v>11.82866666666668</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F147" t="n">
+        <v>115190.5595</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12.05399999999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>11.83133333333335</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F148" t="n">
+        <v>124545.215</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H148" t="n">
+        <v>11.83500000000002</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.18</v>
+        <v>12.45</v>
       </c>
       <c r="C2" t="n">
-        <v>12.08</v>
+        <v>12.4</v>
       </c>
       <c r="D2" t="n">
-        <v>12.18</v>
+        <v>12.45</v>
       </c>
       <c r="E2" t="n">
-        <v>12.08</v>
+        <v>12.4</v>
       </c>
       <c r="F2" t="n">
-        <v>56980.8978</v>
+        <v>26365.5739</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28533333333333</v>
+        <v>-889272.098</v>
       </c>
       <c r="H2" t="n">
-        <v>12.31433333333335</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.09</v>
+        <v>12.66</v>
       </c>
       <c r="C3" t="n">
-        <v>12.09</v>
+        <v>12.66</v>
       </c>
       <c r="D3" t="n">
-        <v>12.09</v>
+        <v>12.66</v>
       </c>
       <c r="E3" t="n">
-        <v>12.09</v>
+        <v>12.66</v>
       </c>
       <c r="F3" t="n">
-        <v>7877.7452</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="n">
-        <v>12.26333333333333</v>
+        <v>-839272.098</v>
       </c>
       <c r="H3" t="n">
-        <v>12.31366666666668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.12</v>
+        <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>12.08</v>
+        <v>12.5</v>
       </c>
       <c r="D4" t="n">
-        <v>12.12</v>
+        <v>12.5</v>
       </c>
       <c r="E4" t="n">
-        <v>12.08</v>
+        <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>77186.2746</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="n">
-        <v>12.24066666666667</v>
+        <v>-841272.098</v>
       </c>
       <c r="H4" t="n">
-        <v>12.31283333333335</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.11</v>
+        <v>12.64</v>
       </c>
       <c r="C5" t="n">
-        <v>12.29</v>
+        <v>12.45</v>
       </c>
       <c r="D5" t="n">
-        <v>12.29</v>
+        <v>12.64</v>
       </c>
       <c r="E5" t="n">
-        <v>12.11</v>
+        <v>12.45</v>
       </c>
       <c r="F5" t="n">
-        <v>118.8731</v>
+        <v>66762.6409</v>
       </c>
       <c r="G5" t="n">
-        <v>12.232</v>
+        <v>-908034.7389</v>
       </c>
       <c r="H5" t="n">
-        <v>12.31550000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.1</v>
+        <v>12.57</v>
       </c>
       <c r="C6" t="n">
-        <v>12.1</v>
+        <v>12.57</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>12.57</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1</v>
+        <v>12.57</v>
       </c>
       <c r="F6" t="n">
-        <v>1300.5943</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="n">
-        <v>12.21133333333333</v>
+        <v>-903034.7389</v>
       </c>
       <c r="H6" t="n">
-        <v>12.31550000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.1</v>
+        <v>12.42</v>
       </c>
       <c r="C7" t="n">
-        <v>12.29</v>
+        <v>12.19</v>
       </c>
       <c r="D7" t="n">
-        <v>12.29</v>
+        <v>12.42</v>
       </c>
       <c r="E7" t="n">
-        <v>12.1</v>
+        <v>12.19</v>
       </c>
       <c r="F7" t="n">
-        <v>116.6347</v>
+        <v>221.7776</v>
       </c>
       <c r="G7" t="n">
-        <v>12.21866666666667</v>
+        <v>-903256.5165</v>
       </c>
       <c r="H7" t="n">
-        <v>12.31816666666668</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1</v>
+        <v>12.19</v>
       </c>
       <c r="C8" t="n">
-        <v>12.02</v>
+        <v>12.19</v>
       </c>
       <c r="D8" t="n">
-        <v>12.1</v>
+        <v>12.19</v>
       </c>
       <c r="E8" t="n">
-        <v>12.02</v>
+        <v>12.19</v>
       </c>
       <c r="F8" t="n">
-        <v>362947.521</v>
+        <v>1037.525</v>
       </c>
       <c r="G8" t="n">
-        <v>12.21466666666667</v>
+        <v>-903256.5165</v>
       </c>
       <c r="H8" t="n">
-        <v>12.31633333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.03</v>
+        <v>12.42</v>
       </c>
       <c r="C9" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="D9" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="E9" t="n">
-        <v>12.03</v>
+        <v>12.42</v>
       </c>
       <c r="F9" t="n">
-        <v>732.0805</v>
+        <v>656.6274</v>
       </c>
       <c r="G9" t="n">
-        <v>12.22533333333333</v>
+        <v>-902599.8891</v>
       </c>
       <c r="H9" t="n">
-        <v>12.31883333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="C10" t="n">
-        <v>12.02</v>
+        <v>12.22</v>
       </c>
       <c r="D10" t="n">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="E10" t="n">
-        <v>12.02</v>
+        <v>12.22</v>
       </c>
       <c r="F10" t="n">
-        <v>101825.4142</v>
+        <v>1037.525</v>
       </c>
       <c r="G10" t="n">
-        <v>12.216</v>
+        <v>-903637.4141000001</v>
       </c>
       <c r="H10" t="n">
-        <v>12.31766666666668</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.28</v>
+        <v>12.39</v>
       </c>
       <c r="C11" t="n">
-        <v>12.28</v>
+        <v>12.39</v>
       </c>
       <c r="D11" t="n">
-        <v>12.28</v>
+        <v>12.39</v>
       </c>
       <c r="E11" t="n">
-        <v>12.28</v>
+        <v>12.39</v>
       </c>
       <c r="F11" t="n">
-        <v>222.222</v>
+        <v>443.0016</v>
       </c>
       <c r="G11" t="n">
-        <v>12.21</v>
+        <v>-903194.4125000001</v>
       </c>
       <c r="H11" t="n">
-        <v>12.32083333333335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.26</v>
+        <v>12.19</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3</v>
+        <v>12.18</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3</v>
+        <v>12.19</v>
       </c>
       <c r="E12" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="F12" t="n">
-        <v>33838.8813</v>
+        <v>114521.3598</v>
       </c>
       <c r="G12" t="n">
-        <v>12.20533333333333</v>
+        <v>-1017715.7723</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32516666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="D13" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="E13" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="F13" t="n">
-        <v>56.1064</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>12.19933333333334</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H13" t="n">
-        <v>12.33000000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.36</v>
+        <v>12.21</v>
       </c>
       <c r="C14" t="n">
-        <v>12.36</v>
+        <v>12.2</v>
       </c>
       <c r="D14" t="n">
-        <v>12.36</v>
+        <v>12.21</v>
       </c>
       <c r="E14" t="n">
-        <v>12.36</v>
+        <v>12.2</v>
       </c>
       <c r="F14" t="n">
-        <v>56.1064</v>
+        <v>31561.1501</v>
       </c>
       <c r="G14" t="n">
-        <v>12.19733333333334</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H14" t="n">
-        <v>12.33533333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.33</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>39.3508</v>
+        <v>82960.20970000001</v>
       </c>
       <c r="G15" t="n">
-        <v>12.20266666666667</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H15" t="n">
-        <v>12.34016666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.28</v>
+        <v>12.41</v>
       </c>
       <c r="C16" t="n">
-        <v>12.28</v>
+        <v>12.41</v>
       </c>
       <c r="D16" t="n">
-        <v>12.28</v>
+        <v>12.41</v>
       </c>
       <c r="E16" t="n">
-        <v>12.28</v>
+        <v>12.41</v>
       </c>
       <c r="F16" t="n">
-        <v>5957.9032</v>
+        <v>128.5312</v>
       </c>
       <c r="G16" t="n">
-        <v>12.20866666666667</v>
+        <v>-1012587.2411</v>
       </c>
       <c r="H16" t="n">
-        <v>12.34233333333335</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="C17" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="D17" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="E17" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="F17" t="n">
-        <v>100000</v>
+        <v>74.65689999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>12.222</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H17" t="n">
-        <v>12.34366666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.12</v>
+        <v>12.42</v>
       </c>
       <c r="C18" t="n">
-        <v>12.12</v>
+        <v>12.42</v>
       </c>
       <c r="D18" t="n">
-        <v>12.12</v>
+        <v>12.42</v>
       </c>
       <c r="E18" t="n">
-        <v>12.12</v>
+        <v>12.42</v>
       </c>
       <c r="F18" t="n">
-        <v>54.1188</v>
+        <v>106889.7297</v>
       </c>
       <c r="G18" t="n">
-        <v>12.224</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H18" t="n">
-        <v>12.34233333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="C19" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="D19" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="E19" t="n">
-        <v>12.28</v>
+        <v>12.42</v>
       </c>
       <c r="F19" t="n">
-        <v>54.1188</v>
+        <v>669.9828</v>
       </c>
       <c r="G19" t="n">
-        <v>12.23733333333334</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H19" t="n">
-        <v>12.34366666666668</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.11</v>
+        <v>12.41</v>
       </c>
       <c r="C20" t="n">
-        <v>12.11</v>
+        <v>12.41</v>
       </c>
       <c r="D20" t="n">
-        <v>12.11</v>
+        <v>12.41</v>
       </c>
       <c r="E20" t="n">
-        <v>12.11</v>
+        <v>12.41</v>
       </c>
       <c r="F20" t="n">
-        <v>4465</v>
+        <v>120.6194</v>
       </c>
       <c r="G20" t="n">
-        <v>12.22533333333334</v>
+        <v>-1012633.2036</v>
       </c>
       <c r="H20" t="n">
-        <v>12.34133333333335</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.28</v>
+        <v>12.21</v>
       </c>
       <c r="C21" t="n">
-        <v>12.28</v>
+        <v>12.18</v>
       </c>
       <c r="D21" t="n">
-        <v>12.28</v>
+        <v>12.21</v>
       </c>
       <c r="E21" t="n">
-        <v>12.28</v>
+        <v>12.18</v>
       </c>
       <c r="F21" t="n">
-        <v>234.7851</v>
+        <v>67235.1949</v>
       </c>
       <c r="G21" t="n">
-        <v>12.23733333333334</v>
+        <v>-1079868.3985</v>
       </c>
       <c r="H21" t="n">
-        <v>12.33633333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.12</v>
+        <v>12.18</v>
       </c>
       <c r="C22" t="n">
-        <v>12.12</v>
+        <v>12.08</v>
       </c>
       <c r="D22" t="n">
-        <v>12.12</v>
+        <v>12.18</v>
       </c>
       <c r="E22" t="n">
-        <v>12.12</v>
+        <v>12.08</v>
       </c>
       <c r="F22" t="n">
-        <v>46181.7172</v>
+        <v>99426.899</v>
       </c>
       <c r="G22" t="n">
-        <v>12.226</v>
+        <v>-1179295.2975</v>
       </c>
       <c r="H22" t="n">
-        <v>12.32866666666668</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1248,24 +1180,21 @@
         <v>12.12</v>
       </c>
       <c r="F23" t="n">
-        <v>35097.8689</v>
+        <v>13076.9073</v>
       </c>
       <c r="G23" t="n">
-        <v>12.23266666666667</v>
+        <v>-1166218.3902</v>
       </c>
       <c r="H23" t="n">
-        <v>12.32083333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="C24" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="D24" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="E24" t="n">
-        <v>12.11</v>
+        <v>12.16</v>
       </c>
       <c r="F24" t="n">
-        <v>2760.4267</v>
+        <v>4520.7984</v>
       </c>
       <c r="G24" t="n">
-        <v>12.22133333333334</v>
+        <v>-1161697.5918</v>
       </c>
       <c r="H24" t="n">
-        <v>12.31150000000001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="C25" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="D25" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="E25" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="F25" t="n">
-        <v>137002.0441</v>
+        <v>46.4731</v>
       </c>
       <c r="G25" t="n">
-        <v>12.22733333333333</v>
+        <v>-1161651.1187</v>
       </c>
       <c r="H25" t="n">
-        <v>12.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="C26" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="D26" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="E26" t="n">
-        <v>12.11</v>
+        <v>12.37</v>
       </c>
       <c r="F26" t="n">
-        <v>5927.6408</v>
+        <v>51.8082</v>
       </c>
       <c r="G26" t="n">
-        <v>12.216</v>
+        <v>-1161651.1187</v>
       </c>
       <c r="H26" t="n">
-        <v>12.29216666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.11</v>
+        <v>12.42</v>
       </c>
       <c r="C27" t="n">
-        <v>12.1</v>
+        <v>12.42</v>
       </c>
       <c r="D27" t="n">
-        <v>12.11</v>
+        <v>12.42</v>
       </c>
       <c r="E27" t="n">
-        <v>12.1</v>
+        <v>12.42</v>
       </c>
       <c r="F27" t="n">
-        <v>71028.10890000001</v>
+        <v>126.2616</v>
       </c>
       <c r="G27" t="n">
-        <v>12.20266666666666</v>
+        <v>-1161524.8571</v>
       </c>
       <c r="H27" t="n">
-        <v>12.28700000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="C28" t="n">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="D28" t="n">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="E28" t="n">
-        <v>12.1</v>
+        <v>12.39</v>
       </c>
       <c r="F28" t="n">
-        <v>2676.2278</v>
+        <v>12076.2741</v>
       </c>
       <c r="G28" t="n">
-        <v>12.18733333333333</v>
+        <v>-1173601.1312</v>
       </c>
       <c r="H28" t="n">
-        <v>12.27533333333335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="D29" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="E29" t="n">
-        <v>12.2</v>
+        <v>12.25</v>
       </c>
       <c r="F29" t="n">
-        <v>78054.9298</v>
+        <v>19006.2923</v>
       </c>
       <c r="G29" t="n">
-        <v>12.17666666666666</v>
+        <v>-1192607.4235</v>
       </c>
       <c r="H29" t="n">
-        <v>12.27000000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.14</v>
+        <v>12.24</v>
       </c>
       <c r="C30" t="n">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="D30" t="n">
-        <v>12.14</v>
+        <v>12.24</v>
       </c>
       <c r="E30" t="n">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="F30" t="n">
-        <v>12600</v>
+        <v>34013.228</v>
       </c>
       <c r="G30" t="n">
-        <v>12.16399999999999</v>
+        <v>-1226620.6515</v>
       </c>
       <c r="H30" t="n">
-        <v>12.26400000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="C31" t="n">
-        <v>12.14</v>
+        <v>12.08</v>
       </c>
       <c r="D31" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="E31" t="n">
-        <v>12.14</v>
+        <v>12.08</v>
       </c>
       <c r="F31" t="n">
-        <v>3072.7217</v>
+        <v>56980.8978</v>
       </c>
       <c r="G31" t="n">
-        <v>12.15466666666666</v>
+        <v>-1283601.5493</v>
       </c>
       <c r="H31" t="n">
-        <v>12.25883333333335</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="C32" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="D32" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="E32" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="F32" t="n">
-        <v>88505.2577</v>
+        <v>7877.7452</v>
       </c>
       <c r="G32" t="n">
-        <v>12.14933333333333</v>
+        <v>-1275723.8041</v>
       </c>
       <c r="H32" t="n">
-        <v>12.25050000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2</v>
+        <v>12.12</v>
       </c>
       <c r="C33" t="n">
-        <v>12.2</v>
+        <v>12.08</v>
       </c>
       <c r="D33" t="n">
-        <v>12.2</v>
+        <v>12.12</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2</v>
+        <v>12.08</v>
       </c>
       <c r="F33" t="n">
-        <v>61247.7437</v>
+        <v>77186.2746</v>
       </c>
       <c r="G33" t="n">
-        <v>12.15466666666666</v>
+        <v>-1352910.0787</v>
       </c>
       <c r="H33" t="n">
-        <v>12.24716666666668</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="C34" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="D34" t="n">
-        <v>12.2</v>
+        <v>12.29</v>
       </c>
       <c r="E34" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="F34" t="n">
-        <v>10383.718</v>
+        <v>118.8731</v>
       </c>
       <c r="G34" t="n">
-        <v>12.14933333333332</v>
+        <v>-1352791.2056</v>
       </c>
       <c r="H34" t="n">
-        <v>12.23950000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C35" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="F35" t="n">
-        <v>600161.525</v>
+        <v>1300.5943</v>
       </c>
       <c r="G35" t="n">
-        <v>12.14066666666666</v>
+        <v>-1354091.7999</v>
       </c>
       <c r="H35" t="n">
-        <v>12.23083333333335</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.99</v>
+        <v>12.1</v>
       </c>
       <c r="C36" t="n">
-        <v>11.98</v>
+        <v>12.29</v>
       </c>
       <c r="D36" t="n">
-        <v>11.99</v>
+        <v>12.29</v>
       </c>
       <c r="E36" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="F36" t="n">
-        <v>25691.3811</v>
+        <v>116.6347</v>
       </c>
       <c r="G36" t="n">
-        <v>12.12066666666666</v>
+        <v>-1353975.1652</v>
       </c>
       <c r="H36" t="n">
-        <v>12.22300000000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>11.98</v>
+        <v>12.02</v>
       </c>
       <c r="D37" t="n">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>11.98</v>
+        <v>12.02</v>
       </c>
       <c r="F37" t="n">
-        <v>24332.8476</v>
+        <v>362947.521</v>
       </c>
       <c r="G37" t="n">
-        <v>12.11133333333332</v>
+        <v>-1716922.6862</v>
       </c>
       <c r="H37" t="n">
-        <v>12.21316666666668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.99</v>
+        <v>12.03</v>
       </c>
       <c r="C38" t="n">
-        <v>11.98</v>
+        <v>12.28</v>
       </c>
       <c r="D38" t="n">
-        <v>11.99</v>
+        <v>12.28</v>
       </c>
       <c r="E38" t="n">
-        <v>11.98</v>
+        <v>12.03</v>
       </c>
       <c r="F38" t="n">
-        <v>47523.0173</v>
+        <v>732.0805</v>
       </c>
       <c r="G38" t="n">
-        <v>12.10199999999999</v>
+        <v>-1716190.6057</v>
       </c>
       <c r="H38" t="n">
-        <v>12.20966666666668</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.27</v>
+        <v>12.03</v>
       </c>
       <c r="C39" t="n">
-        <v>12.27</v>
+        <v>12.02</v>
       </c>
       <c r="D39" t="n">
-        <v>12.27</v>
+        <v>12.03</v>
       </c>
       <c r="E39" t="n">
-        <v>12.27</v>
+        <v>12.02</v>
       </c>
       <c r="F39" t="n">
-        <v>8957.720499999999</v>
+        <v>101825.4142</v>
       </c>
       <c r="G39" t="n">
-        <v>12.11266666666666</v>
+        <v>-1818016.0199</v>
       </c>
       <c r="H39" t="n">
-        <v>12.21100000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="F40" t="n">
-        <v>90293.7329</v>
+        <v>222.222</v>
       </c>
       <c r="G40" t="n">
-        <v>12.10533333333332</v>
+        <v>-1817793.7979</v>
       </c>
       <c r="H40" t="n">
-        <v>12.20400000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.04</v>
+        <v>12.26</v>
       </c>
       <c r="C41" t="n">
-        <v>12.02</v>
+        <v>12.3</v>
       </c>
       <c r="D41" t="n">
-        <v>12.04</v>
+        <v>12.3</v>
       </c>
       <c r="E41" t="n">
-        <v>12.02</v>
+        <v>12.26</v>
       </c>
       <c r="F41" t="n">
-        <v>81350.9204</v>
+        <v>33838.8813</v>
       </c>
       <c r="G41" t="n">
-        <v>12.09933333333332</v>
+        <v>-1783954.9166</v>
       </c>
       <c r="H41" t="n">
-        <v>12.20066666666668</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.03</v>
+        <v>12.33</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="D42" t="n">
-        <v>12.03</v>
+        <v>12.33</v>
       </c>
       <c r="E42" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="F42" t="n">
-        <v>301188.7833</v>
+        <v>56.1064</v>
       </c>
       <c r="G42" t="n">
-        <v>12.09266666666666</v>
+        <v>-1783898.8102</v>
       </c>
       <c r="H42" t="n">
-        <v>12.19416666666668</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.91</v>
+        <v>12.36</v>
       </c>
       <c r="C43" t="n">
-        <v>11.9</v>
+        <v>12.36</v>
       </c>
       <c r="D43" t="n">
-        <v>11.91</v>
+        <v>12.36</v>
       </c>
       <c r="E43" t="n">
-        <v>11.9</v>
+        <v>12.36</v>
       </c>
       <c r="F43" t="n">
-        <v>34029.3263</v>
+        <v>56.1064</v>
       </c>
       <c r="G43" t="n">
-        <v>12.07933333333332</v>
+        <v>-1783842.7038</v>
       </c>
       <c r="H43" t="n">
-        <v>12.18950000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>12.33</v>
       </c>
       <c r="F44" t="n">
-        <v>1972.1157</v>
+        <v>39.3508</v>
       </c>
       <c r="G44" t="n">
-        <v>12.06599999999999</v>
+        <v>-1783882.0546</v>
       </c>
       <c r="H44" t="n">
-        <v>12.18616666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="E45" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="F45" t="n">
-        <v>77485.9034</v>
+        <v>5957.9032</v>
       </c>
       <c r="G45" t="n">
-        <v>12.05666666666666</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H45" t="n">
-        <v>12.18283333333335</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.9</v>
+        <v>12.28</v>
       </c>
       <c r="C46" t="n">
-        <v>11.9</v>
+        <v>12.28</v>
       </c>
       <c r="D46" t="n">
-        <v>11.9</v>
+        <v>12.28</v>
       </c>
       <c r="E46" t="n">
-        <v>11.9</v>
+        <v>12.28</v>
       </c>
       <c r="F46" t="n">
-        <v>177710.2405</v>
+        <v>100000</v>
       </c>
       <c r="G46" t="n">
-        <v>12.04066666666666</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H46" t="n">
-        <v>12.17783333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.96</v>
+        <v>12.12</v>
       </c>
       <c r="C47" t="n">
-        <v>11.96</v>
+        <v>12.12</v>
       </c>
       <c r="D47" t="n">
-        <v>11.96</v>
+        <v>12.12</v>
       </c>
       <c r="E47" t="n">
-        <v>11.96</v>
+        <v>12.12</v>
       </c>
       <c r="F47" t="n">
-        <v>50534.0918</v>
+        <v>54.1188</v>
       </c>
       <c r="G47" t="n">
-        <v>12.02466666666666</v>
+        <v>-1789894.0766</v>
       </c>
       <c r="H47" t="n">
-        <v>12.17033333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="C48" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="D48" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="E48" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="F48" t="n">
-        <v>104611.457</v>
+        <v>54.1188</v>
       </c>
       <c r="G48" t="n">
-        <v>12.00866666666666</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H48" t="n">
-        <v>12.16266666666668</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="C49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="E49" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="F49" t="n">
-        <v>993.0955</v>
+        <v>4465</v>
       </c>
       <c r="G49" t="n">
-        <v>11.99466666666666</v>
+        <v>-1794304.9578</v>
       </c>
       <c r="H49" t="n">
-        <v>12.15550000000001</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.02</v>
+        <v>12.28</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="D50" t="n">
-        <v>12.02</v>
+        <v>12.28</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="F50" t="n">
-        <v>108027.1532</v>
+        <v>234.7851</v>
       </c>
       <c r="G50" t="n">
-        <v>11.99599999999999</v>
+        <v>-1794070.1727</v>
       </c>
       <c r="H50" t="n">
-        <v>12.14850000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="C51" t="n">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="D51" t="n">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="E51" t="n">
-        <v>11.91</v>
+        <v>12.12</v>
       </c>
       <c r="F51" t="n">
-        <v>24258.3268</v>
+        <v>46181.7172</v>
       </c>
       <c r="G51" t="n">
-        <v>11.99133333333333</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H51" t="n">
-        <v>12.14016666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="E52" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="F52" t="n">
-        <v>79442.576</v>
+        <v>35097.8689</v>
       </c>
       <c r="G52" t="n">
-        <v>11.99266666666666</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H52" t="n">
-        <v>12.13716666666668</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.93</v>
+        <v>12.11</v>
       </c>
       <c r="C53" t="n">
-        <v>11.84</v>
+        <v>12.11</v>
       </c>
       <c r="D53" t="n">
-        <v>11.93</v>
+        <v>12.11</v>
       </c>
       <c r="E53" t="n">
-        <v>11.84</v>
+        <v>12.11</v>
       </c>
       <c r="F53" t="n">
-        <v>159213.5066</v>
+        <v>2760.4267</v>
       </c>
       <c r="G53" t="n">
-        <v>11.98333333333333</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H53" t="n">
-        <v>12.13316666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.85</v>
+        <v>12.11</v>
       </c>
       <c r="C54" t="n">
-        <v>11.84</v>
+        <v>12.11</v>
       </c>
       <c r="D54" t="n">
-        <v>11.85</v>
+        <v>12.11</v>
       </c>
       <c r="E54" t="n">
-        <v>11.84</v>
+        <v>12.11</v>
       </c>
       <c r="F54" t="n">
-        <v>88505.2577</v>
+        <v>137002.0441</v>
       </c>
       <c r="G54" t="n">
-        <v>11.95466666666666</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H54" t="n">
-        <v>12.12850000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="C55" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="D55" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="E55" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>5927.6408</v>
       </c>
       <c r="G55" t="n">
-        <v>11.954</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H55" t="n">
-        <v>12.12566666666668</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="C56" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="D56" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="E56" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>204</v>
+        <v>71028.10890000001</v>
       </c>
       <c r="G56" t="n">
-        <v>11.94266666666666</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H56" t="n">
-        <v>12.11700000000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="C57" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="D57" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="E57" t="n">
-        <v>11.85</v>
+        <v>12.1</v>
       </c>
       <c r="F57" t="n">
-        <v>15349.7322</v>
+        <v>2676.2278</v>
       </c>
       <c r="G57" t="n">
-        <v>11.93266666666666</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H57" t="n">
-        <v>12.10833333333335</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.84</v>
+        <v>12.2</v>
       </c>
       <c r="C58" t="n">
-        <v>11.84</v>
+        <v>12.2</v>
       </c>
       <c r="D58" t="n">
-        <v>11.84</v>
+        <v>12.2</v>
       </c>
       <c r="E58" t="n">
-        <v>11.84</v>
+        <v>12.2</v>
       </c>
       <c r="F58" t="n">
-        <v>163.4006</v>
+        <v>78054.9298</v>
       </c>
       <c r="G58" t="n">
-        <v>11.92866666666666</v>
+        <v>-1835985.4957</v>
       </c>
       <c r="H58" t="n">
-        <v>12.09866666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.99</v>
+        <v>12.14</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>12.14</v>
       </c>
       <c r="E59" t="n">
-        <v>11.99</v>
+        <v>12.14</v>
       </c>
       <c r="F59" t="n">
-        <v>7500</v>
+        <v>12600</v>
       </c>
       <c r="G59" t="n">
-        <v>11.92866666666666</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H59" t="n">
-        <v>12.09216666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.85</v>
+        <v>12.14</v>
       </c>
       <c r="C60" t="n">
-        <v>11.85</v>
+        <v>12.14</v>
       </c>
       <c r="D60" t="n">
-        <v>11.85</v>
+        <v>12.14</v>
       </c>
       <c r="E60" t="n">
-        <v>11.85</v>
+        <v>12.14</v>
       </c>
       <c r="F60" t="n">
-        <v>59.6658</v>
+        <v>3072.7217</v>
       </c>
       <c r="G60" t="n">
-        <v>11.91866666666666</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H60" t="n">
-        <v>12.08550000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="C61" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="D61" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="E61" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="F61" t="n">
-        <v>66583.7424</v>
+        <v>88505.2577</v>
       </c>
       <c r="G61" t="n">
-        <v>11.91799999999999</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H61" t="n">
-        <v>12.08050000000002</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="C62" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="D62" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="E62" t="n">
-        <v>11.89</v>
+        <v>12.2</v>
       </c>
       <c r="F62" t="n">
-        <v>80386.3579</v>
+        <v>61247.7437</v>
       </c>
       <c r="G62" t="n">
-        <v>11.91333333333333</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H62" t="n">
-        <v>12.07733333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.88</v>
+        <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="E63" t="n">
-        <v>11.88</v>
+        <v>12.2</v>
       </c>
       <c r="F63" t="n">
-        <v>80364.5981</v>
+        <v>10383.718</v>
       </c>
       <c r="G63" t="n">
-        <v>11.90933333333333</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H63" t="n">
-        <v>12.07416666666668</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.98</v>
+        <v>12.2</v>
       </c>
       <c r="C64" t="n">
         <v>11.98</v>
       </c>
       <c r="D64" t="n">
-        <v>11.98</v>
+        <v>12.2</v>
       </c>
       <c r="E64" t="n">
         <v>11.98</v>
       </c>
       <c r="F64" t="n">
-        <v>59.6658</v>
+        <v>600161.525</v>
       </c>
       <c r="G64" t="n">
-        <v>11.90866666666666</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H64" t="n">
-        <v>12.07250000000002</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F65" t="n">
-        <v>117.5964</v>
+        <v>25691.3811</v>
       </c>
       <c r="G65" t="n">
-        <v>11.90866666666666</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H65" t="n">
-        <v>12.06766666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.85</v>
+        <v>11.98</v>
       </c>
       <c r="C66" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="D66" t="n">
-        <v>11.85</v>
+        <v>11.98</v>
       </c>
       <c r="E66" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="F66" t="n">
-        <v>62550.3375</v>
+        <v>24332.8476</v>
       </c>
       <c r="G66" t="n">
-        <v>11.90399999999999</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H66" t="n">
-        <v>12.06333333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.84</v>
+        <v>11.99</v>
       </c>
       <c r="C67" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="D67" t="n">
-        <v>11.84</v>
+        <v>11.99</v>
       </c>
       <c r="E67" t="n">
-        <v>11.84</v>
+        <v>11.98</v>
       </c>
       <c r="F67" t="n">
-        <v>100400.6755</v>
+        <v>47523.0173</v>
       </c>
       <c r="G67" t="n">
-        <v>11.89333333333333</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H67" t="n">
-        <v>12.05583333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.83</v>
+        <v>12.27</v>
       </c>
       <c r="C68" t="n">
-        <v>11.8</v>
+        <v>12.27</v>
       </c>
       <c r="D68" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8957.720499999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-2351284.0425</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>11.98</v>
       </c>
-      <c r="E68" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>213722.9407</v>
-      </c>
-      <c r="G68" t="n">
-        <v>11.89066666666666</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12.05216666666668</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.98</v>
+      </c>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2782,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>319.6504</v>
+        <v>90293.7329</v>
       </c>
       <c r="G69" t="n">
-        <v>11.88799999999999</v>
+        <v>-2441577.775400001</v>
       </c>
       <c r="H69" t="n">
-        <v>12.04416666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2823,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.8</v>
+        <v>12.04</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="D70" t="n">
-        <v>11.8</v>
+        <v>12.04</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>12.02</v>
       </c>
       <c r="F70" t="n">
-        <v>80845.6156</v>
+        <v>81350.9204</v>
       </c>
       <c r="G70" t="n">
-        <v>11.87533333333333</v>
+        <v>-2360226.855</v>
       </c>
       <c r="H70" t="n">
-        <v>12.04050000000002</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.8</v>
+        <v>12.03</v>
       </c>
       <c r="C71" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>11.8</v>
+        <v>12.03</v>
       </c>
       <c r="E71" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>239.9133</v>
+        <v>301188.7833</v>
       </c>
       <c r="G71" t="n">
-        <v>11.87199999999999</v>
+        <v>-2661415.638300001</v>
       </c>
       <c r="H71" t="n">
-        <v>12.03250000000002</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="C72" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D72" t="n">
-        <v>11.8</v>
+        <v>11.91</v>
       </c>
       <c r="E72" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F72" t="n">
-        <v>1470.9183</v>
+        <v>34029.3263</v>
       </c>
       <c r="G72" t="n">
-        <v>11.86866666666666</v>
+        <v>-2695444.964600001</v>
       </c>
       <c r="H72" t="n">
-        <v>12.02416666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>11.79</v>
+        <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>11.79</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>196775.0673</v>
+        <v>1972.1157</v>
       </c>
       <c r="G73" t="n">
-        <v>11.86533333333333</v>
+        <v>-2693472.848900001</v>
       </c>
       <c r="H73" t="n">
-        <v>12.01516666666668</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2969,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="D74" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="F74" t="n">
-        <v>1208.1655</v>
+        <v>77485.9034</v>
       </c>
       <c r="G74" t="n">
-        <v>11.86333333333333</v>
+        <v>-2693472.848900001</v>
       </c>
       <c r="H74" t="n">
-        <v>12.00866666666668</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.97</v>
+        <v>11.9</v>
       </c>
       <c r="C75" t="n">
-        <v>11.97</v>
+        <v>11.9</v>
       </c>
       <c r="D75" t="n">
-        <v>11.97</v>
+        <v>11.9</v>
       </c>
       <c r="E75" t="n">
-        <v>11.97</v>
+        <v>11.9</v>
       </c>
       <c r="F75" t="n">
-        <v>3814.8367</v>
+        <v>177710.2405</v>
       </c>
       <c r="G75" t="n">
-        <v>11.87133333333333</v>
+        <v>-2871183.0894</v>
       </c>
       <c r="H75" t="n">
-        <v>12.00266666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3039,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.95</v>
+        <v>11.96</v>
       </c>
       <c r="C76" t="n">
-        <v>11.95</v>
+        <v>11.96</v>
       </c>
       <c r="D76" t="n">
-        <v>11.95</v>
+        <v>11.96</v>
       </c>
       <c r="E76" t="n">
-        <v>11.95</v>
+        <v>11.96</v>
       </c>
       <c r="F76" t="n">
-        <v>837.6738</v>
+        <v>50534.0918</v>
       </c>
       <c r="G76" t="n">
-        <v>11.87533333333333</v>
+        <v>-2820648.9976</v>
       </c>
       <c r="H76" t="n">
-        <v>11.99716666666668</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3074,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.88</v>
+        <v>11.96</v>
       </c>
       <c r="C77" t="n">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="D77" t="n">
-        <v>11.88</v>
+        <v>11.96</v>
       </c>
       <c r="E77" t="n">
-        <v>11.87</v>
+        <v>11.96</v>
       </c>
       <c r="F77" t="n">
-        <v>117000</v>
+        <v>104611.457</v>
       </c>
       <c r="G77" t="n">
-        <v>11.874</v>
+        <v>-2820648.9976</v>
       </c>
       <c r="H77" t="n">
-        <v>11.99033333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3109,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="C78" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="D78" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="E78" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="F78" t="n">
-        <v>245.5507</v>
+        <v>993.0955</v>
       </c>
       <c r="G78" t="n">
-        <v>11.87866666666666</v>
+        <v>-2819655.902100001</v>
       </c>
       <c r="H78" t="n">
-        <v>11.98783333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3144,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.86</v>
+        <v>12.02</v>
       </c>
       <c r="C79" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>11.86</v>
+        <v>12.02</v>
       </c>
       <c r="E79" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="F79" t="n">
-        <v>90017.0916</v>
+        <v>108027.1532</v>
       </c>
       <c r="G79" t="n">
-        <v>11.87</v>
+        <v>-2711628.7489</v>
       </c>
       <c r="H79" t="n">
-        <v>11.98066666666668</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3179,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="C80" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="D80" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="E80" t="n">
-        <v>11.85</v>
+        <v>11.91</v>
       </c>
       <c r="F80" t="n">
-        <v>112671.4212</v>
+        <v>24258.3268</v>
       </c>
       <c r="G80" t="n">
-        <v>11.86</v>
+        <v>-2735887.0757</v>
       </c>
       <c r="H80" t="n">
-        <v>11.97633333333335</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3214,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="C81" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="F81" t="n">
-        <v>199.7339</v>
+        <v>79442.576</v>
       </c>
       <c r="G81" t="n">
-        <v>11.86866666666666</v>
+        <v>-2656444.499700001</v>
       </c>
       <c r="H81" t="n">
-        <v>11.97116666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3249,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="C82" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="D82" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="E82" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="F82" t="n">
-        <v>7107.2267</v>
+        <v>159213.5066</v>
       </c>
       <c r="G82" t="n">
-        <v>11.86666666666666</v>
+        <v>-2815658.0063</v>
       </c>
       <c r="H82" t="n">
-        <v>11.96600000000002</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3284,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.8</v>
+        <v>11.85</v>
       </c>
       <c r="C83" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="D83" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="E83" t="n">
-        <v>11.8</v>
+        <v>11.84</v>
       </c>
       <c r="F83" t="n">
-        <v>201890.6452</v>
+        <v>88505.2577</v>
       </c>
       <c r="G83" t="n">
-        <v>11.86666666666666</v>
+        <v>-2815658.0063</v>
       </c>
       <c r="H83" t="n">
-        <v>11.96066666666668</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3319,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F84" t="n">
+        <v>50</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-2815608.0063</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
         <v>11.84</v>
       </c>
-      <c r="C84" t="n">
+      <c r="K84" t="n">
         <v>11.84</v>
       </c>
-      <c r="D84" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E84" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F84" t="n">
-        <v>240.6047</v>
-      </c>
-      <c r="G84" t="n">
-        <v>11.86933333333333</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11.95616666666668</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3358,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C85" t="n">
-        <v>11.66</v>
+        <v>11.85</v>
       </c>
       <c r="D85" t="n">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="E85" t="n">
-        <v>11.66</v>
+        <v>11.85</v>
       </c>
       <c r="F85" t="n">
-        <v>370746.4571</v>
+        <v>204</v>
       </c>
       <c r="G85" t="n">
-        <v>11.85999999999999</v>
+        <v>-2815812.0063</v>
       </c>
       <c r="H85" t="n">
-        <v>11.94866666666668</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3401,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.96</v>
+        <v>11.85</v>
       </c>
       <c r="C86" t="n">
-        <v>11.96</v>
+        <v>11.85</v>
       </c>
       <c r="D86" t="n">
-        <v>11.96</v>
+        <v>11.85</v>
       </c>
       <c r="E86" t="n">
-        <v>11.96</v>
+        <v>11.85</v>
       </c>
       <c r="F86" t="n">
-        <v>379.9934</v>
+        <v>15349.7322</v>
       </c>
       <c r="G86" t="n">
-        <v>11.87066666666666</v>
+        <v>-2815812.0063</v>
       </c>
       <c r="H86" t="n">
-        <v>11.94616666666668</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K86" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3444,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.96</v>
+        <v>11.84</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="E87" t="n">
-        <v>11.96</v>
+        <v>11.84</v>
       </c>
       <c r="F87" t="n">
-        <v>43947.5679</v>
+        <v>163.4006</v>
       </c>
       <c r="G87" t="n">
-        <v>11.88399999999999</v>
+        <v>-2815975.4069</v>
       </c>
       <c r="H87" t="n">
-        <v>11.94450000000002</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="K87" t="n">
+        <v>11.85</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C88" t="n">
         <v>12</v>
@@ -3715,27 +3492,32 @@
         <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F88" t="n">
-        <v>24809.5958</v>
+        <v>7500</v>
       </c>
       <c r="G88" t="n">
-        <v>11.89799999999999</v>
+        <v>-2808475.4069</v>
       </c>
       <c r="H88" t="n">
-        <v>11.94283333333335</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K88" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3526,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="C89" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="D89" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="E89" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="F89" t="n">
-        <v>42571.8414</v>
+        <v>59.6658</v>
       </c>
       <c r="G89" t="n">
-        <v>11.88799999999999</v>
+        <v>-2808535.0727</v>
       </c>
       <c r="H89" t="n">
-        <v>11.93650000000002</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+        <v>12</v>
+      </c>
+      <c r="K89" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3569,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="C90" t="n">
-        <v>11.71</v>
+        <v>11.89</v>
       </c>
       <c r="D90" t="n">
-        <v>11.81</v>
+        <v>11.89</v>
       </c>
       <c r="E90" t="n">
-        <v>11.71</v>
+        <v>11.89</v>
       </c>
       <c r="F90" t="n">
-        <v>11610.1733</v>
+        <v>66583.7424</v>
       </c>
       <c r="G90" t="n">
-        <v>11.87066666666666</v>
+        <v>-2741951.3303</v>
       </c>
       <c r="H90" t="n">
-        <v>11.92933333333335</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>11.85</v>
+      </c>
+      <c r="K90" t="n">
+        <v>11.85</v>
+      </c>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3608,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.94</v>
+        <v>11.89</v>
       </c>
       <c r="C91" t="n">
-        <v>11.94</v>
+        <v>11.89</v>
       </c>
       <c r="D91" t="n">
-        <v>11.94</v>
+        <v>11.89</v>
       </c>
       <c r="E91" t="n">
-        <v>11.94</v>
+        <v>11.89</v>
       </c>
       <c r="F91" t="n">
-        <v>33743.6337</v>
+        <v>80386.3579</v>
       </c>
       <c r="G91" t="n">
-        <v>11.87</v>
+        <v>-2741951.3303</v>
       </c>
       <c r="H91" t="n">
-        <v>11.92600000000002</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K91" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3651,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.94</v>
+        <v>11.88</v>
       </c>
       <c r="C92" t="n">
-        <v>11.94</v>
+        <v>11.9</v>
       </c>
       <c r="D92" t="n">
-        <v>11.94</v>
+        <v>11.9</v>
       </c>
       <c r="E92" t="n">
-        <v>11.94</v>
+        <v>11.88</v>
       </c>
       <c r="F92" t="n">
-        <v>15609.1804</v>
+        <v>80364.5981</v>
       </c>
       <c r="G92" t="n">
-        <v>11.87466666666666</v>
+        <v>-2661586.7322</v>
       </c>
       <c r="H92" t="n">
-        <v>11.92166666666668</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K92" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3694,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.94</v>
+        <v>11.98</v>
       </c>
       <c r="C93" t="n">
-        <v>12.17</v>
+        <v>11.98</v>
       </c>
       <c r="D93" t="n">
-        <v>12.17</v>
+        <v>11.98</v>
       </c>
       <c r="E93" t="n">
-        <v>11.94</v>
+        <v>11.98</v>
       </c>
       <c r="F93" t="n">
-        <v>108.0378</v>
+        <v>59.6658</v>
       </c>
       <c r="G93" t="n">
-        <v>11.88799999999999</v>
+        <v>-2661527.0664</v>
       </c>
       <c r="H93" t="n">
-        <v>11.92116666666668</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3733,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>7000</v>
+        <v>117.5964</v>
       </c>
       <c r="G94" t="n">
-        <v>11.91466666666666</v>
+        <v>-2661409.47</v>
       </c>
       <c r="H94" t="n">
-        <v>11.92200000000002</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3774,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="C95" t="n">
-        <v>12.25</v>
+        <v>11.84</v>
       </c>
       <c r="D95" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="E95" t="n">
-        <v>12.25</v>
+        <v>11.84</v>
       </c>
       <c r="F95" t="n">
-        <v>40716.6801</v>
+        <v>62550.3375</v>
       </c>
       <c r="G95" t="n">
-        <v>11.94133333333333</v>
+        <v>-2723959.8075</v>
       </c>
       <c r="H95" t="n">
-        <v>11.92650000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3815,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="C96" t="n">
-        <v>10.58</v>
+        <v>11.84</v>
       </c>
       <c r="D96" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="E96" t="n">
-        <v>10.58</v>
+        <v>11.84</v>
       </c>
       <c r="F96" t="n">
-        <v>1502951.7229</v>
+        <v>100400.6755</v>
       </c>
       <c r="G96" t="n">
-        <v>11.84866666666666</v>
+        <v>-2723959.8075</v>
       </c>
       <c r="H96" t="n">
-        <v>11.90316666666668</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3856,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.16</v>
+        <v>11.83</v>
       </c>
       <c r="C97" t="n">
-        <v>11.26</v>
+        <v>11.8</v>
       </c>
       <c r="D97" t="n">
-        <v>11.26</v>
+        <v>11.98</v>
       </c>
       <c r="E97" t="n">
-        <v>11.15</v>
+        <v>11.8</v>
       </c>
       <c r="F97" t="n">
-        <v>240300.0531</v>
+        <v>213722.9407</v>
       </c>
       <c r="G97" t="n">
-        <v>11.81199999999999</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H97" t="n">
-        <v>11.89116666666668</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,33 +3900,38 @@
         <v>11.8</v>
       </c>
       <c r="C98" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D98" t="n">
         <v>11.8</v>
       </c>
       <c r="E98" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F98" t="n">
-        <v>1011.7675</v>
+        <v>319.6504</v>
       </c>
       <c r="G98" t="n">
-        <v>11.80533333333333</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H98" t="n">
-        <v>11.88650000000002</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3940,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C99" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="D99" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="E99" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F99" t="n">
-        <v>69987.679</v>
+        <v>80845.6156</v>
       </c>
       <c r="G99" t="n">
-        <v>11.80199999999999</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H99" t="n">
-        <v>11.87850000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3981,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="C100" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="D100" t="n">
-        <v>11.79</v>
+        <v>11.8</v>
       </c>
       <c r="E100" t="n">
-        <v>11.69</v>
+        <v>11.8</v>
       </c>
       <c r="F100" t="n">
-        <v>24239.2516</v>
+        <v>239.9133</v>
       </c>
       <c r="G100" t="n">
-        <v>11.80399999999999</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H100" t="n">
-        <v>11.87333333333335</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4024,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.61</v>
+        <v>11.8</v>
       </c>
       <c r="C101" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="D101" t="n">
-        <v>11.68</v>
+        <v>11.8</v>
       </c>
       <c r="E101" t="n">
-        <v>11.03</v>
+        <v>11.8</v>
       </c>
       <c r="F101" t="n">
-        <v>25736.6992</v>
+        <v>1470.9183</v>
       </c>
       <c r="G101" t="n">
-        <v>11.78533333333333</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H101" t="n">
-        <v>11.86766666666668</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4067,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.47</v>
+        <v>11.8</v>
       </c>
       <c r="C102" t="n">
-        <v>11.47</v>
+        <v>11.79</v>
       </c>
       <c r="D102" t="n">
-        <v>11.47</v>
+        <v>11.8</v>
       </c>
       <c r="E102" t="n">
-        <v>11.47</v>
+        <v>11.79</v>
       </c>
       <c r="F102" t="n">
-        <v>361.8958</v>
+        <v>196775.0673</v>
       </c>
       <c r="G102" t="n">
-        <v>11.74999999999999</v>
+        <v>-3134457.8155</v>
       </c>
       <c r="H102" t="n">
-        <v>11.85883333333335</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4110,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="C103" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="D103" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="E103" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="F103" t="n">
-        <v>195.1267</v>
+        <v>1208.1655</v>
       </c>
       <c r="G103" t="n">
-        <v>11.71533333333332</v>
+        <v>-3133249.65</v>
       </c>
       <c r="H103" t="n">
-        <v>11.85183333333335</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="K103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,40 +4153,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="C104" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="D104" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="E104" t="n">
-        <v>11.48</v>
+        <v>11.97</v>
       </c>
       <c r="F104" t="n">
-        <v>3644.8733</v>
+        <v>3814.8367</v>
       </c>
       <c r="G104" t="n">
-        <v>11.69266666666666</v>
+        <v>-3133249.65</v>
       </c>
       <c r="H104" t="n">
-        <v>11.84316666666668</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="K104" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L104" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,44 +4196,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="C105" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="D105" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="E105" t="n">
-        <v>11.48</v>
+        <v>11.95</v>
       </c>
       <c r="F105" t="n">
-        <v>277.2708</v>
+        <v>837.6738</v>
       </c>
       <c r="G105" t="n">
-        <v>11.67733333333332</v>
+        <v>-3134087.3238</v>
       </c>
       <c r="H105" t="n">
-        <v>11.83450000000002</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="K105" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L105" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,44 +4239,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.48</v>
+        <v>11.88</v>
       </c>
       <c r="C106" t="n">
-        <v>11.4</v>
+        <v>11.87</v>
       </c>
       <c r="D106" t="n">
-        <v>11.48</v>
+        <v>11.88</v>
       </c>
       <c r="E106" t="n">
-        <v>11.4</v>
+        <v>11.87</v>
       </c>
       <c r="F106" t="n">
-        <v>30339.3992</v>
+        <v>117000</v>
       </c>
       <c r="G106" t="n">
-        <v>11.64133333333332</v>
+        <v>-3251087.3238</v>
       </c>
       <c r="H106" t="n">
-        <v>11.82616666666669</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>11.95</v>
       </c>
       <c r="K106" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L106" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,44 +4282,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.39</v>
+        <v>11.97</v>
       </c>
       <c r="C107" t="n">
-        <v>11.39</v>
+        <v>11.97</v>
       </c>
       <c r="D107" t="n">
-        <v>11.39</v>
+        <v>11.97</v>
       </c>
       <c r="E107" t="n">
-        <v>11.39</v>
+        <v>11.97</v>
       </c>
       <c r="F107" t="n">
-        <v>697.885</v>
+        <v>245.5507</v>
       </c>
       <c r="G107" t="n">
-        <v>11.60466666666666</v>
+        <v>-3250841.7731</v>
       </c>
       <c r="H107" t="n">
-        <v>11.81666666666668</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="K107" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L107" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,44 +4325,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.3</v>
+        <v>11.86</v>
       </c>
       <c r="C108" t="n">
-        <v>11.39</v>
+        <v>11.85</v>
       </c>
       <c r="D108" t="n">
-        <v>11.39</v>
+        <v>11.86</v>
       </c>
       <c r="E108" t="n">
-        <v>11.3</v>
+        <v>11.85</v>
       </c>
       <c r="F108" t="n">
-        <v>61661.432</v>
+        <v>90017.0916</v>
       </c>
       <c r="G108" t="n">
-        <v>11.55266666666666</v>
+        <v>-3340858.8647</v>
       </c>
       <c r="H108" t="n">
-        <v>11.80716666666668</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="K108" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="L108" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,44 +4368,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.58</v>
+        <v>11.85</v>
       </c>
       <c r="C109" t="n">
-        <v>11.58</v>
+        <v>11.85</v>
       </c>
       <c r="D109" t="n">
-        <v>11.58</v>
+        <v>11.85</v>
       </c>
       <c r="E109" t="n">
-        <v>11.58</v>
+        <v>11.85</v>
       </c>
       <c r="F109" t="n">
-        <v>156.7173</v>
+        <v>112671.4212</v>
       </c>
       <c r="G109" t="n">
-        <v>11.50799999999999</v>
+        <v>-3340858.8647</v>
       </c>
       <c r="H109" t="n">
-        <v>11.80033333333335</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="L109" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,44 +4409,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.58</v>
+        <v>11.97</v>
       </c>
       <c r="C110" t="n">
-        <v>11.3</v>
+        <v>11.97</v>
       </c>
       <c r="D110" t="n">
-        <v>11.58</v>
+        <v>11.97</v>
       </c>
       <c r="E110" t="n">
-        <v>11.3</v>
+        <v>11.97</v>
       </c>
       <c r="F110" t="n">
-        <v>55359.3171</v>
+        <v>199.7339</v>
       </c>
       <c r="G110" t="n">
-        <v>11.44466666666666</v>
+        <v>-3340659.1308</v>
       </c>
       <c r="H110" t="n">
-        <v>11.78866666666668</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="K110" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="L110" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,44 +4452,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.3</v>
+        <v>11.85</v>
       </c>
       <c r="C111" t="n">
-        <v>11.3</v>
+        <v>11.81</v>
       </c>
       <c r="D111" t="n">
-        <v>11.3</v>
+        <v>11.85</v>
       </c>
       <c r="E111" t="n">
-        <v>11.3</v>
+        <v>11.81</v>
       </c>
       <c r="F111" t="n">
-        <v>43368.2511</v>
+        <v>7107.2267</v>
       </c>
       <c r="G111" t="n">
-        <v>11.49266666666666</v>
+        <v>-3347766.3575</v>
       </c>
       <c r="H111" t="n">
-        <v>11.77850000000002</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="K111" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L111" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,44 +4495,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="C112" t="n">
-        <v>11.36</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="n">
-        <v>11.36</v>
+        <v>11.82</v>
       </c>
       <c r="E112" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>46384.2511</v>
+        <v>201890.6452</v>
       </c>
       <c r="G112" t="n">
-        <v>11.49933333333333</v>
+        <v>-3549657.002700001</v>
       </c>
       <c r="H112" t="n">
-        <v>11.76783333333335</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="K112" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L112" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,42 +4538,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.45</v>
+        <v>11.84</v>
       </c>
       <c r="C113" t="n">
-        <v>11.45</v>
+        <v>11.84</v>
       </c>
       <c r="D113" t="n">
-        <v>11.45</v>
+        <v>11.84</v>
       </c>
       <c r="E113" t="n">
-        <v>11.45</v>
+        <v>11.84</v>
       </c>
       <c r="F113" t="n">
-        <v>8994.690000000001</v>
+        <v>240.6047</v>
       </c>
       <c r="G113" t="n">
-        <v>11.48266666666666</v>
+        <v>-3549416.398000001</v>
       </c>
       <c r="H113" t="n">
-        <v>11.76133333333335</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,42 +4581,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.68</v>
+        <v>11.79</v>
       </c>
       <c r="C114" t="n">
-        <v>11.89</v>
+        <v>11.66</v>
       </c>
       <c r="D114" t="n">
-        <v>11.89</v>
+        <v>11.79</v>
       </c>
       <c r="E114" t="n">
-        <v>11.68</v>
+        <v>11.66</v>
       </c>
       <c r="F114" t="n">
-        <v>131077.1557</v>
+        <v>370746.4571</v>
       </c>
       <c r="G114" t="n">
-        <v>11.48933333333333</v>
+        <v>-3920162.8551</v>
       </c>
       <c r="H114" t="n">
-        <v>11.76216666666668</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,42 +4624,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="C115" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="D115" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="E115" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="F115" t="n">
-        <v>25353.6061</v>
+        <v>379.9934</v>
       </c>
       <c r="G115" t="n">
-        <v>11.50266666666666</v>
+        <v>-3919782.8617</v>
       </c>
       <c r="H115" t="n">
-        <v>11.76050000000001</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,42 +4667,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="C116" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="E116" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="F116" t="n">
-        <v>23668.5453</v>
+        <v>43947.5679</v>
       </c>
       <c r="G116" t="n">
-        <v>11.53666666666666</v>
+        <v>-3875835.2938</v>
       </c>
       <c r="H116" t="n">
-        <v>11.76616666666668</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,42 +4710,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>12.19</v>
+        <v>12</v>
       </c>
       <c r="F117" t="n">
-        <v>183.607</v>
+        <v>24809.5958</v>
       </c>
       <c r="G117" t="n">
-        <v>11.58466666666666</v>
+        <v>-3875835.2938</v>
       </c>
       <c r="H117" t="n">
-        <v>11.77183333333335</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>12</v>
+      </c>
+      <c r="K117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,42 +4753,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.95</v>
+        <v>11.82</v>
       </c>
       <c r="C118" t="n">
-        <v>12.12</v>
+        <v>11.82</v>
       </c>
       <c r="D118" t="n">
-        <v>12.12</v>
+        <v>11.82</v>
       </c>
       <c r="E118" t="n">
-        <v>11.95</v>
+        <v>11.82</v>
       </c>
       <c r="F118" t="n">
-        <v>87559.1038</v>
+        <v>42571.8414</v>
       </c>
       <c r="G118" t="n">
-        <v>11.62733333333333</v>
+        <v>-3918407.1352</v>
       </c>
       <c r="H118" t="n">
-        <v>11.77650000000002</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>12</v>
+      </c>
+      <c r="K118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,42 +4796,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.15</v>
+        <v>11.81</v>
       </c>
       <c r="C119" t="n">
-        <v>12.15</v>
+        <v>11.71</v>
       </c>
       <c r="D119" t="n">
-        <v>12.15</v>
+        <v>11.81</v>
       </c>
       <c r="E119" t="n">
-        <v>12.15</v>
+        <v>11.71</v>
       </c>
       <c r="F119" t="n">
-        <v>155.5691</v>
+        <v>11610.1733</v>
       </c>
       <c r="G119" t="n">
-        <v>11.672</v>
+        <v>-3930017.3085</v>
       </c>
       <c r="H119" t="n">
-        <v>11.77900000000002</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,42 +4839,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.12</v>
+        <v>11.94</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="D120" t="n">
-        <v>12.12</v>
+        <v>11.94</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="F120" t="n">
-        <v>9754.5304</v>
+        <v>33743.6337</v>
       </c>
       <c r="G120" t="n">
-        <v>11.70666666666666</v>
+        <v>-3896273.6748</v>
       </c>
       <c r="H120" t="n">
-        <v>11.78150000000002</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,42 +4882,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="E121" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="F121" t="n">
-        <v>2875.9046</v>
+        <v>15609.1804</v>
       </c>
       <c r="G121" t="n">
-        <v>11.74666666666666</v>
+        <v>-3896273.6748</v>
       </c>
       <c r="H121" t="n">
-        <v>11.78333333333335</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,42 +4925,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.93</v>
+        <v>11.94</v>
       </c>
       <c r="C122" t="n">
-        <v>11.93</v>
+        <v>12.17</v>
       </c>
       <c r="D122" t="n">
-        <v>11.93</v>
+        <v>12.17</v>
       </c>
       <c r="E122" t="n">
-        <v>11.93</v>
+        <v>11.94</v>
       </c>
       <c r="F122" t="n">
-        <v>16425.8273</v>
+        <v>108.0378</v>
       </c>
       <c r="G122" t="n">
-        <v>11.78266666666666</v>
+        <v>-3896165.637</v>
       </c>
       <c r="H122" t="n">
-        <v>11.78400000000001</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,42 +4966,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="C123" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="D123" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="E123" t="n">
-        <v>11.94</v>
+        <v>12.25</v>
       </c>
       <c r="F123" t="n">
-        <v>37974.5311</v>
+        <v>7000</v>
       </c>
       <c r="G123" t="n">
-        <v>11.81933333333333</v>
+        <v>-3889165.637</v>
       </c>
       <c r="H123" t="n">
-        <v>11.78466666666668</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="K123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,42 +5009,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.92</v>
+        <v>12.25</v>
       </c>
       <c r="C124" t="n">
-        <v>11.92</v>
+        <v>12.25</v>
       </c>
       <c r="D124" t="n">
-        <v>11.92</v>
+        <v>12.25</v>
       </c>
       <c r="E124" t="n">
-        <v>11.92</v>
+        <v>12.25</v>
       </c>
       <c r="F124" t="n">
-        <v>21251.77</v>
+        <v>40716.6801</v>
       </c>
       <c r="G124" t="n">
-        <v>11.842</v>
+        <v>-3889165.637</v>
       </c>
       <c r="H124" t="n">
-        <v>11.78366666666668</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,42 +5050,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.05</v>
+        <v>11.94</v>
       </c>
       <c r="C125" t="n">
-        <v>12.05</v>
+        <v>10.58</v>
       </c>
       <c r="D125" t="n">
-        <v>12.05</v>
+        <v>11.94</v>
       </c>
       <c r="E125" t="n">
-        <v>12.05</v>
+        <v>10.58</v>
       </c>
       <c r="F125" t="n">
-        <v>566.6808</v>
+        <v>1502951.7229</v>
       </c>
       <c r="G125" t="n">
-        <v>11.892</v>
+        <v>-5392117.3599</v>
       </c>
       <c r="H125" t="n">
-        <v>11.78450000000001</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,42 +5091,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.93</v>
+        <v>11.16</v>
       </c>
       <c r="C126" t="n">
-        <v>11.93</v>
+        <v>11.26</v>
       </c>
       <c r="D126" t="n">
-        <v>11.93</v>
+        <v>11.26</v>
       </c>
       <c r="E126" t="n">
-        <v>11.93</v>
+        <v>11.15</v>
       </c>
       <c r="F126" t="n">
-        <v>763.2024</v>
+        <v>240300.0531</v>
       </c>
       <c r="G126" t="n">
-        <v>11.934</v>
+        <v>-5151817.306799999</v>
       </c>
       <c r="H126" t="n">
-        <v>11.78600000000001</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,42 +5132,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.89</v>
+        <v>11.8</v>
       </c>
       <c r="C127" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="D127" t="n">
-        <v>11.89</v>
+        <v>11.8</v>
       </c>
       <c r="E127" t="n">
-        <v>11.79</v>
+        <v>11.7</v>
       </c>
       <c r="F127" t="n">
-        <v>1195.0861</v>
+        <v>1011.7675</v>
       </c>
       <c r="G127" t="n">
-        <v>11.96266666666666</v>
+        <v>-5150805.539299999</v>
       </c>
       <c r="H127" t="n">
-        <v>11.78516666666668</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="K127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,42 +5175,41 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="C128" t="n">
-        <v>11.95</v>
+        <v>11.79</v>
       </c>
       <c r="D128" t="n">
-        <v>11.95</v>
+        <v>11.79</v>
       </c>
       <c r="E128" t="n">
-        <v>11.95</v>
+        <v>11.7</v>
       </c>
       <c r="F128" t="n">
-        <v>79.7107</v>
+        <v>69987.679</v>
       </c>
       <c r="G128" t="n">
-        <v>11.996</v>
+        <v>-5080817.860299999</v>
       </c>
       <c r="H128" t="n">
-        <v>11.78766666666668</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,42 +5218,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.84</v>
+        <v>11.79</v>
       </c>
       <c r="C129" t="n">
-        <v>11.73</v>
+        <v>11.69</v>
       </c>
       <c r="D129" t="n">
-        <v>11.84</v>
+        <v>11.79</v>
       </c>
       <c r="E129" t="n">
-        <v>11.73</v>
+        <v>11.69</v>
       </c>
       <c r="F129" t="n">
-        <v>9959.397999999999</v>
+        <v>24239.2516</v>
       </c>
       <c r="G129" t="n">
-        <v>11.98533333333333</v>
+        <v>-5105057.111899999</v>
       </c>
       <c r="H129" t="n">
-        <v>11.78650000000001</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,42 +5259,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.85</v>
+        <v>11.61</v>
       </c>
       <c r="C130" t="n">
-        <v>11.85</v>
+        <v>11.68</v>
       </c>
       <c r="D130" t="n">
-        <v>11.85</v>
+        <v>11.68</v>
       </c>
       <c r="E130" t="n">
-        <v>11.85</v>
+        <v>11.03</v>
       </c>
       <c r="F130" t="n">
-        <v>324.6859</v>
+        <v>25736.6992</v>
       </c>
       <c r="G130" t="n">
-        <v>11.98266666666666</v>
+        <v>-5130793.811099999</v>
       </c>
       <c r="H130" t="n">
-        <v>11.78733333333335</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,42 +5300,41 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.74</v>
+        <v>11.47</v>
       </c>
       <c r="C131" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="D131" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="E131" t="n">
-        <v>11.64</v>
+        <v>11.47</v>
       </c>
       <c r="F131" t="n">
-        <v>5178.0299</v>
+        <v>361.8958</v>
       </c>
       <c r="G131" t="n">
-        <v>11.95999999999999</v>
+        <v>-5131155.706899999</v>
       </c>
       <c r="H131" t="n">
-        <v>11.78816666666668</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="K131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5560,42 +5343,41 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="C132" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="D132" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="E132" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="F132" t="n">
-        <v>100</v>
+        <v>195.1267</v>
       </c>
       <c r="G132" t="n">
-        <v>11.93666666666666</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H132" t="n">
-        <v>11.78883333333335</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,42 +5386,41 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.8</v>
+        <v>11.48</v>
       </c>
       <c r="C133" t="n">
-        <v>11.73</v>
+        <v>11.48</v>
       </c>
       <c r="D133" t="n">
-        <v>11.8</v>
+        <v>11.48</v>
       </c>
       <c r="E133" t="n">
-        <v>11.73</v>
+        <v>11.48</v>
       </c>
       <c r="F133" t="n">
-        <v>4600</v>
+        <v>3644.8733</v>
       </c>
       <c r="G133" t="n">
-        <v>11.91066666666666</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H133" t="n">
-        <v>11.78783333333335</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
         <v>11.48</v>
       </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="K133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,42 +5429,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="C134" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="D134" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="E134" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="F134" t="n">
-        <v>336.999</v>
+        <v>277.2708</v>
       </c>
       <c r="G134" t="n">
-        <v>11.88999999999999</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H134" t="n">
-        <v>11.78566666666669</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
         <v>11.48</v>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="K134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,42 +5472,41 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.73</v>
+        <v>11.48</v>
       </c>
       <c r="C135" t="n">
-        <v>11.84</v>
+        <v>11.4</v>
       </c>
       <c r="D135" t="n">
-        <v>11.84</v>
+        <v>11.48</v>
       </c>
       <c r="E135" t="n">
-        <v>11.73</v>
+        <v>11.4</v>
       </c>
       <c r="F135" t="n">
-        <v>11318.8262</v>
+        <v>30339.3992</v>
       </c>
       <c r="G135" t="n">
-        <v>11.87933333333333</v>
+        <v>-5161299.979399999</v>
       </c>
       <c r="H135" t="n">
-        <v>11.78350000000002</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
         <v>11.48</v>
       </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="K135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,42 +5515,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.85</v>
+        <v>11.39</v>
       </c>
       <c r="C136" t="n">
-        <v>11.85</v>
+        <v>11.39</v>
       </c>
       <c r="D136" t="n">
-        <v>11.85</v>
+        <v>11.39</v>
       </c>
       <c r="E136" t="n">
-        <v>11.85</v>
+        <v>11.39</v>
       </c>
       <c r="F136" t="n">
-        <v>4712.9691</v>
+        <v>697.885</v>
       </c>
       <c r="G136" t="n">
-        <v>11.86933333333332</v>
+        <v>-5161997.864399998</v>
       </c>
       <c r="H136" t="n">
-        <v>11.78183333333335</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,42 +5558,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.95</v>
+        <v>11.3</v>
       </c>
       <c r="C137" t="n">
-        <v>12.04</v>
+        <v>11.39</v>
       </c>
       <c r="D137" t="n">
-        <v>12.04</v>
+        <v>11.39</v>
       </c>
       <c r="E137" t="n">
-        <v>11.95</v>
+        <v>11.3</v>
       </c>
       <c r="F137" t="n">
-        <v>6059.8485</v>
+        <v>61661.432</v>
       </c>
       <c r="G137" t="n">
-        <v>11.87666666666666</v>
+        <v>-5161997.864399998</v>
       </c>
       <c r="H137" t="n">
-        <v>11.78466666666668</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,42 +5599,41 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>12.04</v>
+        <v>11.58</v>
       </c>
       <c r="C138" t="n">
-        <v>12.05</v>
+        <v>11.58</v>
       </c>
       <c r="D138" t="n">
-        <v>12.05</v>
+        <v>11.58</v>
       </c>
       <c r="E138" t="n">
-        <v>12.04</v>
+        <v>11.58</v>
       </c>
       <c r="F138" t="n">
-        <v>9757.427100000001</v>
+        <v>156.7173</v>
       </c>
       <c r="G138" t="n">
-        <v>11.88399999999999</v>
+        <v>-5161841.147099999</v>
       </c>
       <c r="H138" t="n">
-        <v>11.78600000000002</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="K138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,42 +5642,41 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.95</v>
+        <v>11.58</v>
       </c>
       <c r="C139" t="n">
-        <v>11.95</v>
+        <v>11.3</v>
       </c>
       <c r="D139" t="n">
-        <v>11.95</v>
+        <v>11.58</v>
       </c>
       <c r="E139" t="n">
-        <v>11.95</v>
+        <v>11.3</v>
       </c>
       <c r="F139" t="n">
-        <v>3872.5398</v>
+        <v>55359.3171</v>
       </c>
       <c r="G139" t="n">
-        <v>11.88599999999999</v>
+        <v>-5217200.464199998</v>
       </c>
       <c r="H139" t="n">
-        <v>11.78766666666668</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="K139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,42 +5685,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="C140" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="D140" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="E140" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="F140" t="n">
-        <v>277.2945</v>
+        <v>43368.2511</v>
       </c>
       <c r="G140" t="n">
-        <v>11.88599999999999</v>
+        <v>-5217200.464199998</v>
       </c>
       <c r="H140" t="n">
-        <v>11.79100000000002</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,42 +5728,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="C141" t="n">
-        <v>12.15</v>
+        <v>11.36</v>
       </c>
       <c r="D141" t="n">
-        <v>12.15</v>
+        <v>11.36</v>
       </c>
       <c r="E141" t="n">
-        <v>12.05</v>
+        <v>11.3</v>
       </c>
       <c r="F141" t="n">
-        <v>13280.3553</v>
+        <v>46384.2511</v>
       </c>
       <c r="G141" t="n">
-        <v>11.90066666666666</v>
+        <v>-5170816.213099998</v>
       </c>
       <c r="H141" t="n">
-        <v>11.79400000000001</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,42 +5771,41 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.05</v>
+        <v>11.45</v>
       </c>
       <c r="C142" t="n">
-        <v>12.12</v>
+        <v>11.45</v>
       </c>
       <c r="D142" t="n">
-        <v>12.12</v>
+        <v>11.45</v>
       </c>
       <c r="E142" t="n">
-        <v>12.05</v>
+        <v>11.45</v>
       </c>
       <c r="F142" t="n">
-        <v>18285.8341</v>
+        <v>8994.690000000001</v>
       </c>
       <c r="G142" t="n">
-        <v>11.92266666666666</v>
+        <v>-5161821.523099998</v>
       </c>
       <c r="H142" t="n">
-        <v>11.79916666666668</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,42 +5814,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>12.12</v>
+        <v>11.68</v>
       </c>
       <c r="C143" t="n">
-        <v>12.12</v>
+        <v>11.89</v>
       </c>
       <c r="D143" t="n">
-        <v>12.12</v>
+        <v>11.89</v>
       </c>
       <c r="E143" t="n">
-        <v>12.12</v>
+        <v>11.68</v>
       </c>
       <c r="F143" t="n">
-        <v>3818.3594</v>
+        <v>131077.1557</v>
       </c>
       <c r="G143" t="n">
-        <v>11.93399999999999</v>
+        <v>-5030744.367399998</v>
       </c>
       <c r="H143" t="n">
-        <v>11.80450000000002</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,42 +5857,41 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>12.12</v>
+        <v>11.89</v>
       </c>
       <c r="C144" t="n">
-        <v>12.42</v>
+        <v>11.89</v>
       </c>
       <c r="D144" t="n">
-        <v>12.42</v>
+        <v>11.89</v>
       </c>
       <c r="E144" t="n">
-        <v>12.12</v>
+        <v>11.89</v>
       </c>
       <c r="F144" t="n">
-        <v>202058.24</v>
+        <v>25353.6061</v>
       </c>
       <c r="G144" t="n">
-        <v>11.97999999999999</v>
+        <v>-5030744.367399998</v>
       </c>
       <c r="H144" t="n">
-        <v>11.81416666666668</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6132,42 +5900,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>12.33</v>
+        <v>11.89</v>
       </c>
       <c r="C145" t="n">
-        <v>12.22</v>
+        <v>12.19</v>
       </c>
       <c r="D145" t="n">
-        <v>12.33</v>
+        <v>12.19</v>
       </c>
       <c r="E145" t="n">
-        <v>12.21</v>
+        <v>11.89</v>
       </c>
       <c r="F145" t="n">
-        <v>29532.6065</v>
+        <v>23668.5453</v>
       </c>
       <c r="G145" t="n">
-        <v>12.00466666666666</v>
+        <v>-5007075.822099998</v>
       </c>
       <c r="H145" t="n">
-        <v>11.82350000000002</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,42 +5941,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="C146" t="n">
-        <v>12.27</v>
+        <v>12.19</v>
       </c>
       <c r="D146" t="n">
-        <v>12.27</v>
+        <v>12.19</v>
       </c>
       <c r="E146" t="n">
-        <v>12.17</v>
+        <v>12.19</v>
       </c>
       <c r="F146" t="n">
-        <v>3639.4894</v>
+        <v>183.607</v>
       </c>
       <c r="G146" t="n">
-        <v>12.03266666666666</v>
+        <v>-5007075.822099998</v>
       </c>
       <c r="H146" t="n">
-        <v>11.82866666666668</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,42 +5982,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>12.14</v>
+        <v>11.95</v>
       </c>
       <c r="C147" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="D147" t="n">
-        <v>12.16</v>
+        <v>12.12</v>
       </c>
       <c r="E147" t="n">
-        <v>12.12</v>
+        <v>11.95</v>
       </c>
       <c r="F147" t="n">
-        <v>115190.5595</v>
+        <v>87559.1038</v>
       </c>
       <c r="G147" t="n">
-        <v>12.05399999999999</v>
+        <v>-5094634.925899997</v>
       </c>
       <c r="H147" t="n">
-        <v>11.83133333333335</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,42 +6023,1238 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F148" t="n">
+        <v>155.5691</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5094479.356799997</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9754.5304</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5104233.887199997</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2875.9046</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5104233.887199997</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16425.8273</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-5120659.714499997</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D152" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E152" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F152" t="n">
+        <v>37974.5311</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5082685.183399997</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C153" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D153" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E153" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F153" t="n">
+        <v>21251.77</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5103936.953399996</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F154" t="n">
+        <v>566.6808</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5103370.272599996</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F155" t="n">
+        <v>763.2024</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5104133.474999996</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1195.0861</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5105328.561099996</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F157" t="n">
+        <v>79.7107</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5105248.850399996</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9959.397999999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5115208.248399996</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F159" t="n">
+        <v>324.6859</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5114883.562499996</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5178.0299</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-5114883.562499996</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5114983.562499996</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5119583.562499996</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F163" t="n">
+        <v>336.999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-5119246.563499996</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11318.8262</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-5119246.563499996</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4712.9691</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5114533.594399996</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6059.8485</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-5108473.745899996</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K166" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F167" t="n">
+        <v>9757.427100000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-5098716.318799996</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="K167" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3872.5398</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-5102588.858599996</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="K168" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>277.2945</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-5102311.564099996</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K169" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>13280.3553</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-5089031.208799996</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18285.8341</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-5107317.042899996</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3818.3594</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-5107317.042899996</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F173" t="n">
+        <v>202058.24</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4905258.802899996</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K173" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F174" t="n">
+        <v>29532.6065</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4934791.409399996</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3639.4894</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4931151.919999995</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F176" t="n">
+        <v>115190.5595</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-5046342.479499996</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>12.32</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C177" t="n">
         <v>12.22</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D177" t="n">
         <v>12.32</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E177" t="n">
         <v>12.14</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F177" t="n">
         <v>124545.215</v>
       </c>
-      <c r="G148" t="n">
-        <v>12.08666666666666</v>
-      </c>
-      <c r="H148" t="n">
-        <v>11.83500000000002</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="G177" t="n">
+        <v>-4921797.264499996</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.45</v>
+        <v>12.33</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4</v>
+        <v>12.33</v>
       </c>
       <c r="D2" t="n">
-        <v>12.45</v>
+        <v>12.33</v>
       </c>
       <c r="E2" t="n">
-        <v>12.4</v>
+        <v>12.33</v>
       </c>
       <c r="F2" t="n">
-        <v>26365.5739</v>
+        <v>39.3508</v>
       </c>
       <c r="G2" t="n">
-        <v>-889272.098</v>
+        <v>-1783882.0546</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.66</v>
+        <v>12.28</v>
       </c>
       <c r="C3" t="n">
-        <v>12.66</v>
+        <v>12.28</v>
       </c>
       <c r="D3" t="n">
-        <v>12.66</v>
+        <v>12.28</v>
       </c>
       <c r="E3" t="n">
-        <v>12.66</v>
+        <v>12.28</v>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>5957.9032</v>
       </c>
       <c r="G3" t="n">
-        <v>-839272.098</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5</v>
+        <v>12.28</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>12.28</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>12.28</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5</v>
+        <v>12.28</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="G4" t="n">
-        <v>-841272.098</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.64</v>
+        <v>12.12</v>
       </c>
       <c r="C5" t="n">
-        <v>12.45</v>
+        <v>12.12</v>
       </c>
       <c r="D5" t="n">
-        <v>12.64</v>
+        <v>12.12</v>
       </c>
       <c r="E5" t="n">
-        <v>12.45</v>
+        <v>12.12</v>
       </c>
       <c r="F5" t="n">
-        <v>66762.6409</v>
+        <v>54.1188</v>
       </c>
       <c r="G5" t="n">
-        <v>-908034.7389</v>
+        <v>-1789894.0766</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.57</v>
+        <v>12.28</v>
       </c>
       <c r="C6" t="n">
-        <v>12.57</v>
+        <v>12.28</v>
       </c>
       <c r="D6" t="n">
-        <v>12.57</v>
+        <v>12.28</v>
       </c>
       <c r="E6" t="n">
-        <v>12.57</v>
+        <v>12.28</v>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>54.1188</v>
       </c>
       <c r="G6" t="n">
-        <v>-903034.7389</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.42</v>
+        <v>12.11</v>
       </c>
       <c r="C7" t="n">
-        <v>12.19</v>
+        <v>12.11</v>
       </c>
       <c r="D7" t="n">
-        <v>12.42</v>
+        <v>12.11</v>
       </c>
       <c r="E7" t="n">
-        <v>12.19</v>
+        <v>12.11</v>
       </c>
       <c r="F7" t="n">
-        <v>221.7776</v>
+        <v>4465</v>
       </c>
       <c r="G7" t="n">
-        <v>-903256.5165</v>
+        <v>-1794304.9578</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.19</v>
+        <v>12.28</v>
       </c>
       <c r="C8" t="n">
-        <v>12.19</v>
+        <v>12.28</v>
       </c>
       <c r="D8" t="n">
-        <v>12.19</v>
+        <v>12.28</v>
       </c>
       <c r="E8" t="n">
-        <v>12.19</v>
+        <v>12.28</v>
       </c>
       <c r="F8" t="n">
-        <v>1037.525</v>
+        <v>234.7851</v>
       </c>
       <c r="G8" t="n">
-        <v>-903256.5165</v>
+        <v>-1794070.1727</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.42</v>
+        <v>12.12</v>
       </c>
       <c r="C9" t="n">
-        <v>12.42</v>
+        <v>12.12</v>
       </c>
       <c r="D9" t="n">
-        <v>12.42</v>
+        <v>12.12</v>
       </c>
       <c r="E9" t="n">
-        <v>12.42</v>
+        <v>12.12</v>
       </c>
       <c r="F9" t="n">
-        <v>656.6274</v>
+        <v>46181.7172</v>
       </c>
       <c r="G9" t="n">
-        <v>-902599.8891</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="C10" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="D10" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="E10" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="F10" t="n">
-        <v>1037.525</v>
+        <v>35097.8689</v>
       </c>
       <c r="G10" t="n">
-        <v>-903637.4141000001</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.39</v>
+        <v>12.11</v>
       </c>
       <c r="C11" t="n">
-        <v>12.39</v>
+        <v>12.11</v>
       </c>
       <c r="D11" t="n">
-        <v>12.39</v>
+        <v>12.11</v>
       </c>
       <c r="E11" t="n">
-        <v>12.39</v>
+        <v>12.11</v>
       </c>
       <c r="F11" t="n">
-        <v>443.0016</v>
+        <v>2760.4267</v>
       </c>
       <c r="G11" t="n">
-        <v>-903194.4125000001</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.19</v>
+        <v>12.11</v>
       </c>
       <c r="C12" t="n">
-        <v>12.18</v>
+        <v>12.11</v>
       </c>
       <c r="D12" t="n">
-        <v>12.19</v>
+        <v>12.11</v>
       </c>
       <c r="E12" t="n">
-        <v>12.18</v>
+        <v>12.11</v>
       </c>
       <c r="F12" t="n">
-        <v>114521.3598</v>
+        <v>137002.0441</v>
       </c>
       <c r="G12" t="n">
-        <v>-1017715.7723</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>12.11</v>
       </c>
       <c r="F13" t="n">
-        <v>5000</v>
+        <v>5927.6408</v>
       </c>
       <c r="G13" t="n">
-        <v>-1012715.7723</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.21</v>
+        <v>12.11</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D14" t="n">
-        <v>12.21</v>
+        <v>12.11</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F14" t="n">
-        <v>31561.1501</v>
+        <v>71028.10890000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-1012715.7723</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F15" t="n">
-        <v>82960.20970000001</v>
+        <v>2676.2278</v>
       </c>
       <c r="G15" t="n">
-        <v>-1012715.7723</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="C16" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="D16" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="E16" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="F16" t="n">
-        <v>128.5312</v>
+        <v>78054.9298</v>
       </c>
       <c r="G16" t="n">
-        <v>-1012587.2411</v>
+        <v>-1835985.4957</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="C17" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="D17" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="E17" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="F17" t="n">
-        <v>74.65689999999999</v>
+        <v>12600</v>
       </c>
       <c r="G17" t="n">
-        <v>-1012512.5842</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="C18" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="D18" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="E18" t="n">
-        <v>12.42</v>
+        <v>12.14</v>
       </c>
       <c r="F18" t="n">
-        <v>106889.7297</v>
+        <v>3072.7217</v>
       </c>
       <c r="G18" t="n">
-        <v>-1012512.5842</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="C19" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="D19" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="E19" t="n">
-        <v>12.42</v>
+        <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>669.9828</v>
+        <v>88505.2577</v>
       </c>
       <c r="G19" t="n">
-        <v>-1012512.5842</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="C20" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="D20" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="E20" t="n">
-        <v>12.41</v>
+        <v>12.2</v>
       </c>
       <c r="F20" t="n">
-        <v>120.6194</v>
+        <v>61247.7437</v>
       </c>
       <c r="G20" t="n">
-        <v>-1012633.2036</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="C21" t="n">
-        <v>12.18</v>
+        <v>12.2</v>
       </c>
       <c r="D21" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="E21" t="n">
-        <v>12.18</v>
+        <v>12.2</v>
       </c>
       <c r="F21" t="n">
-        <v>67235.1949</v>
+        <v>10383.718</v>
       </c>
       <c r="G21" t="n">
-        <v>-1079868.3985</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.18</v>
+        <v>12.2</v>
       </c>
       <c r="C22" t="n">
-        <v>12.08</v>
+        <v>11.98</v>
       </c>
       <c r="D22" t="n">
-        <v>12.18</v>
+        <v>12.2</v>
       </c>
       <c r="E22" t="n">
-        <v>12.08</v>
+        <v>11.98</v>
       </c>
       <c r="F22" t="n">
-        <v>99426.899</v>
+        <v>600161.525</v>
       </c>
       <c r="G22" t="n">
-        <v>-1179295.2975</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="C23" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="D23" t="n">
-        <v>12.12</v>
+        <v>11.99</v>
       </c>
       <c r="E23" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="F23" t="n">
-        <v>13076.9073</v>
+        <v>25691.3811</v>
       </c>
       <c r="G23" t="n">
-        <v>-1166218.3902</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.16</v>
+        <v>11.98</v>
       </c>
       <c r="C24" t="n">
-        <v>12.16</v>
+        <v>11.98</v>
       </c>
       <c r="D24" t="n">
-        <v>12.16</v>
+        <v>11.98</v>
       </c>
       <c r="E24" t="n">
-        <v>12.16</v>
+        <v>11.98</v>
       </c>
       <c r="F24" t="n">
-        <v>4520.7984</v>
+        <v>24332.8476</v>
       </c>
       <c r="G24" t="n">
-        <v>-1161697.5918</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.37</v>
+        <v>11.99</v>
       </c>
       <c r="C25" t="n">
-        <v>12.37</v>
+        <v>11.98</v>
       </c>
       <c r="D25" t="n">
-        <v>12.37</v>
+        <v>11.99</v>
       </c>
       <c r="E25" t="n">
-        <v>12.37</v>
+        <v>11.98</v>
       </c>
       <c r="F25" t="n">
-        <v>46.4731</v>
+        <v>47523.0173</v>
       </c>
       <c r="G25" t="n">
-        <v>-1161651.1187</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.37</v>
+        <v>12.27</v>
       </c>
       <c r="C26" t="n">
-        <v>12.37</v>
+        <v>12.27</v>
       </c>
       <c r="D26" t="n">
-        <v>12.37</v>
+        <v>12.27</v>
       </c>
       <c r="E26" t="n">
-        <v>12.37</v>
+        <v>12.27</v>
       </c>
       <c r="F26" t="n">
-        <v>51.8082</v>
+        <v>8957.720499999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-1161651.1187</v>
+        <v>-2351284.0425</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.42</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>12.42</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>12.42</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>12.42</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>126.2616</v>
+        <v>90293.7329</v>
       </c>
       <c r="G27" t="n">
-        <v>-1161524.8571</v>
+        <v>-2441577.775400001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.39</v>
+        <v>12.04</v>
       </c>
       <c r="C28" t="n">
-        <v>12.39</v>
+        <v>12.02</v>
       </c>
       <c r="D28" t="n">
-        <v>12.39</v>
+        <v>12.04</v>
       </c>
       <c r="E28" t="n">
-        <v>12.39</v>
+        <v>12.02</v>
       </c>
       <c r="F28" t="n">
-        <v>12076.2741</v>
+        <v>81350.9204</v>
       </c>
       <c r="G28" t="n">
-        <v>-1173601.1312</v>
+        <v>-2360226.855</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.29</v>
+        <v>12.03</v>
       </c>
       <c r="C29" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>12.29</v>
+        <v>12.03</v>
       </c>
       <c r="E29" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>19006.2923</v>
+        <v>301188.7833</v>
       </c>
       <c r="G29" t="n">
-        <v>-1192607.4235</v>
+        <v>-2661415.638300001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.24</v>
+        <v>11.91</v>
       </c>
       <c r="C30" t="n">
-        <v>12.19</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
-        <v>12.24</v>
+        <v>11.91</v>
       </c>
       <c r="E30" t="n">
-        <v>12.19</v>
+        <v>11.9</v>
       </c>
       <c r="F30" t="n">
-        <v>34013.228</v>
+        <v>34029.3263</v>
       </c>
       <c r="G30" t="n">
-        <v>-1226620.6515</v>
+        <v>-2695444.964600001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.18</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>12.18</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>56980.8978</v>
+        <v>1972.1157</v>
       </c>
       <c r="G31" t="n">
-        <v>-1283601.5493</v>
+        <v>-2693472.848900001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>12.09</v>
+        <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>7877.7452</v>
+        <v>77485.9034</v>
       </c>
       <c r="G32" t="n">
-        <v>-1275723.8041</v>
+        <v>-2693472.848900001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.12</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>12.08</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>12.12</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>12.08</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>77186.2746</v>
+        <v>177710.2405</v>
       </c>
       <c r="G33" t="n">
-        <v>-1352910.0787</v>
+        <v>-2871183.0894</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="C34" t="n">
-        <v>12.29</v>
+        <v>11.96</v>
       </c>
       <c r="D34" t="n">
-        <v>12.29</v>
+        <v>11.96</v>
       </c>
       <c r="E34" t="n">
-        <v>12.11</v>
+        <v>11.96</v>
       </c>
       <c r="F34" t="n">
-        <v>118.8731</v>
+        <v>50534.0918</v>
       </c>
       <c r="G34" t="n">
-        <v>-1352791.2056</v>
+        <v>-2820648.9976</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="F35" t="n">
-        <v>1300.5943</v>
+        <v>104611.457</v>
       </c>
       <c r="G35" t="n">
-        <v>-1354091.7999</v>
+        <v>-2820648.9976</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>11.99</v>
       </c>
       <c r="C36" t="n">
-        <v>12.29</v>
+        <v>11.99</v>
       </c>
       <c r="D36" t="n">
-        <v>12.29</v>
+        <v>11.99</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>11.99</v>
       </c>
       <c r="F36" t="n">
-        <v>116.6347</v>
+        <v>993.0955</v>
       </c>
       <c r="G36" t="n">
-        <v>-1353975.1652</v>
+        <v>-2819655.902100001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="n">
         <v>12.02</v>
       </c>
-      <c r="D37" t="n">
-        <v>12.1</v>
-      </c>
       <c r="E37" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>362947.521</v>
+        <v>108027.1532</v>
       </c>
       <c r="G37" t="n">
-        <v>-1716922.6862</v>
+        <v>-2711628.7489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="C38" t="n">
-        <v>12.28</v>
+        <v>11.91</v>
       </c>
       <c r="D38" t="n">
-        <v>12.28</v>
+        <v>11.91</v>
       </c>
       <c r="E38" t="n">
-        <v>12.03</v>
+        <v>11.91</v>
       </c>
       <c r="F38" t="n">
-        <v>732.0805</v>
+        <v>24258.3268</v>
       </c>
       <c r="G38" t="n">
-        <v>-1716190.6057</v>
+        <v>-2735887.0757</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.03</v>
+        <v>11.99</v>
       </c>
       <c r="C39" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="F39" t="n">
-        <v>101825.4142</v>
+        <v>79442.576</v>
       </c>
       <c r="G39" t="n">
-        <v>-1818016.0199</v>
+        <v>-2656444.499700001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.28</v>
+        <v>11.93</v>
       </c>
       <c r="C40" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="D40" t="n">
-        <v>12.28</v>
+        <v>11.93</v>
       </c>
       <c r="E40" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="F40" t="n">
-        <v>222.222</v>
+        <v>159213.5066</v>
       </c>
       <c r="G40" t="n">
-        <v>-1817793.7979</v>
+        <v>-2815658.0063</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.26</v>
+        <v>11.85</v>
       </c>
       <c r="C41" t="n">
-        <v>12.3</v>
+        <v>11.84</v>
       </c>
       <c r="D41" t="n">
-        <v>12.3</v>
+        <v>11.85</v>
       </c>
       <c r="E41" t="n">
-        <v>12.26</v>
+        <v>11.84</v>
       </c>
       <c r="F41" t="n">
-        <v>33838.8813</v>
+        <v>88505.2577</v>
       </c>
       <c r="G41" t="n">
-        <v>-1783954.9166</v>
+        <v>-2815658.0063</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.33</v>
+        <v>11.99</v>
       </c>
       <c r="C42" t="n">
-        <v>12.33</v>
+        <v>11.99</v>
       </c>
       <c r="D42" t="n">
-        <v>12.33</v>
+        <v>11.99</v>
       </c>
       <c r="E42" t="n">
-        <v>12.33</v>
+        <v>11.99</v>
       </c>
       <c r="F42" t="n">
-        <v>56.1064</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>-1783898.8102</v>
+        <v>-2815608.0063</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.36</v>
+        <v>11.99</v>
       </c>
       <c r="C43" t="n">
-        <v>12.36</v>
+        <v>11.85</v>
       </c>
       <c r="D43" t="n">
-        <v>12.36</v>
+        <v>11.99</v>
       </c>
       <c r="E43" t="n">
-        <v>12.36</v>
+        <v>11.85</v>
       </c>
       <c r="F43" t="n">
-        <v>56.1064</v>
+        <v>204</v>
       </c>
       <c r="G43" t="n">
-        <v>-1783842.7038</v>
+        <v>-2815812.0063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.33</v>
+        <v>11.85</v>
       </c>
       <c r="C44" t="n">
-        <v>12.33</v>
+        <v>11.85</v>
       </c>
       <c r="D44" t="n">
-        <v>12.33</v>
+        <v>11.85</v>
       </c>
       <c r="E44" t="n">
-        <v>12.33</v>
+        <v>11.85</v>
       </c>
       <c r="F44" t="n">
-        <v>39.3508</v>
+        <v>15349.7322</v>
       </c>
       <c r="G44" t="n">
-        <v>-1783882.0546</v>
+        <v>-2815812.0063</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="C45" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="D45" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="E45" t="n">
-        <v>12.28</v>
+        <v>11.84</v>
       </c>
       <c r="F45" t="n">
-        <v>5957.9032</v>
+        <v>163.4006</v>
       </c>
       <c r="G45" t="n">
-        <v>-1789839.9578</v>
+        <v>-2815975.4069</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.28</v>
+        <v>11.99</v>
       </c>
       <c r="C46" t="n">
-        <v>12.28</v>
+        <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>12.28</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>12.28</v>
+        <v>11.99</v>
       </c>
       <c r="F46" t="n">
-        <v>100000</v>
+        <v>7500</v>
       </c>
       <c r="G46" t="n">
-        <v>-1789839.9578</v>
+        <v>-2808475.4069</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="C47" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="D47" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="E47" t="n">
-        <v>12.12</v>
+        <v>11.85</v>
       </c>
       <c r="F47" t="n">
-        <v>54.1188</v>
+        <v>59.6658</v>
       </c>
       <c r="G47" t="n">
-        <v>-1789894.0766</v>
+        <v>-2808535.0727</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.28</v>
+        <v>11.89</v>
       </c>
       <c r="C48" t="n">
-        <v>12.28</v>
+        <v>11.89</v>
       </c>
       <c r="D48" t="n">
-        <v>12.28</v>
+        <v>11.89</v>
       </c>
       <c r="E48" t="n">
-        <v>12.28</v>
+        <v>11.89</v>
       </c>
       <c r="F48" t="n">
-        <v>54.1188</v>
+        <v>66583.7424</v>
       </c>
       <c r="G48" t="n">
-        <v>-1789839.9578</v>
+        <v>-2741951.3303</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.11</v>
+        <v>11.89</v>
       </c>
       <c r="C49" t="n">
-        <v>12.11</v>
+        <v>11.89</v>
       </c>
       <c r="D49" t="n">
-        <v>12.11</v>
+        <v>11.89</v>
       </c>
       <c r="E49" t="n">
-        <v>12.11</v>
+        <v>11.89</v>
       </c>
       <c r="F49" t="n">
-        <v>4465</v>
+        <v>80386.3579</v>
       </c>
       <c r="G49" t="n">
-        <v>-1794304.9578</v>
+        <v>-2741951.3303</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.28</v>
+        <v>11.88</v>
       </c>
       <c r="C50" t="n">
-        <v>12.28</v>
+        <v>11.9</v>
       </c>
       <c r="D50" t="n">
-        <v>12.28</v>
+        <v>11.9</v>
       </c>
       <c r="E50" t="n">
-        <v>12.28</v>
+        <v>11.88</v>
       </c>
       <c r="F50" t="n">
-        <v>234.7851</v>
+        <v>80364.5981</v>
       </c>
       <c r="G50" t="n">
-        <v>-1794070.1727</v>
+        <v>-2661586.7322</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="C51" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="D51" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="E51" t="n">
-        <v>12.12</v>
+        <v>11.98</v>
       </c>
       <c r="F51" t="n">
-        <v>46181.7172</v>
+        <v>59.6658</v>
       </c>
       <c r="G51" t="n">
-        <v>-1840251.8899</v>
+        <v>-2661527.0664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>35097.8689</v>
+        <v>117.5964</v>
       </c>
       <c r="G52" t="n">
-        <v>-1840251.8899</v>
+        <v>-2661409.47</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.11</v>
+        <v>11.85</v>
       </c>
       <c r="C53" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="D53" t="n">
-        <v>12.11</v>
+        <v>11.85</v>
       </c>
       <c r="E53" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="F53" t="n">
-        <v>2760.4267</v>
+        <v>62550.3375</v>
       </c>
       <c r="G53" t="n">
-        <v>-1843012.3166</v>
+        <v>-2723959.8075</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="C54" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="D54" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="E54" t="n">
-        <v>12.11</v>
+        <v>11.84</v>
       </c>
       <c r="F54" t="n">
-        <v>137002.0441</v>
+        <v>100400.6755</v>
       </c>
       <c r="G54" t="n">
-        <v>-1843012.3166</v>
+        <v>-2723959.8075</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.11</v>
+        <v>11.83</v>
       </c>
       <c r="C55" t="n">
-        <v>12.11</v>
+        <v>11.8</v>
       </c>
       <c r="D55" t="n">
-        <v>12.11</v>
+        <v>11.98</v>
       </c>
       <c r="E55" t="n">
-        <v>12.11</v>
+        <v>11.8</v>
       </c>
       <c r="F55" t="n">
-        <v>5927.6408</v>
+        <v>213722.9407</v>
       </c>
       <c r="G55" t="n">
-        <v>-1843012.3166</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.11</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D56" t="n">
-        <v>12.11</v>
+        <v>11.8</v>
       </c>
       <c r="E56" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F56" t="n">
-        <v>71028.10890000001</v>
+        <v>319.6504</v>
       </c>
       <c r="G56" t="n">
-        <v>-1914040.4255</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F57" t="n">
-        <v>2676.2278</v>
+        <v>80845.6156</v>
       </c>
       <c r="G57" t="n">
-        <v>-1914040.4255</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F58" t="n">
-        <v>78054.9298</v>
+        <v>239.9133</v>
       </c>
       <c r="G58" t="n">
-        <v>-1835985.4957</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>12600</v>
+        <v>1470.9183</v>
       </c>
       <c r="G59" t="n">
-        <v>-1848585.4957</v>
+        <v>-2937682.7482</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="C60" t="n">
-        <v>12.14</v>
+        <v>11.79</v>
       </c>
       <c r="D60" t="n">
-        <v>12.14</v>
+        <v>11.8</v>
       </c>
       <c r="E60" t="n">
-        <v>12.14</v>
+        <v>11.79</v>
       </c>
       <c r="F60" t="n">
-        <v>3072.7217</v>
+        <v>196775.0673</v>
       </c>
       <c r="G60" t="n">
-        <v>-1848585.4957</v>
+        <v>-3134457.8155</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C61" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="D61" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="E61" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F61" t="n">
-        <v>88505.2577</v>
+        <v>1208.1655</v>
       </c>
       <c r="G61" t="n">
-        <v>-1760080.238</v>
+        <v>-3133249.65</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="C62" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="D62" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="E62" t="n">
-        <v>12.2</v>
+        <v>11.97</v>
       </c>
       <c r="F62" t="n">
-        <v>61247.7437</v>
+        <v>3814.8367</v>
       </c>
       <c r="G62" t="n">
-        <v>-1760080.238</v>
+        <v>-3133249.65</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="D63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="E63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F63" t="n">
-        <v>10383.718</v>
+        <v>837.6738</v>
       </c>
       <c r="G63" t="n">
-        <v>-1760080.238</v>
+        <v>-3134087.3238</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.2</v>
+        <v>11.88</v>
       </c>
       <c r="C64" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="D64" t="n">
-        <v>12.2</v>
+        <v>11.88</v>
       </c>
       <c r="E64" t="n">
-        <v>11.98</v>
+        <v>11.87</v>
       </c>
       <c r="F64" t="n">
-        <v>600161.525</v>
+        <v>117000</v>
       </c>
       <c r="G64" t="n">
-        <v>-2360241.763</v>
+        <v>-3251087.3238</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="C65" t="n">
-        <v>11.98</v>
+        <v>11.97</v>
       </c>
       <c r="D65" t="n">
-        <v>11.99</v>
+        <v>11.97</v>
       </c>
       <c r="E65" t="n">
-        <v>11.98</v>
+        <v>11.97</v>
       </c>
       <c r="F65" t="n">
-        <v>25691.3811</v>
+        <v>245.5507</v>
       </c>
       <c r="G65" t="n">
-        <v>-2360241.763</v>
+        <v>-3250841.7731</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.98</v>
+        <v>11.86</v>
       </c>
       <c r="C66" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="D66" t="n">
-        <v>11.98</v>
+        <v>11.86</v>
       </c>
       <c r="E66" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="F66" t="n">
-        <v>24332.8476</v>
+        <v>90017.0916</v>
       </c>
       <c r="G66" t="n">
-        <v>-2360241.763</v>
+        <v>-3340858.8647</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="C67" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="D67" t="n">
-        <v>11.99</v>
+        <v>11.85</v>
       </c>
       <c r="E67" t="n">
-        <v>11.98</v>
+        <v>11.85</v>
       </c>
       <c r="F67" t="n">
-        <v>47523.0173</v>
+        <v>112671.4212</v>
       </c>
       <c r="G67" t="n">
-        <v>-2360241.763</v>
+        <v>-3340858.8647</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,67 +2807,65 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.27</v>
+        <v>11.97</v>
       </c>
       <c r="C68" t="n">
-        <v>12.27</v>
+        <v>11.97</v>
       </c>
       <c r="D68" t="n">
-        <v>12.27</v>
+        <v>11.97</v>
       </c>
       <c r="E68" t="n">
-        <v>12.27</v>
+        <v>11.97</v>
       </c>
       <c r="F68" t="n">
-        <v>8957.720499999999</v>
+        <v>199.7339</v>
       </c>
       <c r="G68" t="n">
-        <v>-2351284.0425</v>
+        <v>-3340659.1308</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11.98</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>11.81</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>11.81</v>
       </c>
       <c r="F69" t="n">
-        <v>90293.7329</v>
+        <v>7107.2267</v>
       </c>
       <c r="G69" t="n">
-        <v>-2441577.775400001</v>
+        <v>-3347766.3575</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2806,39 +2874,34 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.04</v>
+        <v>11.8</v>
       </c>
       <c r="C70" t="n">
-        <v>12.02</v>
+        <v>11.8</v>
       </c>
       <c r="D70" t="n">
-        <v>12.04</v>
+        <v>11.82</v>
       </c>
       <c r="E70" t="n">
-        <v>12.02</v>
+        <v>11.8</v>
       </c>
       <c r="F70" t="n">
-        <v>81350.9204</v>
+        <v>201890.6452</v>
       </c>
       <c r="G70" t="n">
-        <v>-2360226.855</v>
+        <v>-3549657.002700001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2847,39 +2910,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.03</v>
+        <v>11.84</v>
       </c>
       <c r="C71" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D71" t="n">
-        <v>12.03</v>
+        <v>11.84</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="F71" t="n">
-        <v>301188.7833</v>
+        <v>240.6047</v>
       </c>
       <c r="G71" t="n">
-        <v>-2661415.638300001</v>
+        <v>-3549416.398000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.91</v>
+        <v>11.79</v>
       </c>
       <c r="C72" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="D72" t="n">
-        <v>11.91</v>
+        <v>11.79</v>
       </c>
       <c r="E72" t="n">
-        <v>11.9</v>
+        <v>11.66</v>
       </c>
       <c r="F72" t="n">
-        <v>34029.3263</v>
+        <v>370746.4571</v>
       </c>
       <c r="G72" t="n">
-        <v>-2695444.964600001</v>
+        <v>-3920162.8551</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="F73" t="n">
-        <v>1972.1157</v>
+        <v>379.9934</v>
       </c>
       <c r="G73" t="n">
-        <v>-2693472.848900001</v>
+        <v>-3919782.8617</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,13 +3023,14 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="C74" t="n">
         <v>12</v>
@@ -2978,13 +3039,13 @@
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="F74" t="n">
-        <v>77485.9034</v>
+        <v>43947.5679</v>
       </c>
       <c r="G74" t="n">
-        <v>-2693472.848900001</v>
+        <v>-3875835.2938</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>177710.2405</v>
+        <v>24809.5958</v>
       </c>
       <c r="G75" t="n">
-        <v>-2871183.0894</v>
+        <v>-3875835.2938</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.96</v>
+        <v>11.82</v>
       </c>
       <c r="C76" t="n">
-        <v>11.96</v>
+        <v>11.82</v>
       </c>
       <c r="D76" t="n">
-        <v>11.96</v>
+        <v>11.82</v>
       </c>
       <c r="E76" t="n">
-        <v>11.96</v>
+        <v>11.82</v>
       </c>
       <c r="F76" t="n">
-        <v>50534.0918</v>
+        <v>42571.8414</v>
       </c>
       <c r="G76" t="n">
-        <v>-2820648.9976</v>
+        <v>-3918407.1352</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="C77" t="n">
-        <v>11.96</v>
+        <v>11.71</v>
       </c>
       <c r="D77" t="n">
-        <v>11.96</v>
+        <v>11.81</v>
       </c>
       <c r="E77" t="n">
-        <v>11.96</v>
+        <v>11.71</v>
       </c>
       <c r="F77" t="n">
-        <v>104611.457</v>
+        <v>11610.1733</v>
       </c>
       <c r="G77" t="n">
-        <v>-2820648.9976</v>
+        <v>-3930017.3085</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.99</v>
+        <v>11.94</v>
       </c>
       <c r="C78" t="n">
-        <v>11.99</v>
+        <v>11.94</v>
       </c>
       <c r="D78" t="n">
-        <v>11.99</v>
+        <v>11.94</v>
       </c>
       <c r="E78" t="n">
-        <v>11.99</v>
+        <v>11.94</v>
       </c>
       <c r="F78" t="n">
-        <v>993.0955</v>
+        <v>33743.6337</v>
       </c>
       <c r="G78" t="n">
-        <v>-2819655.902100001</v>
+        <v>-3896273.6748</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.02</v>
+        <v>11.94</v>
       </c>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="D79" t="n">
-        <v>12.02</v>
+        <v>11.94</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>11.94</v>
       </c>
       <c r="F79" t="n">
-        <v>108027.1532</v>
+        <v>15609.1804</v>
       </c>
       <c r="G79" t="n">
-        <v>-2711628.7489</v>
+        <v>-3896273.6748</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="C80" t="n">
-        <v>11.91</v>
+        <v>12.17</v>
       </c>
       <c r="D80" t="n">
-        <v>11.91</v>
+        <v>12.17</v>
       </c>
       <c r="E80" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="F80" t="n">
-        <v>24258.3268</v>
+        <v>108.0378</v>
       </c>
       <c r="G80" t="n">
-        <v>-2735887.0757</v>
+        <v>-3896165.637</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.99</v>
+        <v>12.25</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>12.25</v>
       </c>
       <c r="E81" t="n">
-        <v>11.99</v>
+        <v>12.25</v>
       </c>
       <c r="F81" t="n">
-        <v>79442.576</v>
+        <v>7000</v>
       </c>
       <c r="G81" t="n">
-        <v>-2656444.499700001</v>
+        <v>-3889165.637</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.93</v>
+        <v>12.25</v>
       </c>
       <c r="C82" t="n">
-        <v>11.84</v>
+        <v>12.25</v>
       </c>
       <c r="D82" t="n">
-        <v>11.93</v>
+        <v>12.25</v>
       </c>
       <c r="E82" t="n">
-        <v>11.84</v>
+        <v>12.25</v>
       </c>
       <c r="F82" t="n">
-        <v>159213.5066</v>
+        <v>40716.6801</v>
       </c>
       <c r="G82" t="n">
-        <v>-2815658.0063</v>
+        <v>-3889165.637</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.85</v>
+        <v>11.94</v>
       </c>
       <c r="C83" t="n">
-        <v>11.84</v>
+        <v>10.58</v>
       </c>
       <c r="D83" t="n">
-        <v>11.85</v>
+        <v>11.94</v>
       </c>
       <c r="E83" t="n">
-        <v>11.84</v>
+        <v>10.58</v>
       </c>
       <c r="F83" t="n">
-        <v>88505.2577</v>
+        <v>1502951.7229</v>
       </c>
       <c r="G83" t="n">
-        <v>-2815658.0063</v>
+        <v>-5392117.3599</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,493 +3383,441 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.99</v>
+        <v>11.16</v>
       </c>
       <c r="C84" t="n">
-        <v>11.99</v>
+        <v>11.26</v>
       </c>
       <c r="D84" t="n">
-        <v>11.99</v>
+        <v>11.26</v>
       </c>
       <c r="E84" t="n">
-        <v>11.99</v>
+        <v>11.15</v>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>240300.0531</v>
       </c>
       <c r="G84" t="n">
-        <v>-2815608.0063</v>
+        <v>-5151817.306799999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.84</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="C85" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="D85" t="n">
-        <v>11.99</v>
+        <v>11.8</v>
       </c>
       <c r="E85" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="F85" t="n">
-        <v>204</v>
+        <v>1011.7675</v>
       </c>
       <c r="G85" t="n">
-        <v>-2815812.0063</v>
+        <v>-5150805.539299999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
-        <v>11.85</v>
+        <v>11.79</v>
       </c>
       <c r="D86" t="n">
-        <v>11.85</v>
+        <v>11.79</v>
       </c>
       <c r="E86" t="n">
-        <v>11.85</v>
+        <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>15349.7322</v>
+        <v>69987.679</v>
       </c>
       <c r="G86" t="n">
-        <v>-2815812.0063</v>
+        <v>-5080817.860299999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.84</v>
+        <v>11.79</v>
       </c>
       <c r="C87" t="n">
-        <v>11.84</v>
+        <v>11.69</v>
       </c>
       <c r="D87" t="n">
-        <v>11.84</v>
+        <v>11.79</v>
       </c>
       <c r="E87" t="n">
-        <v>11.84</v>
+        <v>11.69</v>
       </c>
       <c r="F87" t="n">
-        <v>163.4006</v>
+        <v>24239.2516</v>
       </c>
       <c r="G87" t="n">
-        <v>-2815975.4069</v>
+        <v>-5105057.111899999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K87" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.99</v>
+        <v>11.61</v>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>11.68</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>11.68</v>
       </c>
       <c r="E88" t="n">
-        <v>11.99</v>
+        <v>11.03</v>
       </c>
       <c r="F88" t="n">
-        <v>7500</v>
+        <v>25736.6992</v>
       </c>
       <c r="G88" t="n">
-        <v>-2808475.4069</v>
+        <v>-5130793.811099999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K88" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="C89" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="D89" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="E89" t="n">
-        <v>11.85</v>
+        <v>11.47</v>
       </c>
       <c r="F89" t="n">
-        <v>59.6658</v>
+        <v>361.8958</v>
       </c>
       <c r="G89" t="n">
-        <v>-2808535.0727</v>
+        <v>-5131155.706899999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12</v>
-      </c>
-      <c r="K89" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="C90" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="D90" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="E90" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="F90" t="n">
-        <v>66583.7424</v>
+        <v>195.1267</v>
       </c>
       <c r="G90" t="n">
-        <v>-2741951.3303</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K90" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="C91" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="D91" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="E91" t="n">
-        <v>11.89</v>
+        <v>11.48</v>
       </c>
       <c r="F91" t="n">
-        <v>80386.3579</v>
+        <v>3644.8733</v>
       </c>
       <c r="G91" t="n">
-        <v>-2741951.3303</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.88</v>
+        <v>11.48</v>
       </c>
       <c r="C92" t="n">
-        <v>11.9</v>
+        <v>11.48</v>
       </c>
       <c r="D92" t="n">
-        <v>11.9</v>
+        <v>11.48</v>
       </c>
       <c r="E92" t="n">
-        <v>11.88</v>
+        <v>11.48</v>
       </c>
       <c r="F92" t="n">
-        <v>80364.5981</v>
+        <v>277.2708</v>
       </c>
       <c r="G92" t="n">
-        <v>-2661586.7322</v>
+        <v>-5130960.580199999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K92" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.98</v>
+        <v>11.48</v>
       </c>
       <c r="C93" t="n">
-        <v>11.98</v>
+        <v>11.4</v>
       </c>
       <c r="D93" t="n">
-        <v>11.98</v>
+        <v>11.48</v>
       </c>
       <c r="E93" t="n">
-        <v>11.98</v>
+        <v>11.4</v>
       </c>
       <c r="F93" t="n">
-        <v>59.6658</v>
+        <v>30339.3992</v>
       </c>
       <c r="G93" t="n">
-        <v>-2661527.0664</v>
+        <v>-5161299.979399999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12</v>
+        <v>11.39</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>11.39</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>11.39</v>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>11.39</v>
       </c>
       <c r="F94" t="n">
-        <v>117.5964</v>
+        <v>697.885</v>
       </c>
       <c r="G94" t="n">
-        <v>-2661409.47</v>
+        <v>-5161997.864399998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.85</v>
+        <v>11.3</v>
       </c>
       <c r="C95" t="n">
-        <v>11.84</v>
+        <v>11.39</v>
       </c>
       <c r="D95" t="n">
-        <v>11.85</v>
+        <v>11.39</v>
       </c>
       <c r="E95" t="n">
-        <v>11.84</v>
+        <v>11.3</v>
       </c>
       <c r="F95" t="n">
-        <v>62550.3375</v>
+        <v>61661.432</v>
       </c>
       <c r="G95" t="n">
-        <v>-2723959.8075</v>
+        <v>-5161997.864399998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.39</v>
+      </c>
       <c r="K95" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -3809,38 +3827,41 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.84</v>
+        <v>11.58</v>
       </c>
       <c r="C96" t="n">
-        <v>11.84</v>
+        <v>11.58</v>
       </c>
       <c r="D96" t="n">
-        <v>11.84</v>
+        <v>11.58</v>
       </c>
       <c r="E96" t="n">
-        <v>11.84</v>
+        <v>11.58</v>
       </c>
       <c r="F96" t="n">
-        <v>100400.6755</v>
+        <v>156.7173</v>
       </c>
       <c r="G96" t="n">
-        <v>-2723959.8075</v>
+        <v>-5161841.147099999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.39</v>
+      </c>
       <c r="K96" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3850,38 +3871,41 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.83</v>
+        <v>11.58</v>
       </c>
       <c r="C97" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D97" t="n">
-        <v>11.98</v>
+        <v>11.58</v>
       </c>
       <c r="E97" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F97" t="n">
-        <v>213722.9407</v>
+        <v>55359.3171</v>
       </c>
       <c r="G97" t="n">
-        <v>-2937682.7482</v>
+        <v>-5217200.464199998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.58</v>
+      </c>
       <c r="K97" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -3891,28 +3915,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C98" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="D98" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="E98" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F98" t="n">
-        <v>319.6504</v>
+        <v>43368.2511</v>
       </c>
       <c r="G98" t="n">
-        <v>-2937682.7482</v>
+        <v>-5217200.464199998</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -3921,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K98" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -3934,38 +3959,41 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="C99" t="n">
-        <v>11.8</v>
+        <v>11.36</v>
       </c>
       <c r="D99" t="n">
-        <v>11.8</v>
+        <v>11.36</v>
       </c>
       <c r="E99" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F99" t="n">
-        <v>80845.6156</v>
+        <v>46384.2511</v>
       </c>
       <c r="G99" t="n">
-        <v>-2937682.7482</v>
+        <v>-5170816.213099998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K99" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -3975,28 +4003,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="C100" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="D100" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="E100" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="F100" t="n">
-        <v>239.9133</v>
+        <v>8994.690000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-2937682.7482</v>
+        <v>-5161821.523099998</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4005,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>11.8</v>
+        <v>11.36</v>
       </c>
       <c r="K100" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4018,28 +4047,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="C101" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="D101" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="E101" t="n">
-        <v>11.8</v>
+        <v>11.68</v>
       </c>
       <c r="F101" t="n">
-        <v>1470.9183</v>
+        <v>131077.1557</v>
       </c>
       <c r="G101" t="n">
-        <v>-2937682.7482</v>
+        <v>-5030744.367399998</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4048,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>11.8</v>
+        <v>11.45</v>
       </c>
       <c r="K101" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4061,28 +4091,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="C102" t="n">
-        <v>11.79</v>
+        <v>11.89</v>
       </c>
       <c r="D102" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="E102" t="n">
-        <v>11.79</v>
+        <v>11.89</v>
       </c>
       <c r="F102" t="n">
-        <v>196775.0673</v>
+        <v>25353.6061</v>
       </c>
       <c r="G102" t="n">
-        <v>-3134457.8155</v>
+        <v>-5030744.367399998</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4091,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>11.8</v>
+        <v>11.89</v>
       </c>
       <c r="K102" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4104,40 +4135,39 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="C103" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="D103" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="E103" t="n">
-        <v>11.95</v>
+        <v>11.89</v>
       </c>
       <c r="F103" t="n">
-        <v>1208.1655</v>
+        <v>23668.5453</v>
       </c>
       <c r="G103" t="n">
-        <v>-3133249.65</v>
+        <v>-5007075.822099998</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>11.79</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4147,40 +4177,39 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="C104" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="D104" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="E104" t="n">
-        <v>11.97</v>
+        <v>12.19</v>
       </c>
       <c r="F104" t="n">
-        <v>3814.8367</v>
+        <v>183.607</v>
       </c>
       <c r="G104" t="n">
-        <v>-3133249.65</v>
+        <v>-5007075.822099998</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>11.97</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4190,6 +4219,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4199,31 +4229,29 @@
         <v>11.95</v>
       </c>
       <c r="C105" t="n">
-        <v>11.95</v>
+        <v>12.12</v>
       </c>
       <c r="D105" t="n">
-        <v>11.95</v>
+        <v>12.12</v>
       </c>
       <c r="E105" t="n">
         <v>11.95</v>
       </c>
       <c r="F105" t="n">
-        <v>837.6738</v>
+        <v>87559.1038</v>
       </c>
       <c r="G105" t="n">
-        <v>-3134087.3238</v>
+        <v>-5094634.925899997</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>11.97</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4233,40 +4261,39 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.88</v>
+        <v>12.15</v>
       </c>
       <c r="C106" t="n">
-        <v>11.87</v>
+        <v>12.15</v>
       </c>
       <c r="D106" t="n">
-        <v>11.88</v>
+        <v>12.15</v>
       </c>
       <c r="E106" t="n">
-        <v>11.87</v>
+        <v>12.15</v>
       </c>
       <c r="F106" t="n">
-        <v>117000</v>
+        <v>155.5691</v>
       </c>
       <c r="G106" t="n">
-        <v>-3251087.3238</v>
+        <v>-5094479.356799997</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>11.95</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4276,40 +4303,39 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.97</v>
+        <v>12.12</v>
       </c>
       <c r="C107" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="D107" t="n">
-        <v>11.97</v>
+        <v>12.12</v>
       </c>
       <c r="E107" t="n">
-        <v>11.97</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>245.5507</v>
+        <v>9754.5304</v>
       </c>
       <c r="G107" t="n">
-        <v>-3250841.7731</v>
+        <v>-5104233.887199997</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>11.87</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4319,40 +4345,39 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>11.86</v>
+        <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>11.85</v>
+        <v>12</v>
       </c>
       <c r="F108" t="n">
-        <v>90017.0916</v>
+        <v>2875.9046</v>
       </c>
       <c r="G108" t="n">
-        <v>-3340858.8647</v>
+        <v>-5104233.887199997</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>11.97</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4362,28 +4387,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="C109" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="D109" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="E109" t="n">
-        <v>11.85</v>
+        <v>11.93</v>
       </c>
       <c r="F109" t="n">
-        <v>112671.4212</v>
+        <v>16425.8273</v>
       </c>
       <c r="G109" t="n">
-        <v>-3340858.8647</v>
+        <v>-5120659.714499997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4393,7 +4419,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4403,40 +4429,39 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="C110" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="D110" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="E110" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
       <c r="F110" t="n">
-        <v>199.7339</v>
+        <v>37974.5311</v>
       </c>
       <c r="G110" t="n">
-        <v>-3340659.1308</v>
+        <v>-5082685.183399997</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>11.85</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4446,40 +4471,39 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.85</v>
+        <v>11.92</v>
       </c>
       <c r="C111" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="D111" t="n">
-        <v>11.85</v>
+        <v>11.92</v>
       </c>
       <c r="E111" t="n">
-        <v>11.81</v>
+        <v>11.92</v>
       </c>
       <c r="F111" t="n">
-        <v>7107.2267</v>
+        <v>21251.77</v>
       </c>
       <c r="G111" t="n">
-        <v>-3347766.3575</v>
+        <v>-5103936.953399996</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>11.97</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4489,40 +4513,39 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.8</v>
+        <v>12.05</v>
       </c>
       <c r="C112" t="n">
-        <v>11.8</v>
+        <v>12.05</v>
       </c>
       <c r="D112" t="n">
-        <v>11.82</v>
+        <v>12.05</v>
       </c>
       <c r="E112" t="n">
-        <v>11.8</v>
+        <v>12.05</v>
       </c>
       <c r="F112" t="n">
-        <v>201890.6452</v>
+        <v>566.6808</v>
       </c>
       <c r="G112" t="n">
-        <v>-3549657.002700001</v>
+        <v>-5103370.272599996</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>11.81</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4532,40 +4555,39 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="C113" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="D113" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="E113" t="n">
-        <v>11.84</v>
+        <v>11.93</v>
       </c>
       <c r="F113" t="n">
-        <v>240.6047</v>
+        <v>763.2024</v>
       </c>
       <c r="G113" t="n">
-        <v>-3549416.398000001</v>
+        <v>-5104133.474999996</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4575,40 +4597,39 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C114" t="n">
         <v>11.79</v>
       </c>
-      <c r="C114" t="n">
-        <v>11.66</v>
-      </c>
       <c r="D114" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E114" t="n">
         <v>11.79</v>
       </c>
-      <c r="E114" t="n">
-        <v>11.66</v>
-      </c>
       <c r="F114" t="n">
-        <v>370746.4571</v>
+        <v>1195.0861</v>
       </c>
       <c r="G114" t="n">
-        <v>-3920162.8551</v>
+        <v>-5105328.561099996</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>11.84</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4618,40 +4639,39 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="C115" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="D115" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="E115" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="F115" t="n">
-        <v>379.9934</v>
+        <v>79.7107</v>
       </c>
       <c r="G115" t="n">
-        <v>-3919782.8617</v>
+        <v>-5105248.850399996</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>11.66</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4661,40 +4681,39 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.96</v>
+        <v>11.84</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>11.73</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="E116" t="n">
-        <v>11.96</v>
+        <v>11.73</v>
       </c>
       <c r="F116" t="n">
-        <v>43947.5679</v>
+        <v>9959.397999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-3875835.2938</v>
+        <v>-5115208.248399996</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>11.96</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4704,40 +4723,39 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="C117" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="D117" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="F117" t="n">
-        <v>24809.5958</v>
+        <v>324.6859</v>
       </c>
       <c r="G117" t="n">
-        <v>-3875835.2938</v>
+        <v>-5114883.562499996</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>12</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4747,40 +4765,39 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.82</v>
+        <v>11.74</v>
       </c>
       <c r="C118" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="D118" t="n">
-        <v>11.82</v>
+        <v>11.85</v>
       </c>
       <c r="E118" t="n">
-        <v>11.82</v>
+        <v>11.64</v>
       </c>
       <c r="F118" t="n">
-        <v>42571.8414</v>
+        <v>5178.0299</v>
       </c>
       <c r="G118" t="n">
-        <v>-3918407.1352</v>
+        <v>-5114883.562499996</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>12</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4790,40 +4807,39 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="C119" t="n">
-        <v>11.71</v>
+        <v>11.84</v>
       </c>
       <c r="D119" t="n">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="E119" t="n">
-        <v>11.71</v>
+        <v>11.84</v>
       </c>
       <c r="F119" t="n">
-        <v>11610.1733</v>
+        <v>100</v>
       </c>
       <c r="G119" t="n">
-        <v>-3930017.3085</v>
+        <v>-5114983.562499996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>11.82</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4833,40 +4849,39 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.94</v>
+        <v>11.8</v>
       </c>
       <c r="C120" t="n">
-        <v>11.94</v>
+        <v>11.73</v>
       </c>
       <c r="D120" t="n">
-        <v>11.94</v>
+        <v>11.8</v>
       </c>
       <c r="E120" t="n">
-        <v>11.94</v>
+        <v>11.73</v>
       </c>
       <c r="F120" t="n">
-        <v>33743.6337</v>
+        <v>4600</v>
       </c>
       <c r="G120" t="n">
-        <v>-3896273.6748</v>
+        <v>-5119583.562499996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>11.71</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4876,40 +4891,39 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="C121" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="D121" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="E121" t="n">
-        <v>11.94</v>
+        <v>11.84</v>
       </c>
       <c r="F121" t="n">
-        <v>15609.1804</v>
+        <v>336.999</v>
       </c>
       <c r="G121" t="n">
-        <v>-3896273.6748</v>
+        <v>-5119246.563499996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>11.94</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4919,28 +4933,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.94</v>
+        <v>11.73</v>
       </c>
       <c r="C122" t="n">
-        <v>12.17</v>
+        <v>11.84</v>
       </c>
       <c r="D122" t="n">
-        <v>12.17</v>
+        <v>11.84</v>
       </c>
       <c r="E122" t="n">
-        <v>11.94</v>
+        <v>11.73</v>
       </c>
       <c r="F122" t="n">
-        <v>108.0378</v>
+        <v>11318.8262</v>
       </c>
       <c r="G122" t="n">
-        <v>-3896165.637</v>
+        <v>-5119246.563499996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4950,7 +4965,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4960,40 +4975,39 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="C123" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="D123" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="E123" t="n">
-        <v>12.25</v>
+        <v>11.85</v>
       </c>
       <c r="F123" t="n">
-        <v>7000</v>
+        <v>4712.9691</v>
       </c>
       <c r="G123" t="n">
-        <v>-3889165.637</v>
+        <v>-5114533.594399996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>12.17</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5003,28 +5017,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.25</v>
+        <v>11.95</v>
       </c>
       <c r="C124" t="n">
-        <v>12.25</v>
+        <v>12.04</v>
       </c>
       <c r="D124" t="n">
-        <v>12.25</v>
+        <v>12.04</v>
       </c>
       <c r="E124" t="n">
-        <v>12.25</v>
+        <v>11.95</v>
       </c>
       <c r="F124" t="n">
-        <v>40716.6801</v>
+        <v>6059.8485</v>
       </c>
       <c r="G124" t="n">
-        <v>-3889165.637</v>
+        <v>-5108473.745899996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5034,7 +5049,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5044,28 +5059,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.94</v>
+        <v>12.04</v>
       </c>
       <c r="C125" t="n">
-        <v>10.58</v>
+        <v>12.05</v>
       </c>
       <c r="D125" t="n">
-        <v>11.94</v>
+        <v>12.05</v>
       </c>
       <c r="E125" t="n">
-        <v>10.58</v>
+        <v>12.04</v>
       </c>
       <c r="F125" t="n">
-        <v>1502951.7229</v>
+        <v>9757.427100000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-5392117.3599</v>
+        <v>-5098716.318799996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5075,7 +5091,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5085,28 +5101,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.16</v>
+        <v>11.95</v>
       </c>
       <c r="C126" t="n">
-        <v>11.26</v>
+        <v>11.95</v>
       </c>
       <c r="D126" t="n">
-        <v>11.26</v>
+        <v>11.95</v>
       </c>
       <c r="E126" t="n">
-        <v>11.15</v>
+        <v>11.95</v>
       </c>
       <c r="F126" t="n">
-        <v>240300.0531</v>
+        <v>3872.5398</v>
       </c>
       <c r="G126" t="n">
-        <v>-5151817.306799999</v>
+        <v>-5102588.858599996</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5116,7 +5133,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5126,40 +5143,39 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.8</v>
+        <v>12.05</v>
       </c>
       <c r="C127" t="n">
-        <v>11.7</v>
+        <v>12.05</v>
       </c>
       <c r="D127" t="n">
-        <v>11.8</v>
+        <v>12.05</v>
       </c>
       <c r="E127" t="n">
-        <v>11.7</v>
+        <v>12.05</v>
       </c>
       <c r="F127" t="n">
-        <v>1011.7675</v>
+        <v>277.2945</v>
       </c>
       <c r="G127" t="n">
-        <v>-5150805.539299999</v>
+        <v>-5102311.564099996</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>11.26</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5169,40 +5185,39 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.7</v>
+        <v>12.05</v>
       </c>
       <c r="C128" t="n">
-        <v>11.79</v>
+        <v>12.15</v>
       </c>
       <c r="D128" t="n">
-        <v>11.79</v>
+        <v>12.15</v>
       </c>
       <c r="E128" t="n">
-        <v>11.7</v>
+        <v>12.05</v>
       </c>
       <c r="F128" t="n">
-        <v>69987.679</v>
+        <v>13280.3553</v>
       </c>
       <c r="G128" t="n">
-        <v>-5080817.860299999</v>
+        <v>-5089031.208799996</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5212,28 +5227,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.79</v>
+        <v>12.05</v>
       </c>
       <c r="C129" t="n">
-        <v>11.69</v>
+        <v>12.12</v>
       </c>
       <c r="D129" t="n">
-        <v>11.79</v>
+        <v>12.12</v>
       </c>
       <c r="E129" t="n">
-        <v>11.69</v>
+        <v>12.05</v>
       </c>
       <c r="F129" t="n">
-        <v>24239.2516</v>
+        <v>18285.8341</v>
       </c>
       <c r="G129" t="n">
-        <v>-5105057.111899999</v>
+        <v>-5107317.042899996</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5243,7 +5259,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5253,28 +5269,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.61</v>
+        <v>12.12</v>
       </c>
       <c r="C130" t="n">
-        <v>11.68</v>
+        <v>12.12</v>
       </c>
       <c r="D130" t="n">
-        <v>11.68</v>
+        <v>12.12</v>
       </c>
       <c r="E130" t="n">
-        <v>11.03</v>
+        <v>12.12</v>
       </c>
       <c r="F130" t="n">
-        <v>25736.6992</v>
+        <v>3818.3594</v>
       </c>
       <c r="G130" t="n">
-        <v>-5130793.811099999</v>
+        <v>-5107317.042899996</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5284,7 +5301,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5294,40 +5311,39 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.47</v>
+        <v>12.12</v>
       </c>
       <c r="C131" t="n">
-        <v>11.47</v>
+        <v>12.42</v>
       </c>
       <c r="D131" t="n">
-        <v>11.47</v>
+        <v>12.42</v>
       </c>
       <c r="E131" t="n">
-        <v>11.47</v>
+        <v>12.12</v>
       </c>
       <c r="F131" t="n">
-        <v>361.8958</v>
+        <v>202058.24</v>
       </c>
       <c r="G131" t="n">
-        <v>-5131155.706899999</v>
+        <v>-4905258.802899996</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>11.68</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5337,40 +5353,39 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.48</v>
+        <v>12.33</v>
       </c>
       <c r="C132" t="n">
-        <v>11.48</v>
+        <v>12.22</v>
       </c>
       <c r="D132" t="n">
-        <v>11.48</v>
+        <v>12.33</v>
       </c>
       <c r="E132" t="n">
-        <v>11.48</v>
+        <v>12.21</v>
       </c>
       <c r="F132" t="n">
-        <v>195.1267</v>
+        <v>29532.6065</v>
       </c>
       <c r="G132" t="n">
-        <v>-5130960.580199999</v>
+        <v>-4934791.409399996</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>11.47</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5380,40 +5395,39 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>11.48</v>
+        <v>12.17</v>
       </c>
       <c r="C133" t="n">
-        <v>11.48</v>
+        <v>12.27</v>
       </c>
       <c r="D133" t="n">
-        <v>11.48</v>
+        <v>12.27</v>
       </c>
       <c r="E133" t="n">
-        <v>11.48</v>
+        <v>12.17</v>
       </c>
       <c r="F133" t="n">
-        <v>3644.8733</v>
+        <v>3639.4894</v>
       </c>
       <c r="G133" t="n">
-        <v>-5130960.580199999</v>
+        <v>-4931151.919999995</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5423,40 +5437,39 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>11.48</v>
+        <v>12.14</v>
       </c>
       <c r="C134" t="n">
-        <v>11.48</v>
+        <v>12.16</v>
       </c>
       <c r="D134" t="n">
-        <v>11.48</v>
+        <v>12.16</v>
       </c>
       <c r="E134" t="n">
-        <v>11.48</v>
+        <v>12.12</v>
       </c>
       <c r="F134" t="n">
-        <v>277.2708</v>
+        <v>115190.5595</v>
       </c>
       <c r="G134" t="n">
-        <v>-5130960.580199999</v>
+        <v>-5046342.479499996</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5466,40 +5479,39 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.48</v>
+        <v>12.32</v>
       </c>
       <c r="C135" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F135" t="n">
+        <v>124545.215</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4921797.264499996</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
         <v>11.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="E135" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>30339.3992</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-5161299.979399999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K135" t="n">
-        <v>11.9</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5509,1754 +5521,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="C136" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D136" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E136" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="F136" t="n">
-        <v>697.885</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-5161997.864399998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C137" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D137" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E137" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F137" t="n">
-        <v>61661.432</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-5161997.864399998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C138" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D138" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E138" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F138" t="n">
-        <v>156.7173</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-5161841.147099999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="K138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C139" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D139" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E139" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F139" t="n">
-        <v>55359.3171</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F140" t="n">
-        <v>43368.2511</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D141" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E141" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F141" t="n">
-        <v>46384.2511</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-5170816.213099998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="C142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E142" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="F142" t="n">
-        <v>8994.690000000001</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-5161821.523099998</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K142" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C143" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D143" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E143" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F143" t="n">
-        <v>131077.1557</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K143" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C144" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D144" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E144" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F144" t="n">
-        <v>25353.6061</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K144" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E145" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F145" t="n">
-        <v>23668.5453</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F146" t="n">
-        <v>183.607</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E147" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F147" t="n">
-        <v>87559.1038</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-5094634.925899997</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F148" t="n">
-        <v>155.5691</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-5094479.356799997</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12</v>
-      </c>
-      <c r="F149" t="n">
-        <v>9754.5304</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>12</v>
-      </c>
-      <c r="C150" t="n">
-        <v>12</v>
-      </c>
-      <c r="D150" t="n">
-        <v>12</v>
-      </c>
-      <c r="E150" t="n">
-        <v>12</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2875.9046</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C151" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D151" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E151" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16425.8273</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5120659.714499997</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C152" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D152" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E152" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F152" t="n">
-        <v>37974.5311</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-5082685.183399997</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C153" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D153" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E153" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F153" t="n">
-        <v>21251.77</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-5103936.953399996</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C154" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D154" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F154" t="n">
-        <v>566.6808</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-5103370.272599996</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C155" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D155" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E155" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F155" t="n">
-        <v>763.2024</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-5104133.474999996</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1195.0861</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-5105328.561099996</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F157" t="n">
-        <v>79.7107</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-5105248.850399996</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F158" t="n">
-        <v>9959.397999999999</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-5115208.248399996</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C159" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F159" t="n">
-        <v>324.6859</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C160" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D160" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F160" t="n">
-        <v>5178.0299</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F161" t="n">
-        <v>100</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-5114983.562499996</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F162" t="n">
-        <v>4600</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-5119583.562499996</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F163" t="n">
-        <v>336.999</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F164" t="n">
-        <v>11318.8262</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F165" t="n">
-        <v>4712.9691</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-5114533.594399996</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C166" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D166" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F166" t="n">
-        <v>6059.8485</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-5108473.745899996</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K166" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="C167" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D167" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E167" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F167" t="n">
-        <v>9757.427100000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-5098716.318799996</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="K167" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3872.5398</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-5102588.858599996</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="K168" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C169" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D169" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E169" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F169" t="n">
-        <v>277.2945</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-5102311.564099996</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K169" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C170" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D170" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E170" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F170" t="n">
-        <v>13280.3553</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-5089031.208799996</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C171" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E171" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18285.8341</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C172" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D172" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E172" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3818.3594</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C173" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="D173" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="E173" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F173" t="n">
-        <v>202058.24</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-4905258.802899996</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K173" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="C174" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D174" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="E174" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F174" t="n">
-        <v>29532.6065</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-4934791.409399996</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C175" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="D175" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="E175" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F175" t="n">
-        <v>3639.4894</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-4931151.919999995</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C176" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D176" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E176" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F176" t="n">
-        <v>115190.5595</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-5046342.479499996</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="C177" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D177" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="E177" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F177" t="n">
-        <v>124545.215</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-4921797.264499996</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.33</v>
+        <v>12.13</v>
       </c>
       <c r="C2" t="n">
-        <v>12.33</v>
+        <v>12.13</v>
       </c>
       <c r="D2" t="n">
-        <v>12.33</v>
+        <v>12.13</v>
       </c>
       <c r="E2" t="n">
-        <v>12.33</v>
+        <v>12.13</v>
       </c>
       <c r="F2" t="n">
-        <v>39.3508</v>
+        <v>106636.3012</v>
       </c>
       <c r="G2" t="n">
-        <v>-1783882.0546</v>
+        <v>-871192.7583000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="C3" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="D3" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="E3" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="F3" t="n">
-        <v>5957.9032</v>
+        <v>2466.9982</v>
       </c>
       <c r="G3" t="n">
-        <v>-1789839.9578</v>
+        <v>-871192.7583000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>100000</v>
+        <v>17065.0756</v>
       </c>
       <c r="G4" t="n">
-        <v>-1789839.9578</v>
+        <v>-888257.8339000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.12</v>
+        <v>12.1</v>
       </c>
       <c r="C5" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="D5" t="n">
-        <v>12.12</v>
+        <v>12.13</v>
       </c>
       <c r="E5" t="n">
-        <v>12.12</v>
+        <v>12.04</v>
       </c>
       <c r="F5" t="n">
-        <v>54.1188</v>
+        <v>71955.4452</v>
       </c>
       <c r="G5" t="n">
-        <v>-1789894.0766</v>
+        <v>-816302.3887000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="C6" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="D6" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="E6" t="n">
-        <v>12.28</v>
+        <v>12.13</v>
       </c>
       <c r="F6" t="n">
-        <v>54.1188</v>
+        <v>88.8888</v>
       </c>
       <c r="G6" t="n">
-        <v>-1789839.9578</v>
+        <v>-816302.3887000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="C7" t="n">
-        <v>12.11</v>
+        <v>12.13</v>
       </c>
       <c r="D7" t="n">
-        <v>12.11</v>
+        <v>12.13</v>
       </c>
       <c r="E7" t="n">
-        <v>12.11</v>
+        <v>12.12</v>
       </c>
       <c r="F7" t="n">
-        <v>4465</v>
+        <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>-1794304.9578</v>
+        <v>-816302.3887000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.28</v>
+        <v>12.09</v>
       </c>
       <c r="C8" t="n">
-        <v>12.28</v>
+        <v>12.09</v>
       </c>
       <c r="D8" t="n">
-        <v>12.28</v>
+        <v>12.09</v>
       </c>
       <c r="E8" t="n">
-        <v>12.28</v>
+        <v>12.09</v>
       </c>
       <c r="F8" t="n">
-        <v>234.7851</v>
+        <v>9801.611999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-1794070.1727</v>
+        <v>-826104.0007000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="C9" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="D9" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="E9" t="n">
-        <v>12.12</v>
+        <v>12.09</v>
       </c>
       <c r="F9" t="n">
-        <v>46181.7172</v>
+        <v>45.959</v>
       </c>
       <c r="G9" t="n">
-        <v>-1840251.8899</v>
+        <v>-826104.0007000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.12</v>
+        <v>12.04</v>
       </c>
       <c r="C10" t="n">
-        <v>12.12</v>
+        <v>12.04</v>
       </c>
       <c r="D10" t="n">
-        <v>12.12</v>
+        <v>12.04</v>
       </c>
       <c r="E10" t="n">
-        <v>12.12</v>
+        <v>12.03</v>
       </c>
       <c r="F10" t="n">
-        <v>35097.8689</v>
+        <v>22255.3138</v>
       </c>
       <c r="G10" t="n">
-        <v>-1840251.8899</v>
+        <v>-848359.3145000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="C11" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="D11" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="E11" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="F11" t="n">
-        <v>2760.4267</v>
+        <v>44.4444</v>
       </c>
       <c r="G11" t="n">
-        <v>-1843012.3166</v>
+        <v>-848359.3145000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="C12" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="D12" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="E12" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="F12" t="n">
-        <v>137002.0441</v>
+        <v>8936.4354</v>
       </c>
       <c r="G12" t="n">
-        <v>-1843012.3166</v>
+        <v>-848359.3145000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.11</v>
+        <v>12.09</v>
       </c>
       <c r="C13" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="D13" t="n">
-        <v>12.11</v>
+        <v>12.09</v>
       </c>
       <c r="E13" t="n">
-        <v>12.11</v>
+        <v>12.04</v>
       </c>
       <c r="F13" t="n">
-        <v>5927.6408</v>
+        <v>23942.589</v>
       </c>
       <c r="G13" t="n">
-        <v>-1843012.3166</v>
+        <v>-848359.3145000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.11</v>
+        <v>12.13</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1</v>
+        <v>12.15</v>
       </c>
       <c r="D14" t="n">
-        <v>12.11</v>
+        <v>12.15</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1</v>
+        <v>12.13</v>
       </c>
       <c r="F14" t="n">
-        <v>71028.10890000001</v>
+        <v>10607.7651</v>
       </c>
       <c r="G14" t="n">
-        <v>-1914040.4255</v>
+        <v>-837751.5494000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>2676.2278</v>
+        <v>13988.8802</v>
       </c>
       <c r="G15" t="n">
-        <v>-1914040.4255</v>
+        <v>-823762.6692000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -954,16 +954,16 @@
         <v>12.2</v>
       </c>
       <c r="F16" t="n">
-        <v>78054.9298</v>
+        <v>2644.159</v>
       </c>
       <c r="G16" t="n">
-        <v>-1835985.4957</v>
+        <v>-823762.6692000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="C17" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="D17" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="E17" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>12600</v>
+        <v>8194.7628</v>
       </c>
       <c r="G17" t="n">
-        <v>-1848585.4957</v>
+        <v>-823762.6692000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="C18" t="n">
-        <v>12.14</v>
+        <v>12.25</v>
       </c>
       <c r="D18" t="n">
-        <v>12.14</v>
+        <v>12.25</v>
       </c>
       <c r="E18" t="n">
-        <v>12.14</v>
+        <v>12.2</v>
       </c>
       <c r="F18" t="n">
-        <v>3072.7217</v>
+        <v>58537.0684</v>
       </c>
       <c r="G18" t="n">
-        <v>-1848585.4957</v>
+        <v>-765225.6008000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="C19" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="D19" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="E19" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="F19" t="n">
-        <v>88505.2577</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>-1760080.238</v>
+        <v>-765185.6008000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="C20" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="D20" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="E20" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="F20" t="n">
-        <v>61247.7437</v>
+        <v>95.03270000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-1760080.238</v>
+        <v>-765185.6008000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="C21" t="n">
-        <v>12.2</v>
+        <v>12.59</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2</v>
+        <v>12.59</v>
       </c>
       <c r="E21" t="n">
-        <v>12.2</v>
+        <v>12.58</v>
       </c>
       <c r="F21" t="n">
-        <v>10383.718</v>
+        <v>53968.946</v>
       </c>
       <c r="G21" t="n">
-        <v>-1760080.238</v>
+        <v>-711216.6548000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.2</v>
+        <v>12.67</v>
       </c>
       <c r="C22" t="n">
-        <v>11.98</v>
+        <v>12.67</v>
       </c>
       <c r="D22" t="n">
-        <v>12.2</v>
+        <v>12.67</v>
       </c>
       <c r="E22" t="n">
-        <v>11.98</v>
+        <v>12.67</v>
       </c>
       <c r="F22" t="n">
-        <v>600161.525</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>-2360241.763</v>
+        <v>-711176.6548000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.99</v>
+        <v>12.59</v>
       </c>
       <c r="C23" t="n">
-        <v>11.98</v>
+        <v>12.8</v>
       </c>
       <c r="D23" t="n">
-        <v>11.99</v>
+        <v>12.8</v>
       </c>
       <c r="E23" t="n">
-        <v>11.98</v>
+        <v>12.59</v>
       </c>
       <c r="F23" t="n">
-        <v>25691.3811</v>
+        <v>54761.9383</v>
       </c>
       <c r="G23" t="n">
-        <v>-2360241.763</v>
+        <v>-656414.7165000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.98</v>
+        <v>12.59</v>
       </c>
       <c r="C24" t="n">
-        <v>11.98</v>
+        <v>12.58</v>
       </c>
       <c r="D24" t="n">
-        <v>11.98</v>
+        <v>12.59</v>
       </c>
       <c r="E24" t="n">
-        <v>11.98</v>
+        <v>12.58</v>
       </c>
       <c r="F24" t="n">
-        <v>24332.8476</v>
+        <v>28685.5984</v>
       </c>
       <c r="G24" t="n">
-        <v>-2360241.763</v>
+        <v>-685100.3149000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.99</v>
+        <v>12.8</v>
       </c>
       <c r="C25" t="n">
-        <v>11.98</v>
+        <v>12.41</v>
       </c>
       <c r="D25" t="n">
-        <v>11.99</v>
+        <v>12.8</v>
       </c>
       <c r="E25" t="n">
-        <v>11.98</v>
+        <v>12.41</v>
       </c>
       <c r="F25" t="n">
-        <v>47523.0173</v>
+        <v>24418.1913</v>
       </c>
       <c r="G25" t="n">
-        <v>-2360241.763</v>
+        <v>-709518.5062000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.27</v>
+        <v>12.8</v>
       </c>
       <c r="C26" t="n">
-        <v>12.27</v>
+        <v>12.8</v>
       </c>
       <c r="D26" t="n">
-        <v>12.27</v>
+        <v>12.8</v>
       </c>
       <c r="E26" t="n">
-        <v>12.27</v>
+        <v>12.8</v>
       </c>
       <c r="F26" t="n">
-        <v>8957.720499999999</v>
+        <v>197.1459</v>
       </c>
       <c r="G26" t="n">
-        <v>-2351284.0425</v>
+        <v>-709321.3603000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>12.52</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>12.52</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>12.52</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>12.52</v>
       </c>
       <c r="F27" t="n">
-        <v>90293.7329</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>-2441577.775400001</v>
+        <v>-713321.3603000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.04</v>
+        <v>12.52</v>
       </c>
       <c r="C28" t="n">
-        <v>12.02</v>
+        <v>12.5</v>
       </c>
       <c r="D28" t="n">
-        <v>12.04</v>
+        <v>12.52</v>
       </c>
       <c r="E28" t="n">
-        <v>12.02</v>
+        <v>12.5</v>
       </c>
       <c r="F28" t="n">
-        <v>81350.9204</v>
+        <v>123426.1666</v>
       </c>
       <c r="G28" t="n">
-        <v>-2360226.855</v>
+        <v>-836747.5269000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.03</v>
+        <v>12.45</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>12.45</v>
       </c>
       <c r="D29" t="n">
-        <v>12.03</v>
+        <v>12.45</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>12.45</v>
       </c>
       <c r="F29" t="n">
-        <v>301188.7833</v>
+        <v>26337.8693</v>
       </c>
       <c r="G29" t="n">
-        <v>-2661415.638300001</v>
+        <v>-863085.3962000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="C30" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="D30" t="n">
-        <v>11.91</v>
+        <v>12.7</v>
       </c>
       <c r="E30" t="n">
-        <v>11.9</v>
+        <v>12.7</v>
       </c>
       <c r="F30" t="n">
-        <v>34029.3263</v>
+        <v>178.8721</v>
       </c>
       <c r="G30" t="n">
-        <v>-2695444.964600001</v>
+        <v>-862906.5241</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>12.45</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>12.45</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1972.1157</v>
+        <v>26365.5739</v>
       </c>
       <c r="G31" t="n">
-        <v>-2693472.848900001</v>
+        <v>-889272.098</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="E32" t="n">
-        <v>12</v>
+        <v>12.66</v>
       </c>
       <c r="F32" t="n">
-        <v>77485.9034</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>-2693472.848900001</v>
+        <v>-839272.098</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="C33" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="D33" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="E33" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="F33" t="n">
-        <v>177710.2405</v>
+        <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>-2871183.0894</v>
+        <v>-841272.098</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.96</v>
+        <v>12.64</v>
       </c>
       <c r="C34" t="n">
-        <v>11.96</v>
+        <v>12.45</v>
       </c>
       <c r="D34" t="n">
-        <v>11.96</v>
+        <v>12.64</v>
       </c>
       <c r="E34" t="n">
-        <v>11.96</v>
+        <v>12.45</v>
       </c>
       <c r="F34" t="n">
-        <v>50534.0918</v>
+        <v>66762.6409</v>
       </c>
       <c r="G34" t="n">
-        <v>-2820648.9976</v>
+        <v>-908034.7389</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.96</v>
+        <v>12.57</v>
       </c>
       <c r="C35" t="n">
-        <v>11.96</v>
+        <v>12.57</v>
       </c>
       <c r="D35" t="n">
-        <v>11.96</v>
+        <v>12.57</v>
       </c>
       <c r="E35" t="n">
-        <v>11.96</v>
+        <v>12.57</v>
       </c>
       <c r="F35" t="n">
-        <v>104611.457</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>-2820648.9976</v>
+        <v>-903034.7389</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.99</v>
+        <v>12.42</v>
       </c>
       <c r="C36" t="n">
-        <v>11.99</v>
+        <v>12.19</v>
       </c>
       <c r="D36" t="n">
-        <v>11.99</v>
+        <v>12.42</v>
       </c>
       <c r="E36" t="n">
-        <v>11.99</v>
+        <v>12.19</v>
       </c>
       <c r="F36" t="n">
-        <v>993.0955</v>
+        <v>221.7776</v>
       </c>
       <c r="G36" t="n">
-        <v>-2819655.902100001</v>
+        <v>-903256.5165</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.02</v>
+        <v>12.19</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="D37" t="n">
-        <v>12.02</v>
+        <v>12.19</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.19</v>
       </c>
       <c r="F37" t="n">
-        <v>108027.1532</v>
+        <v>1037.525</v>
       </c>
       <c r="G37" t="n">
-        <v>-2711628.7489</v>
+        <v>-903256.5165</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.91</v>
+        <v>12.42</v>
       </c>
       <c r="C38" t="n">
-        <v>11.91</v>
+        <v>12.42</v>
       </c>
       <c r="D38" t="n">
-        <v>11.91</v>
+        <v>12.42</v>
       </c>
       <c r="E38" t="n">
-        <v>11.91</v>
+        <v>12.42</v>
       </c>
       <c r="F38" t="n">
-        <v>24258.3268</v>
+        <v>656.6274</v>
       </c>
       <c r="G38" t="n">
-        <v>-2735887.0757</v>
+        <v>-902599.8891</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.99</v>
+        <v>12.22</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>12.22</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>12.22</v>
       </c>
       <c r="E39" t="n">
-        <v>11.99</v>
+        <v>12.22</v>
       </c>
       <c r="F39" t="n">
-        <v>79442.576</v>
+        <v>1037.525</v>
       </c>
       <c r="G39" t="n">
-        <v>-2656444.499700001</v>
+        <v>-903637.4141000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.93</v>
+        <v>12.39</v>
       </c>
       <c r="C40" t="n">
-        <v>11.84</v>
+        <v>12.39</v>
       </c>
       <c r="D40" t="n">
-        <v>11.93</v>
+        <v>12.39</v>
       </c>
       <c r="E40" t="n">
-        <v>11.84</v>
+        <v>12.39</v>
       </c>
       <c r="F40" t="n">
-        <v>159213.5066</v>
+        <v>443.0016</v>
       </c>
       <c r="G40" t="n">
-        <v>-2815658.0063</v>
+        <v>-903194.4125000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="C41" t="n">
-        <v>11.84</v>
+        <v>12.18</v>
       </c>
       <c r="D41" t="n">
-        <v>11.85</v>
+        <v>12.19</v>
       </c>
       <c r="E41" t="n">
-        <v>11.84</v>
+        <v>12.18</v>
       </c>
       <c r="F41" t="n">
-        <v>88505.2577</v>
+        <v>114521.3598</v>
       </c>
       <c r="G41" t="n">
-        <v>-2815658.0063</v>
+        <v>-1017715.7723</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="C42" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="D42" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="E42" t="n">
-        <v>11.99</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2815608.0063</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="C43" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="D43" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="E43" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="F43" t="n">
-        <v>204</v>
+        <v>31561.1501</v>
       </c>
       <c r="G43" t="n">
-        <v>-2815812.0063</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="C44" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="D44" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="E44" t="n">
-        <v>11.85</v>
+        <v>12.2</v>
       </c>
       <c r="F44" t="n">
-        <v>15349.7322</v>
+        <v>82960.20970000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-2815812.0063</v>
+        <v>-1012715.7723</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.84</v>
+        <v>12.41</v>
       </c>
       <c r="C45" t="n">
-        <v>11.84</v>
+        <v>12.41</v>
       </c>
       <c r="D45" t="n">
-        <v>11.84</v>
+        <v>12.41</v>
       </c>
       <c r="E45" t="n">
-        <v>11.84</v>
+        <v>12.41</v>
       </c>
       <c r="F45" t="n">
-        <v>163.4006</v>
+        <v>128.5312</v>
       </c>
       <c r="G45" t="n">
-        <v>-2815975.4069</v>
+        <v>-1012587.2411</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.99</v>
+        <v>12.42</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>12.42</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>12.42</v>
       </c>
       <c r="E46" t="n">
-        <v>11.99</v>
+        <v>12.42</v>
       </c>
       <c r="F46" t="n">
-        <v>7500</v>
+        <v>74.65689999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-2808475.4069</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.85</v>
+        <v>12.42</v>
       </c>
       <c r="C47" t="n">
-        <v>11.85</v>
+        <v>12.42</v>
       </c>
       <c r="D47" t="n">
-        <v>11.85</v>
+        <v>12.42</v>
       </c>
       <c r="E47" t="n">
-        <v>11.85</v>
+        <v>12.42</v>
       </c>
       <c r="F47" t="n">
-        <v>59.6658</v>
+        <v>106889.7297</v>
       </c>
       <c r="G47" t="n">
-        <v>-2808535.0727</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.89</v>
+        <v>12.42</v>
       </c>
       <c r="C48" t="n">
-        <v>11.89</v>
+        <v>12.42</v>
       </c>
       <c r="D48" t="n">
-        <v>11.89</v>
+        <v>12.42</v>
       </c>
       <c r="E48" t="n">
-        <v>11.89</v>
+        <v>12.42</v>
       </c>
       <c r="F48" t="n">
-        <v>66583.7424</v>
+        <v>669.9828</v>
       </c>
       <c r="G48" t="n">
-        <v>-2741951.3303</v>
+        <v>-1012512.5842</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.89</v>
+        <v>12.41</v>
       </c>
       <c r="C49" t="n">
-        <v>11.89</v>
+        <v>12.41</v>
       </c>
       <c r="D49" t="n">
-        <v>11.89</v>
+        <v>12.41</v>
       </c>
       <c r="E49" t="n">
-        <v>11.89</v>
+        <v>12.41</v>
       </c>
       <c r="F49" t="n">
-        <v>80386.3579</v>
+        <v>120.6194</v>
       </c>
       <c r="G49" t="n">
-        <v>-2741951.3303</v>
+        <v>-1012633.2036</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.88</v>
+        <v>12.21</v>
       </c>
       <c r="C50" t="n">
-        <v>11.9</v>
+        <v>12.18</v>
       </c>
       <c r="D50" t="n">
-        <v>11.9</v>
+        <v>12.21</v>
       </c>
       <c r="E50" t="n">
-        <v>11.88</v>
+        <v>12.18</v>
       </c>
       <c r="F50" t="n">
-        <v>80364.5981</v>
+        <v>67235.1949</v>
       </c>
       <c r="G50" t="n">
-        <v>-2661586.7322</v>
+        <v>-1079868.3985</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.98</v>
+        <v>12.18</v>
       </c>
       <c r="C51" t="n">
-        <v>11.98</v>
+        <v>12.08</v>
       </c>
       <c r="D51" t="n">
-        <v>11.98</v>
+        <v>12.18</v>
       </c>
       <c r="E51" t="n">
-        <v>11.98</v>
+        <v>12.08</v>
       </c>
       <c r="F51" t="n">
-        <v>59.6658</v>
+        <v>99426.899</v>
       </c>
       <c r="G51" t="n">
-        <v>-2661527.0664</v>
+        <v>-1179295.2975</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="F52" t="n">
-        <v>117.5964</v>
+        <v>13076.9073</v>
       </c>
       <c r="G52" t="n">
-        <v>-2661409.47</v>
+        <v>-1166218.3902</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.85</v>
+        <v>12.16</v>
       </c>
       <c r="C53" t="n">
-        <v>11.84</v>
+        <v>12.16</v>
       </c>
       <c r="D53" t="n">
-        <v>11.85</v>
+        <v>12.16</v>
       </c>
       <c r="E53" t="n">
-        <v>11.84</v>
+        <v>12.16</v>
       </c>
       <c r="F53" t="n">
-        <v>62550.3375</v>
+        <v>4520.7984</v>
       </c>
       <c r="G53" t="n">
-        <v>-2723959.8075</v>
+        <v>-1161697.5918</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.84</v>
+        <v>12.37</v>
       </c>
       <c r="C54" t="n">
-        <v>11.84</v>
+        <v>12.37</v>
       </c>
       <c r="D54" t="n">
-        <v>11.84</v>
+        <v>12.37</v>
       </c>
       <c r="E54" t="n">
-        <v>11.84</v>
+        <v>12.37</v>
       </c>
       <c r="F54" t="n">
-        <v>100400.6755</v>
+        <v>46.4731</v>
       </c>
       <c r="G54" t="n">
-        <v>-2723959.8075</v>
+        <v>-1161651.1187</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.83</v>
+        <v>12.37</v>
       </c>
       <c r="C55" t="n">
-        <v>11.8</v>
+        <v>12.37</v>
       </c>
       <c r="D55" t="n">
-        <v>11.98</v>
+        <v>12.37</v>
       </c>
       <c r="E55" t="n">
-        <v>11.8</v>
+        <v>12.37</v>
       </c>
       <c r="F55" t="n">
-        <v>213722.9407</v>
+        <v>51.8082</v>
       </c>
       <c r="G55" t="n">
-        <v>-2937682.7482</v>
+        <v>-1161651.1187</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.8</v>
+        <v>12.42</v>
       </c>
       <c r="C56" t="n">
-        <v>11.8</v>
+        <v>12.42</v>
       </c>
       <c r="D56" t="n">
-        <v>11.8</v>
+        <v>12.42</v>
       </c>
       <c r="E56" t="n">
-        <v>11.8</v>
+        <v>12.42</v>
       </c>
       <c r="F56" t="n">
-        <v>319.6504</v>
+        <v>126.2616</v>
       </c>
       <c r="G56" t="n">
-        <v>-2937682.7482</v>
+        <v>-1161524.8571</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.8</v>
+        <v>12.39</v>
       </c>
       <c r="C57" t="n">
-        <v>11.8</v>
+        <v>12.39</v>
       </c>
       <c r="D57" t="n">
-        <v>11.8</v>
+        <v>12.39</v>
       </c>
       <c r="E57" t="n">
-        <v>11.8</v>
+        <v>12.39</v>
       </c>
       <c r="F57" t="n">
-        <v>80845.6156</v>
+        <v>12076.2741</v>
       </c>
       <c r="G57" t="n">
-        <v>-2937682.7482</v>
+        <v>-1173601.1312</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.8</v>
+        <v>12.29</v>
       </c>
       <c r="C58" t="n">
-        <v>11.8</v>
+        <v>12.25</v>
       </c>
       <c r="D58" t="n">
-        <v>11.8</v>
+        <v>12.29</v>
       </c>
       <c r="E58" t="n">
-        <v>11.8</v>
+        <v>12.25</v>
       </c>
       <c r="F58" t="n">
-        <v>239.9133</v>
+        <v>19006.2923</v>
       </c>
       <c r="G58" t="n">
-        <v>-2937682.7482</v>
+        <v>-1192607.4235</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.8</v>
+        <v>12.24</v>
       </c>
       <c r="C59" t="n">
-        <v>11.8</v>
+        <v>12.19</v>
       </c>
       <c r="D59" t="n">
-        <v>11.8</v>
+        <v>12.24</v>
       </c>
       <c r="E59" t="n">
-        <v>11.8</v>
+        <v>12.19</v>
       </c>
       <c r="F59" t="n">
-        <v>1470.9183</v>
+        <v>34013.228</v>
       </c>
       <c r="G59" t="n">
-        <v>-2937682.7482</v>
+        <v>-1226620.6515</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.8</v>
+        <v>12.18</v>
       </c>
       <c r="C60" t="n">
-        <v>11.79</v>
+        <v>12.08</v>
       </c>
       <c r="D60" t="n">
-        <v>11.8</v>
+        <v>12.18</v>
       </c>
       <c r="E60" t="n">
-        <v>11.79</v>
+        <v>12.08</v>
       </c>
       <c r="F60" t="n">
-        <v>196775.0673</v>
+        <v>56980.8978</v>
       </c>
       <c r="G60" t="n">
-        <v>-3134457.8155</v>
+        <v>-1283601.5493</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.95</v>
+        <v>12.09</v>
       </c>
       <c r="C61" t="n">
-        <v>11.97</v>
+        <v>12.09</v>
       </c>
       <c r="D61" t="n">
-        <v>11.97</v>
+        <v>12.09</v>
       </c>
       <c r="E61" t="n">
-        <v>11.95</v>
+        <v>12.09</v>
       </c>
       <c r="F61" t="n">
-        <v>1208.1655</v>
+        <v>7877.7452</v>
       </c>
       <c r="G61" t="n">
-        <v>-3133249.65</v>
+        <v>-1275723.8041</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.97</v>
+        <v>12.12</v>
       </c>
       <c r="C62" t="n">
-        <v>11.97</v>
+        <v>12.08</v>
       </c>
       <c r="D62" t="n">
-        <v>11.97</v>
+        <v>12.12</v>
       </c>
       <c r="E62" t="n">
-        <v>11.97</v>
+        <v>12.08</v>
       </c>
       <c r="F62" t="n">
-        <v>3814.8367</v>
+        <v>77186.2746</v>
       </c>
       <c r="G62" t="n">
-        <v>-3133249.65</v>
+        <v>-1352910.0787</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.95</v>
+        <v>12.11</v>
       </c>
       <c r="C63" t="n">
-        <v>11.95</v>
+        <v>12.29</v>
       </c>
       <c r="D63" t="n">
-        <v>11.95</v>
+        <v>12.29</v>
       </c>
       <c r="E63" t="n">
-        <v>11.95</v>
+        <v>12.11</v>
       </c>
       <c r="F63" t="n">
-        <v>837.6738</v>
+        <v>118.8731</v>
       </c>
       <c r="G63" t="n">
-        <v>-3134087.3238</v>
+        <v>-1352791.2056</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.88</v>
+        <v>12.1</v>
       </c>
       <c r="C64" t="n">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>11.88</v>
+        <v>12.1</v>
       </c>
       <c r="E64" t="n">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>117000</v>
+        <v>1300.5943</v>
       </c>
       <c r="G64" t="n">
-        <v>-3251087.3238</v>
+        <v>-1354091.7999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="C65" t="n">
-        <v>11.97</v>
+        <v>12.29</v>
       </c>
       <c r="D65" t="n">
-        <v>11.97</v>
+        <v>12.29</v>
       </c>
       <c r="E65" t="n">
-        <v>11.97</v>
+        <v>12.1</v>
       </c>
       <c r="F65" t="n">
-        <v>245.5507</v>
+        <v>116.6347</v>
       </c>
       <c r="G65" t="n">
-        <v>-3250841.7731</v>
+        <v>-1353975.1652</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.86</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>11.85</v>
+        <v>12.02</v>
       </c>
       <c r="D66" t="n">
-        <v>11.86</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>11.85</v>
+        <v>12.02</v>
       </c>
       <c r="F66" t="n">
-        <v>90017.0916</v>
+        <v>362947.521</v>
       </c>
       <c r="G66" t="n">
-        <v>-3340858.8647</v>
+        <v>-1716922.6862</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="C67" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="D67" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="E67" t="n">
-        <v>11.85</v>
+        <v>12.03</v>
       </c>
       <c r="F67" t="n">
-        <v>112671.4212</v>
+        <v>732.0805</v>
       </c>
       <c r="G67" t="n">
-        <v>-3340858.8647</v>
+        <v>-1716190.6057</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.97</v>
+        <v>12.03</v>
       </c>
       <c r="C68" t="n">
-        <v>11.97</v>
+        <v>12.02</v>
       </c>
       <c r="D68" t="n">
-        <v>11.97</v>
+        <v>12.03</v>
       </c>
       <c r="E68" t="n">
-        <v>11.97</v>
+        <v>12.02</v>
       </c>
       <c r="F68" t="n">
-        <v>199.7339</v>
+        <v>101825.4142</v>
       </c>
       <c r="G68" t="n">
-        <v>-3340659.1308</v>
+        <v>-1818016.0199</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="C69" t="n">
-        <v>11.81</v>
+        <v>12.28</v>
       </c>
       <c r="D69" t="n">
-        <v>11.85</v>
+        <v>12.28</v>
       </c>
       <c r="E69" t="n">
-        <v>11.81</v>
+        <v>12.28</v>
       </c>
       <c r="F69" t="n">
-        <v>7107.2267</v>
+        <v>222.222</v>
       </c>
       <c r="G69" t="n">
-        <v>-3347766.3575</v>
+        <v>-1817793.7979</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.8</v>
+        <v>12.26</v>
       </c>
       <c r="C70" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="D70" t="n">
-        <v>11.82</v>
+        <v>12.3</v>
       </c>
       <c r="E70" t="n">
-        <v>11.8</v>
+        <v>12.26</v>
       </c>
       <c r="F70" t="n">
-        <v>201890.6452</v>
+        <v>33838.8813</v>
       </c>
       <c r="G70" t="n">
-        <v>-3549657.002700001</v>
+        <v>-1783954.9166</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.84</v>
+        <v>12.33</v>
       </c>
       <c r="C71" t="n">
-        <v>11.84</v>
+        <v>12.33</v>
       </c>
       <c r="D71" t="n">
-        <v>11.84</v>
+        <v>12.33</v>
       </c>
       <c r="E71" t="n">
-        <v>11.84</v>
+        <v>12.33</v>
       </c>
       <c r="F71" t="n">
-        <v>240.6047</v>
+        <v>56.1064</v>
       </c>
       <c r="G71" t="n">
-        <v>-3549416.398000001</v>
+        <v>-1783898.8102</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.79</v>
+        <v>12.36</v>
       </c>
       <c r="C72" t="n">
-        <v>11.66</v>
+        <v>12.36</v>
       </c>
       <c r="D72" t="n">
-        <v>11.79</v>
+        <v>12.36</v>
       </c>
       <c r="E72" t="n">
-        <v>11.66</v>
+        <v>12.36</v>
       </c>
       <c r="F72" t="n">
-        <v>370746.4571</v>
+        <v>56.1064</v>
       </c>
       <c r="G72" t="n">
-        <v>-3920162.8551</v>
+        <v>-1783842.7038</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.96</v>
+        <v>12.33</v>
       </c>
       <c r="C73" t="n">
-        <v>11.96</v>
+        <v>12.33</v>
       </c>
       <c r="D73" t="n">
-        <v>11.96</v>
+        <v>12.33</v>
       </c>
       <c r="E73" t="n">
-        <v>11.96</v>
+        <v>12.33</v>
       </c>
       <c r="F73" t="n">
-        <v>379.9934</v>
+        <v>39.3508</v>
       </c>
       <c r="G73" t="n">
-        <v>-3919782.8617</v>
+        <v>-1783882.0546</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="E74" t="n">
-        <v>11.96</v>
+        <v>12.28</v>
       </c>
       <c r="F74" t="n">
-        <v>43947.5679</v>
+        <v>5957.9032</v>
       </c>
       <c r="G74" t="n">
-        <v>-3875835.2938</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>12.28</v>
       </c>
       <c r="F75" t="n">
-        <v>24809.5958</v>
+        <v>100000</v>
       </c>
       <c r="G75" t="n">
-        <v>-3875835.2938</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.82</v>
+        <v>12.12</v>
       </c>
       <c r="C76" t="n">
-        <v>11.82</v>
+        <v>12.12</v>
       </c>
       <c r="D76" t="n">
-        <v>11.82</v>
+        <v>12.12</v>
       </c>
       <c r="E76" t="n">
-        <v>11.82</v>
+        <v>12.12</v>
       </c>
       <c r="F76" t="n">
-        <v>42571.8414</v>
+        <v>54.1188</v>
       </c>
       <c r="G76" t="n">
-        <v>-3918407.1352</v>
+        <v>-1789894.0766</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.81</v>
+        <v>12.28</v>
       </c>
       <c r="C77" t="n">
-        <v>11.71</v>
+        <v>12.28</v>
       </c>
       <c r="D77" t="n">
-        <v>11.81</v>
+        <v>12.28</v>
       </c>
       <c r="E77" t="n">
-        <v>11.71</v>
+        <v>12.28</v>
       </c>
       <c r="F77" t="n">
-        <v>11610.1733</v>
+        <v>54.1188</v>
       </c>
       <c r="G77" t="n">
-        <v>-3930017.3085</v>
+        <v>-1789839.9578</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="C78" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="D78" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="E78" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="F78" t="n">
-        <v>33743.6337</v>
+        <v>4465</v>
       </c>
       <c r="G78" t="n">
-        <v>-3896273.6748</v>
+        <v>-1794304.9578</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.94</v>
+        <v>12.28</v>
       </c>
       <c r="C79" t="n">
-        <v>11.94</v>
+        <v>12.28</v>
       </c>
       <c r="D79" t="n">
-        <v>11.94</v>
+        <v>12.28</v>
       </c>
       <c r="E79" t="n">
-        <v>11.94</v>
+        <v>12.28</v>
       </c>
       <c r="F79" t="n">
-        <v>15609.1804</v>
+        <v>234.7851</v>
       </c>
       <c r="G79" t="n">
-        <v>-3896273.6748</v>
+        <v>-1794070.1727</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="C80" t="n">
-        <v>12.17</v>
+        <v>12.12</v>
       </c>
       <c r="D80" t="n">
-        <v>12.17</v>
+        <v>12.12</v>
       </c>
       <c r="E80" t="n">
-        <v>11.94</v>
+        <v>12.12</v>
       </c>
       <c r="F80" t="n">
-        <v>108.0378</v>
+        <v>46181.7172</v>
       </c>
       <c r="G80" t="n">
-        <v>-3896165.637</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="C81" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="D81" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="E81" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="F81" t="n">
-        <v>7000</v>
+        <v>35097.8689</v>
       </c>
       <c r="G81" t="n">
-        <v>-3889165.637</v>
+        <v>-1840251.8899</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="C82" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="D82" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="E82" t="n">
-        <v>12.25</v>
+        <v>12.11</v>
       </c>
       <c r="F82" t="n">
-        <v>40716.6801</v>
+        <v>2760.4267</v>
       </c>
       <c r="G82" t="n">
-        <v>-3889165.637</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="C83" t="n">
-        <v>10.58</v>
+        <v>12.11</v>
       </c>
       <c r="D83" t="n">
-        <v>11.94</v>
+        <v>12.11</v>
       </c>
       <c r="E83" t="n">
-        <v>10.58</v>
+        <v>12.11</v>
       </c>
       <c r="F83" t="n">
-        <v>1502951.7229</v>
+        <v>137002.0441</v>
       </c>
       <c r="G83" t="n">
-        <v>-5392117.3599</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.16</v>
+        <v>12.11</v>
       </c>
       <c r="C84" t="n">
-        <v>11.26</v>
+        <v>12.11</v>
       </c>
       <c r="D84" t="n">
-        <v>11.26</v>
+        <v>12.11</v>
       </c>
       <c r="E84" t="n">
-        <v>11.15</v>
+        <v>12.11</v>
       </c>
       <c r="F84" t="n">
-        <v>240300.0531</v>
+        <v>5927.6408</v>
       </c>
       <c r="G84" t="n">
-        <v>-5151817.306799999</v>
+        <v>-1843012.3166</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.8</v>
+        <v>12.11</v>
       </c>
       <c r="C85" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D85" t="n">
-        <v>11.8</v>
+        <v>12.11</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1011.7675</v>
+        <v>71028.10890000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-5150805.539299999</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C86" t="n">
-        <v>11.79</v>
+        <v>12.1</v>
       </c>
       <c r="D86" t="n">
-        <v>11.79</v>
+        <v>12.1</v>
       </c>
       <c r="E86" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>69987.679</v>
+        <v>2676.2278</v>
       </c>
       <c r="G86" t="n">
-        <v>-5080817.860299999</v>
+        <v>-1914040.4255</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.79</v>
+        <v>12.2</v>
       </c>
       <c r="C87" t="n">
-        <v>11.69</v>
+        <v>12.2</v>
       </c>
       <c r="D87" t="n">
-        <v>11.79</v>
+        <v>12.2</v>
       </c>
       <c r="E87" t="n">
-        <v>11.69</v>
+        <v>12.2</v>
       </c>
       <c r="F87" t="n">
-        <v>24239.2516</v>
+        <v>78054.9298</v>
       </c>
       <c r="G87" t="n">
-        <v>-5105057.111899999</v>
+        <v>-1835985.4957</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.61</v>
+        <v>12.14</v>
       </c>
       <c r="C88" t="n">
-        <v>11.68</v>
+        <v>12.14</v>
       </c>
       <c r="D88" t="n">
-        <v>11.68</v>
+        <v>12.14</v>
       </c>
       <c r="E88" t="n">
-        <v>11.03</v>
+        <v>12.14</v>
       </c>
       <c r="F88" t="n">
-        <v>25736.6992</v>
+        <v>12600</v>
       </c>
       <c r="G88" t="n">
-        <v>-5130793.811099999</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.47</v>
+        <v>12.14</v>
       </c>
       <c r="C89" t="n">
-        <v>11.47</v>
+        <v>12.14</v>
       </c>
       <c r="D89" t="n">
-        <v>11.47</v>
+        <v>12.14</v>
       </c>
       <c r="E89" t="n">
-        <v>11.47</v>
+        <v>12.14</v>
       </c>
       <c r="F89" t="n">
-        <v>361.8958</v>
+        <v>3072.7217</v>
       </c>
       <c r="G89" t="n">
-        <v>-5131155.706899999</v>
+        <v>-1848585.4957</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="C90" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="D90" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="E90" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="F90" t="n">
-        <v>195.1267</v>
+        <v>88505.2577</v>
       </c>
       <c r="G90" t="n">
-        <v>-5130960.580199999</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="C91" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="E91" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>3644.8733</v>
+        <v>61247.7437</v>
       </c>
       <c r="G91" t="n">
-        <v>-5130960.580199999</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="C92" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="D92" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="E92" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="F92" t="n">
-        <v>277.2708</v>
+        <v>10383.718</v>
       </c>
       <c r="G92" t="n">
-        <v>-5130960.580199999</v>
+        <v>-1760080.238</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="C93" t="n">
-        <v>11.4</v>
+        <v>11.98</v>
       </c>
       <c r="D93" t="n">
-        <v>11.48</v>
+        <v>12.2</v>
       </c>
       <c r="E93" t="n">
-        <v>11.4</v>
+        <v>11.98</v>
       </c>
       <c r="F93" t="n">
-        <v>30339.3992</v>
+        <v>600161.525</v>
       </c>
       <c r="G93" t="n">
-        <v>-5161299.979399999</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,35 +3750,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.39</v>
+        <v>11.99</v>
       </c>
       <c r="C94" t="n">
-        <v>11.39</v>
+        <v>11.98</v>
       </c>
       <c r="D94" t="n">
-        <v>11.39</v>
+        <v>11.99</v>
       </c>
       <c r="E94" t="n">
-        <v>11.39</v>
+        <v>11.98</v>
       </c>
       <c r="F94" t="n">
-        <v>697.885</v>
+        <v>25691.3811</v>
       </c>
       <c r="G94" t="n">
-        <v>-5161997.864399998</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3790,1738 +3786,4328 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.3</v>
+        <v>11.98</v>
       </c>
       <c r="C95" t="n">
-        <v>11.39</v>
+        <v>11.98</v>
       </c>
       <c r="D95" t="n">
-        <v>11.39</v>
+        <v>11.98</v>
       </c>
       <c r="E95" t="n">
-        <v>11.3</v>
+        <v>11.98</v>
       </c>
       <c r="F95" t="n">
-        <v>61661.432</v>
+        <v>24332.8476</v>
       </c>
       <c r="G95" t="n">
-        <v>-5161997.864399998</v>
+        <v>-2360241.763</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="K95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C96" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D96" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E96" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F96" t="n">
+        <v>47523.0173</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-2360241.763</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D97" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E97" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8957.720499999999</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-2351284.0425</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>12</v>
+      </c>
+      <c r="E98" t="n">
+        <v>12</v>
+      </c>
+      <c r="F98" t="n">
+        <v>90293.7329</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-2441577.775400001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C99" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D99" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E99" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F99" t="n">
+        <v>81350.9204</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-2360226.855</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C100" t="n">
+        <v>12</v>
+      </c>
+      <c r="D100" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E100" t="n">
+        <v>12</v>
+      </c>
+      <c r="F100" t="n">
+        <v>301188.7833</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2661415.638300001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>34029.3263</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2695444.964600001</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>12</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1972.1157</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-2693472.848900001</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>12</v>
+      </c>
+      <c r="C103" t="n">
+        <v>12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12</v>
+      </c>
+      <c r="F103" t="n">
+        <v>77485.9034</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-2693472.848900001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>177710.2405</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2871183.0894</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C105" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D105" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F105" t="n">
+        <v>50534.0918</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-2820648.9976</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E106" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F106" t="n">
+        <v>104611.457</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2820648.9976</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D107" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F107" t="n">
+        <v>993.0955</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2819655.902100001</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12</v>
+      </c>
+      <c r="F108" t="n">
+        <v>108027.1532</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-2711628.7489</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="E109" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F109" t="n">
+        <v>24258.3268</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2735887.0757</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F110" t="n">
+        <v>79442.576</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2656444.499700001</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E111" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F111" t="n">
+        <v>159213.5066</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2815658.0063</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E112" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F112" t="n">
+        <v>88505.2577</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2815658.0063</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C113" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D113" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E113" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2815608.0063</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C114" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F114" t="n">
+        <v>204</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2815812.0063</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C115" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E115" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15349.7322</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2815812.0063</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C116" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D116" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E116" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F116" t="n">
+        <v>163.4006</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2815975.4069</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12</v>
+      </c>
+      <c r="E117" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2808475.4069</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C118" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D118" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E118" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F118" t="n">
+        <v>59.6658</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2808535.0727</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F119" t="n">
+        <v>66583.7424</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2741951.3303</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C120" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F120" t="n">
+        <v>80386.3579</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2741951.3303</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F121" t="n">
+        <v>80364.5981</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2661586.7322</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="C122" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F122" t="n">
+        <v>59.6658</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2661527.0664</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>117.5964</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2661409.47</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F124" t="n">
+        <v>62550.3375</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2723959.8075</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100400.6755</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2723959.8075</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>213722.9407</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2937682.7482</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>319.6504</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2937682.7482</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>80845.6156</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2937682.7482</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>239.9133</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2937682.7482</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1470.9183</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2937682.7482</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F131" t="n">
+        <v>196775.0673</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3134457.8155</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1208.1655</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3133249.65</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3814.8367</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3133249.65</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F134" t="n">
+        <v>837.6738</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3134087.3238</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="F135" t="n">
+        <v>117000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3251087.3238</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F136" t="n">
+        <v>245.5507</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3250841.7731</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F137" t="n">
+        <v>90017.0916</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3340858.8647</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F138" t="n">
+        <v>112671.4212</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3340858.8647</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="F139" t="n">
+        <v>199.7339</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3340659.1308</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7107.2267</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3347766.3575</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>201890.6452</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3549657.002700001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F142" t="n">
+        <v>240.6047</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3549416.398000001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="F143" t="n">
+        <v>370746.4571</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3920162.8551</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F144" t="n">
+        <v>379.9934</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3919782.8617</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F145" t="n">
+        <v>43947.5679</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3875835.2938</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12</v>
+      </c>
+      <c r="F146" t="n">
+        <v>24809.5958</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3875835.2938</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F147" t="n">
+        <v>42571.8414</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3918407.1352</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11610.1733</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3930017.3085</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F149" t="n">
+        <v>33743.6337</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3896273.6748</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15609.1804</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3896273.6748</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F151" t="n">
+        <v>108.0378</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3896165.637</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-3889165.637</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>40716.6801</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-3889165.637</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="D154" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E154" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1502951.7229</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5392117.3599</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C155" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D155" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E155" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="F155" t="n">
+        <v>240300.0531</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5151817.306799999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1011.7675</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-5150805.539299999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>69987.679</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-5080817.860299999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24239.2516</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5105057.111899999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="F159" t="n">
+        <v>25736.6992</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5130793.811099999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="F160" t="n">
+        <v>361.8958</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-5131155.706899999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="F161" t="n">
+        <v>195.1267</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5130960.580199999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3644.8733</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5130960.580199999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="F163" t="n">
+        <v>277.2708</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-5130960.580199999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="K163" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="C164" t="n">
         <v>11.4</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="D164" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>30339.3992</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-5161299.979399999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="K164" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C96" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D96" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E96" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F96" t="n">
-        <v>156.7173</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-5161841.147099999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>11.39</v>
       </c>
-      <c r="K96" t="n">
+      <c r="C165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="F165" t="n">
+        <v>697.885</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5161997.864399998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>11.4</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="K165" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>11.3</v>
       </c>
-      <c r="D97" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="C166" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E166" t="n">
         <v>11.3</v>
       </c>
-      <c r="F97" t="n">
-        <v>55359.3171</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="K97" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F166" t="n">
+        <v>61661.432</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-5161997.864399998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="K166" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>43368.2511</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F167" t="n">
+        <v>156.7173</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-5161841.147099999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="K167" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C168" t="n">
         <v>11.3</v>
       </c>
-      <c r="C99" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D99" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="D168" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E168" t="n">
         <v>11.3</v>
       </c>
-      <c r="F99" t="n">
-        <v>46384.2511</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-5170816.213099998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="F168" t="n">
+        <v>55359.3171</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-5217200.464199998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="D100" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="E100" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="F100" t="n">
-        <v>8994.690000000001</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-5161821.523099998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>43368.2511</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-5217200.464199998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K169" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="C101" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D101" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E101" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="F101" t="n">
-        <v>131077.1557</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K101" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>46384.2511</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-5170816.213099998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="D102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="F102" t="n">
-        <v>25353.6061</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8994.690000000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-5161821.523099998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="K171" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="C172" t="n">
         <v>11.89</v>
       </c>
-      <c r="C103" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D103" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E103" t="n">
+      <c r="D172" t="n">
         <v>11.89</v>
       </c>
-      <c r="F103" t="n">
-        <v>23668.5453</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="E172" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="F172" t="n">
+        <v>131077.1557</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-5030744.367399998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="K172" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="C104" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E104" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F104" t="n">
-        <v>183.607</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F173" t="n">
+        <v>25353.6061</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-5030744.367399998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K173" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C105" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D105" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E105" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F105" t="n">
-        <v>87559.1038</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-5094634.925899997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23668.5453</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-5007075.822099998</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D106" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F106" t="n">
-        <v>155.5691</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-5094479.356799997</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F175" t="n">
+        <v>183.607</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-5007075.822099998</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C176" t="n">
         <v>12.12</v>
       </c>
-      <c r="C107" t="n">
-        <v>12</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="D176" t="n">
         <v>12.12</v>
       </c>
-      <c r="E107" t="n">
-        <v>12</v>
-      </c>
-      <c r="F107" t="n">
-        <v>9754.5304</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="E176" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F176" t="n">
+        <v>87559.1038</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-5094634.925899997</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2875.9046</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F177" t="n">
+        <v>155.5691</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-5094479.356799997</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C109" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D109" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E109" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F109" t="n">
-        <v>16425.8273</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-5120659.714499997</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9754.5304</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-5104233.887199997</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="C110" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="D110" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="E110" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F110" t="n">
-        <v>37974.5311</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-5082685.183399997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2875.9046</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5104233.887199997</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="C111" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="D111" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="E111" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="F111" t="n">
-        <v>21251.77</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-5103936.953399996</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F180" t="n">
+        <v>16425.8273</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5120659.714499997</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F112" t="n">
-        <v>566.6808</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-5103370.272599996</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="F181" t="n">
+        <v>37974.5311</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-5082685.183399997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K181" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="C113" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D113" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="E113" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="F113" t="n">
-        <v>763.2024</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-5104133.474999996</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21251.77</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-5103936.953399996</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C114" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="D114" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="E114" t="n">
-        <v>11.79</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1195.0861</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-5105328.561099996</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>566.6808</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-5103370.272599996</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="K183" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F115" t="n">
-        <v>79.7107</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-5105248.850399996</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="F184" t="n">
+        <v>763.2024</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-5104133.474999996</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C116" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D116" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E116" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F116" t="n">
-        <v>9959.397999999999</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-5115208.248399996</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1195.0861</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-5105328.561099996</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C117" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D117" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E117" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F117" t="n">
-        <v>324.6859</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F186" t="n">
+        <v>79.7107</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-5105248.850399996</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="C118" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D118" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E118" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="F118" t="n">
-        <v>5178.0299</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F187" t="n">
+        <v>9959.397999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-5115208.248399996</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C119" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="D119" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E119" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="F119" t="n">
-        <v>100</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-5114983.562499996</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F188" t="n">
+        <v>324.6859</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-5114883.562499996</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C120" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="D120" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E120" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F120" t="n">
-        <v>4600</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-5119583.562499996</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5178.0299</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-5114883.562499996</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
         <v>11.84</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C190" t="n">
         <v>11.84</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D190" t="n">
         <v>11.84</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E190" t="n">
         <v>11.84</v>
       </c>
-      <c r="F121" t="n">
-        <v>336.999</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="F190" t="n">
+        <v>100</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5114983.562499996</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C191" t="n">
         <v>11.73</v>
       </c>
-      <c r="C122" t="n">
+      <c r="D191" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-5119583.562499996</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>11.84</v>
       </c>
-      <c r="D122" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="E122" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11318.8262</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K191" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="C123" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D123" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="E123" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4712.9691</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-5114533.594399996</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="F192" t="n">
+        <v>336.999</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5119246.563499996</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K192" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6059.8485</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-5108473.745899996</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="F193" t="n">
+        <v>11318.8262</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-5119246.563499996</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K193" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F125" t="n">
-        <v>9757.427100000001</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-5098716.318799996</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4712.9691</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-5114533.594399996</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="K194" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>11.95</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C195" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E195" t="n">
         <v>11.95</v>
       </c>
-      <c r="D126" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E126" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3872.5398</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-5102588.858599996</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="F195" t="n">
+        <v>6059.8485</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-5108473.745899996</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="K195" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C196" t="n">
         <v>12.05</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D196" t="n">
         <v>12.05</v>
       </c>
-      <c r="D127" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F127" t="n">
-        <v>277.2945</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-5102311.564099996</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E196" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F196" t="n">
+        <v>9757.427100000001</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-5098716.318799996</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F128" t="n">
-        <v>13280.3553</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-5089031.208799996</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3872.5398</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-5102588.858599996</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>12.05</v>
       </c>
-      <c r="C129" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E129" t="n">
+      <c r="C198" t="n">
         <v>12.05</v>
       </c>
-      <c r="F129" t="n">
-        <v>18285.8341</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="D198" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>277.2945</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-5102311.564099996</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3818.3594</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>13280.3553</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-5089031.208799996</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C200" t="n">
         <v>12.12</v>
       </c>
-      <c r="C131" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="E131" t="n">
+      <c r="D200" t="n">
         <v>12.12</v>
       </c>
-      <c r="F131" t="n">
-        <v>202058.24</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-4905258.802899996</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="E200" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18285.8341</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-5107317.042899996</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F132" t="n">
-        <v>29532.6065</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4934791.409399996</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C201" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E201" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3818.3594</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-5107317.042899996</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3639.4894</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-4931151.919999995</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F202" t="n">
+        <v>202058.24</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-4905258.802899996</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="K202" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F134" t="n">
-        <v>115190.5595</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-5046342.479499996</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F203" t="n">
+        <v>29532.6065</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-4934791.409399996</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F135" t="n">
-        <v>124545.215</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-4921797.264499996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C204" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="E204" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3639.4894</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-4931151.919999995</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="E205" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F205" t="n">
+        <v>115190.5595</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-5046342.479499996</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C206" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F206" t="n">
+        <v>124545.215</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-4921797.264499996</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-711176.6548000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-709518.5062000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-709321.3603000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-713321.3603000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>-836747.5269000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-889272.098</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-841272.098</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-1166218.3902</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-1161524.8571</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-1354091.7999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-1818016.0199</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-1783842.7038</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-1789894.0766</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5137,19 @@
         <v>-3919782.8617</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>11.66</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11.66</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5176,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5215,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5254,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5287,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5318,19 @@
         <v>-3896273.6748</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>11.71</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11.71</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5357,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5396,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5435,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5468,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5501,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5534,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5567,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5600,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5633,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5666,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5699,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5730,19 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>11.47</v>
+      </c>
+      <c r="J161" t="n">
+        <v>11.47</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5767,23 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>11.48</v>
+      </c>
+      <c r="J162" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,22 +5808,23 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="J163" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K163" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>11.47</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6292,26 +5849,23 @@
         <v>-5161299.979399999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>11.48</v>
       </c>
       <c r="J164" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K164" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6336,26 +5890,23 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="J165" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K165" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6380,26 +5931,21 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="K166" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6424,26 +5970,21 @@
         <v>-5161841.147099999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="K167" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6470,22 +6011,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6510,26 +6048,21 @@
         <v>-5217200.464199998</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K169" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6554,26 +6087,21 @@
         <v>-5170816.213099998</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K170" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6598,26 +6126,23 @@
         <v>-5161821.523099998</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="J171" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K171" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6642,26 +6167,23 @@
         <v>-5030744.367399998</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="J172" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="K172" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6686,26 +6208,21 @@
         <v>-5030744.367399998</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K173" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6732,22 +6249,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6774,22 +6288,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6816,22 +6327,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6858,22 +6366,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6900,22 +6405,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6942,22 +6444,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6984,22 +6483,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7024,26 +6520,21 @@
         <v>-5082685.183399997</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K181" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7070,22 +6561,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7110,26 +6598,21 @@
         <v>-5103370.272599996</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="K183" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7156,22 +6639,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7198,22 +6678,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7240,22 +6717,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7282,22 +6756,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7324,22 +6795,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7366,22 +6834,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7408,22 +6873,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7448,26 +6910,21 @@
         <v>-5119583.562499996</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K191" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7492,26 +6949,21 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K192" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7536,26 +6988,21 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K193" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7580,26 +7027,21 @@
         <v>-5114533.594399996</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="K194" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7624,26 +7066,21 @@
         <v>-5108473.745899996</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="K195" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7670,22 +7107,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7710,24 +7144,23 @@
         <v>-5102588.858599996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>12.05</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7754,22 +7187,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7796,22 +7226,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7838,22 +7265,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7878,24 +7302,23 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>12.12</v>
+      </c>
+      <c r="J201" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7920,26 +7343,23 @@
         <v>-4905258.802899996</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>12.12</v>
       </c>
       <c r="J202" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="K202" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>11.47</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7964,24 +7384,23 @@
         <v>-4934791.409399996</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>12.42</v>
+      </c>
+      <c r="J203" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8008,22 +7427,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8048,24 +7464,23 @@
         <v>-5046342.479499996</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>12.27</v>
+      </c>
+      <c r="J205" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8092,24 +7507,21 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-816302.3887000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-816302.3887000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-765185.6008000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-711176.6548000001</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-709518.5062000001</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-709321.3603000001</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-713321.3603000001</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-836747.5269000001</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-889272.098</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-839272.098</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-841272.098</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-903034.7389</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-902599.8891</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-903637.4141000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-903194.4125000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1017715.7723</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1012587.2411</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1012633.2036</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1079868.3985</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1179295.2975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1166218.3902</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1161697.5918</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1161651.1187</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1161524.8571</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1354091.7999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1716190.6057</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1818016.0199</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1817793.7979</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1783954.9166</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1783898.8102</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1783842.7038</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1783882.0546</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1789894.0766</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1789839.9578</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1843012.3166</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1843012.3166</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1760080.238</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2351284.0425</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5137,14 +5137,10 @@
         <v>-3919782.8617</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="J144" t="n">
-        <v>11.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5177,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5318,14 +5302,10 @@
         <v>-3896273.6748</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5358,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5397,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5730,14 +5698,10 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="J161" t="n">
-        <v>11.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
@@ -5767,19 +5731,11 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="J162" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5808,19 +5764,15 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>11.48</v>
       </c>
       <c r="J163" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.48</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5849,13 +5801,11 @@
         <v>-5161299.979399999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
         <v>11.48</v>
-      </c>
-      <c r="J164" t="n">
-        <v>11.47</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5890,13 +5840,13 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>11.4</v>
       </c>
       <c r="J165" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5931,11 +5881,13 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>11.39</v>
+      </c>
       <c r="J166" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5970,11 +5922,13 @@
         <v>-5161841.147099999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>11.39</v>
+      </c>
       <c r="J167" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6013,7 +5967,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6052,7 +6006,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6087,11 +6041,13 @@
         <v>-5170816.213099998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J170" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6126,13 +6082,13 @@
         <v>-5161821.523099998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>11.36</v>
       </c>
       <c r="J171" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6167,13 +6123,11 @@
         <v>-5030744.367399998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>11.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6212,7 +6166,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6251,7 +6205,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6290,7 +6244,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6329,7 +6283,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6368,7 +6322,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6407,7 +6361,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6446,7 +6400,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6485,7 +6439,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6524,7 +6478,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6563,7 +6517,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6602,7 +6556,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6641,7 +6595,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6680,7 +6634,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6719,7 +6673,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6758,7 +6712,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6797,7 +6751,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6832,11 +6786,13 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>11.85</v>
+      </c>
       <c r="J189" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6871,11 +6827,13 @@
         <v>-5114983.562499996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>11.85</v>
+      </c>
       <c r="J190" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6910,11 +6868,13 @@
         <v>-5119583.562499996</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>11.84</v>
+      </c>
       <c r="J191" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6953,7 +6913,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6988,11 +6948,13 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>11.84</v>
+      </c>
       <c r="J193" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7031,7 +6993,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7070,7 +7032,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7109,7 +7071,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7144,13 +7106,11 @@
         <v>-5102588.858599996</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7189,7 +7149,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7224,11 +7184,13 @@
         <v>-5089031.208799996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12.05</v>
+      </c>
       <c r="J199" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7267,7 +7229,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7302,13 +7264,11 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7343,13 +7303,11 @@
         <v>-4905258.802899996</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7384,13 +7342,11 @@
         <v>-4934791.409399996</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7429,7 +7385,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7464,13 +7420,11 @@
         <v>-5046342.479499996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>12.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7509,7 +7463,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>11.47</v>
+        <v>11.48</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7522,6 +7476,6 @@
       <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-816302.3887000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-816302.3887000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-848359.3145000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-823762.6692000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-765185.6008000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-889272.098</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-839272.098</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-841272.098</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-903034.7389</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-902599.8891</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-903637.4141000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-903194.4125000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1017715.7723</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1012715.7723</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1012587.2411</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1012633.2036</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1079868.3985</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1179295.2975</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1166218.3902</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1161697.5918</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1161651.1187</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1716190.6057</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1818016.0199</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1817793.7979</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1783954.9166</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1783898.8102</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1783842.7038</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1783882.0546</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1789839.9578</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1843012.3166</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1843012.3166</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1760080.238</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2360241.763</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2351284.0425</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5764,14 +5764,10 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="J163" t="n">
-        <v>11.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5804,256 +5800,212 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K164" t="inlineStr">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="F165" t="n">
+        <v>697.885</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5161997.864399998</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F166" t="n">
+        <v>61661.432</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-5161997.864399998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="F167" t="n">
+        <v>156.7173</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-5161841.147099999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>55359.3171</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-5217200.464199998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>43368.2511</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-5217200.464199998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>46384.2511</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-5170816.213099998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="F165" t="n">
-        <v>697.885</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-5161997.864399998</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F166" t="n">
-        <v>61661.432</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-5161997.864399998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="J166" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F167" t="n">
-        <v>156.7173</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-5161841.147099999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="J167" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>55359.3171</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F169" t="n">
-        <v>43368.2511</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C170" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D170" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E170" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F170" t="n">
-        <v>46384.2511</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-5170816.213099998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J170" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6087,9 +6039,7 @@
       <c r="I171" t="n">
         <v>11.36</v>
       </c>
-      <c r="J171" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,9 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,9 +6113,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,9 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,9 +6187,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,9 +6224,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,9 +6261,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,12 +6332,10 @@
         <v>-5104233.887199997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,12 +6369,10 @@
         <v>-5120659.714499997</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,20 +6406,16 @@
         <v>-5082685.183399997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>11.48</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -6513,17 +6441,11 @@
         <v>-5103936.953399996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6552,17 +6474,11 @@
         <v>-5103370.272599996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6591,17 +6507,11 @@
         <v>-5104133.474999996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6633,14 +6543,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6672,14 +6576,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6711,14 +6609,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6750,14 +6642,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6786,19 +6672,11 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J189" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6827,19 +6705,11 @@
         <v>-5114983.562499996</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J190" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6868,19 +6738,11 @@
         <v>-5119583.562499996</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J191" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6912,14 +6774,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6948,19 +6804,11 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J193" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6840,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6873,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6906,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6939,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6972,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7184,19 +7002,11 @@
         <v>-5089031.208799996</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +7038,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +7071,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +7104,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7345,14 +7137,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7384,14 +7170,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +7203,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7462,20 +7236,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
       <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -1078,7 +1078,7 @@
         <v>-711216.6548000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-656414.7165000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-685100.3149000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-709518.5062000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-709321.3603000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-713321.3603000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-836747.5269000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-889272.098</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-839272.098</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-841272.098</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-903034.7389</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-903194.4125000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1017715.7723</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1012633.2036</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1079868.3985</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1179295.2975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1161651.1187</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1161524.8571</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1173601.1312</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-1192607.4235</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -5995,17 +5995,11 @@
         <v>-5170816.213099998</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6034,17 +6028,11 @@
         <v>-5161821.523099998</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>11.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6151,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6225,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6332,15 +6292,11 @@
         <v>-5104233.887199997</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6369,15 +6325,11 @@
         <v>-5120659.714499997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6406,16 +6358,14 @@
         <v>-5082685.183399997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -6441,7 +6391,7 @@
         <v>-5103936.953399996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6474,7 +6424,7 @@
         <v>-5103370.272599996</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6507,7 +6457,7 @@
         <v>-5104133.474999996</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6639,10 +6589,14 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J188" t="n">
+        <v>11.73</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6672,11 +6626,19 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J189" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6705,11 +6667,19 @@
         <v>-5114983.562499996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J190" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6708,19 @@
         <v>-5119583.562499996</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J191" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6771,11 +6749,19 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="J192" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6804,11 +6790,19 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J193" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6837,11 +6831,19 @@
         <v>-5114533.594399996</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J194" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +6872,19 @@
         <v>-5108473.745899996</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="J195" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6906,8 +6916,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6952,19 @@
         <v>-5102588.858599996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J197" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6969,11 +6993,19 @@
         <v>-5102311.564099996</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J198" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7002,11 +7034,19 @@
         <v>-5089031.208799996</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J199" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7035,11 +7075,19 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="J200" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7068,11 +7116,19 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J201" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7101,11 +7157,19 @@
         <v>-4905258.802899996</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="J202" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7134,11 +7198,19 @@
         <v>-4934791.409399996</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="J203" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7170,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7203,8 +7281,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7236,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-15 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-15 BackTest ETZ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>106636.3012</v>
       </c>
       <c r="G2" t="n">
-        <v>-871192.7583000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2466.9982</v>
       </c>
       <c r="G3" t="n">
-        <v>-871192.7583000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>17065.0756</v>
       </c>
       <c r="G4" t="n">
-        <v>-888257.8339000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>71955.4452</v>
       </c>
       <c r="G5" t="n">
-        <v>-816302.3887000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>88.8888</v>
       </c>
       <c r="G6" t="n">
-        <v>-816302.3887000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>-816302.3887000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>9801.611999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-826104.0007000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,19 @@
         <v>45.959</v>
       </c>
       <c r="G9" t="n">
-        <v>-826104.0007000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>12.09</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.09</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +687,21 @@
         <v>22255.3138</v>
       </c>
       <c r="G10" t="n">
-        <v>-848359.3145000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +723,23 @@
         <v>44.4444</v>
       </c>
       <c r="G11" t="n">
-        <v>-848359.3145000001</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,23 @@
         <v>8936.4354</v>
       </c>
       <c r="G12" t="n">
-        <v>-848359.3145000001</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +799,23 @@
         <v>23942.589</v>
       </c>
       <c r="G13" t="n">
-        <v>-848359.3145000001</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +837,23 @@
         <v>10607.7651</v>
       </c>
       <c r="G14" t="n">
-        <v>-837751.5494000001</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>12.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +875,23 @@
         <v>13988.8802</v>
       </c>
       <c r="G15" t="n">
-        <v>-823762.6692000001</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>12.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +913,23 @@
         <v>2644.159</v>
       </c>
       <c r="G16" t="n">
-        <v>-823762.6692000001</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +951,23 @@
         <v>8194.7628</v>
       </c>
       <c r="G17" t="n">
-        <v>-823762.6692000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +989,23 @@
         <v>58537.0684</v>
       </c>
       <c r="G18" t="n">
-        <v>-765225.6008000001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>12.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1027,23 @@
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>-765185.6008000001</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>12.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1065,21 @@
         <v>95.03270000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-765185.6008000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1101,21 @@
         <v>53968.946</v>
       </c>
       <c r="G21" t="n">
-        <v>-711216.6548000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1137,21 @@
         <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>-711176.6548000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1173,21 @@
         <v>54761.9383</v>
       </c>
       <c r="G23" t="n">
-        <v>-656414.7165000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1209,21 @@
         <v>28685.5984</v>
       </c>
       <c r="G24" t="n">
-        <v>-685100.3149000001</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1.035529363110008</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1245,15 @@
         <v>24418.1913</v>
       </c>
       <c r="G25" t="n">
-        <v>-709518.5062000001</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1275,15 @@
         <v>197.1459</v>
       </c>
       <c r="G26" t="n">
-        <v>-709321.3603000001</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1305,15 @@
         <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>-713321.3603000001</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1335,15 @@
         <v>123426.1666</v>
       </c>
       <c r="G28" t="n">
-        <v>-836747.5269000001</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1365,15 @@
         <v>26337.8693</v>
       </c>
       <c r="G29" t="n">
-        <v>-863085.3962000001</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1395,15 @@
         <v>178.8721</v>
       </c>
       <c r="G30" t="n">
-        <v>-862906.5241</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1425,15 @@
         <v>26365.5739</v>
       </c>
       <c r="G31" t="n">
-        <v>-889272.098</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1455,15 @@
         <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>-839272.098</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1485,15 @@
         <v>2000</v>
       </c>
       <c r="G33" t="n">
-        <v>-841272.098</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1515,15 @@
         <v>66762.6409</v>
       </c>
       <c r="G34" t="n">
-        <v>-908034.7389</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1545,15 @@
         <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>-903034.7389</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1575,15 @@
         <v>221.7776</v>
       </c>
       <c r="G36" t="n">
-        <v>-903256.5165</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1605,15 @@
         <v>1037.525</v>
       </c>
       <c r="G37" t="n">
-        <v>-903256.5165</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1635,15 @@
         <v>656.6274</v>
       </c>
       <c r="G38" t="n">
-        <v>-902599.8891</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1665,15 @@
         <v>1037.525</v>
       </c>
       <c r="G39" t="n">
-        <v>-903637.4141000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1695,15 @@
         <v>443.0016</v>
       </c>
       <c r="G40" t="n">
-        <v>-903194.4125000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1725,15 @@
         <v>114521.3598</v>
       </c>
       <c r="G41" t="n">
-        <v>-1017715.7723</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1755,15 @@
         <v>5000</v>
       </c>
       <c r="G42" t="n">
-        <v>-1012715.7723</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1785,15 @@
         <v>31561.1501</v>
       </c>
       <c r="G43" t="n">
-        <v>-1012715.7723</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1815,15 @@
         <v>82960.20970000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-1012715.7723</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1845,15 @@
         <v>128.5312</v>
       </c>
       <c r="G45" t="n">
-        <v>-1012587.2411</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1875,15 @@
         <v>74.65689999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-1012512.5842</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1905,15 @@
         <v>106889.7297</v>
       </c>
       <c r="G47" t="n">
-        <v>-1012512.5842</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1935,15 @@
         <v>669.9828</v>
       </c>
       <c r="G48" t="n">
-        <v>-1012512.5842</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1965,15 @@
         <v>120.6194</v>
       </c>
       <c r="G49" t="n">
-        <v>-1012633.2036</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1995,15 @@
         <v>67235.1949</v>
       </c>
       <c r="G50" t="n">
-        <v>-1079868.3985</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2025,15 @@
         <v>99426.899</v>
       </c>
       <c r="G51" t="n">
-        <v>-1179295.2975</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2055,15 @@
         <v>13076.9073</v>
       </c>
       <c r="G52" t="n">
-        <v>-1166218.3902</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2085,15 @@
         <v>4520.7984</v>
       </c>
       <c r="G53" t="n">
-        <v>-1161697.5918</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2115,15 @@
         <v>46.4731</v>
       </c>
       <c r="G54" t="n">
-        <v>-1161651.1187</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2145,15 @@
         <v>51.8082</v>
       </c>
       <c r="G55" t="n">
-        <v>-1161651.1187</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2175,15 @@
         <v>126.2616</v>
       </c>
       <c r="G56" t="n">
-        <v>-1161524.8571</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2205,15 @@
         <v>12076.2741</v>
       </c>
       <c r="G57" t="n">
-        <v>-1173601.1312</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2235,15 @@
         <v>19006.2923</v>
       </c>
       <c r="G58" t="n">
-        <v>-1192607.4235</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2265,15 @@
         <v>34013.228</v>
       </c>
       <c r="G59" t="n">
-        <v>-1226620.6515</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2295,15 @@
         <v>56980.8978</v>
       </c>
       <c r="G60" t="n">
-        <v>-1283601.5493</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2325,15 @@
         <v>7877.7452</v>
       </c>
       <c r="G61" t="n">
-        <v>-1275723.8041</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2355,15 @@
         <v>77186.2746</v>
       </c>
       <c r="G62" t="n">
-        <v>-1352910.0787</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2385,15 @@
         <v>118.8731</v>
       </c>
       <c r="G63" t="n">
-        <v>-1352791.2056</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2415,15 @@
         <v>1300.5943</v>
       </c>
       <c r="G64" t="n">
-        <v>-1354091.7999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2445,15 @@
         <v>116.6347</v>
       </c>
       <c r="G65" t="n">
-        <v>-1353975.1652</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2475,15 @@
         <v>362947.521</v>
       </c>
       <c r="G66" t="n">
-        <v>-1716922.6862</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2505,15 @@
         <v>732.0805</v>
       </c>
       <c r="G67" t="n">
-        <v>-1716190.6057</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2535,15 @@
         <v>101825.4142</v>
       </c>
       <c r="G68" t="n">
-        <v>-1818016.0199</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2565,15 @@
         <v>222.222</v>
       </c>
       <c r="G69" t="n">
-        <v>-1817793.7979</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2595,15 @@
         <v>33838.8813</v>
       </c>
       <c r="G70" t="n">
-        <v>-1783954.9166</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2625,15 @@
         <v>56.1064</v>
       </c>
       <c r="G71" t="n">
-        <v>-1783898.8102</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2655,15 @@
         <v>56.1064</v>
       </c>
       <c r="G72" t="n">
-        <v>-1783842.7038</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2685,15 @@
         <v>39.3508</v>
       </c>
       <c r="G73" t="n">
-        <v>-1783882.0546</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2715,15 @@
         <v>5957.9032</v>
       </c>
       <c r="G74" t="n">
-        <v>-1789839.9578</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2745,15 @@
         <v>100000</v>
       </c>
       <c r="G75" t="n">
-        <v>-1789839.9578</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2775,15 @@
         <v>54.1188</v>
       </c>
       <c r="G76" t="n">
-        <v>-1789894.0766</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2805,15 @@
         <v>54.1188</v>
       </c>
       <c r="G77" t="n">
-        <v>-1789839.9578</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2835,15 @@
         <v>4465</v>
       </c>
       <c r="G78" t="n">
-        <v>-1794304.9578</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2865,15 @@
         <v>234.7851</v>
       </c>
       <c r="G79" t="n">
-        <v>-1794070.1727</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2895,15 @@
         <v>46181.7172</v>
       </c>
       <c r="G80" t="n">
-        <v>-1840251.8899</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2925,15 @@
         <v>35097.8689</v>
       </c>
       <c r="G81" t="n">
-        <v>-1840251.8899</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2955,15 @@
         <v>2760.4267</v>
       </c>
       <c r="G82" t="n">
-        <v>-1843012.3166</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2985,15 @@
         <v>137002.0441</v>
       </c>
       <c r="G83" t="n">
-        <v>-1843012.3166</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3015,15 @@
         <v>5927.6408</v>
       </c>
       <c r="G84" t="n">
-        <v>-1843012.3166</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3045,15 @@
         <v>71028.10890000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-1914040.4255</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3075,15 @@
         <v>2676.2278</v>
       </c>
       <c r="G86" t="n">
-        <v>-1914040.4255</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3105,15 @@
         <v>78054.9298</v>
       </c>
       <c r="G87" t="n">
-        <v>-1835985.4957</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3135,15 @@
         <v>12600</v>
       </c>
       <c r="G88" t="n">
-        <v>-1848585.4957</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3165,15 @@
         <v>3072.7217</v>
       </c>
       <c r="G89" t="n">
-        <v>-1848585.4957</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3195,15 @@
         <v>88505.2577</v>
       </c>
       <c r="G90" t="n">
-        <v>-1760080.238</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3225,15 @@
         <v>61247.7437</v>
       </c>
       <c r="G91" t="n">
-        <v>-1760080.238</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3255,15 @@
         <v>10383.718</v>
       </c>
       <c r="G92" t="n">
-        <v>-1760080.238</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3285,15 @@
         <v>600161.525</v>
       </c>
       <c r="G93" t="n">
-        <v>-2360241.763</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3315,15 @@
         <v>25691.3811</v>
       </c>
       <c r="G94" t="n">
-        <v>-2360241.763</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3345,15 @@
         <v>24332.8476</v>
       </c>
       <c r="G95" t="n">
-        <v>-2360241.763</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3375,15 @@
         <v>47523.0173</v>
       </c>
       <c r="G96" t="n">
-        <v>-2360241.763</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3405,15 @@
         <v>8957.720499999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-2351284.0425</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3435,15 @@
         <v>90293.7329</v>
       </c>
       <c r="G98" t="n">
-        <v>-2441577.775400001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3465,15 @@
         <v>81350.9204</v>
       </c>
       <c r="G99" t="n">
-        <v>-2360226.855</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3495,15 @@
         <v>301188.7833</v>
       </c>
       <c r="G100" t="n">
-        <v>-2661415.638300001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3525,15 @@
         <v>34029.3263</v>
       </c>
       <c r="G101" t="n">
-        <v>-2695444.964600001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3555,15 @@
         <v>1972.1157</v>
       </c>
       <c r="G102" t="n">
-        <v>-2693472.848900001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3585,15 @@
         <v>77485.9034</v>
       </c>
       <c r="G103" t="n">
-        <v>-2693472.848900001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3615,15 @@
         <v>177710.2405</v>
       </c>
       <c r="G104" t="n">
-        <v>-2871183.0894</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3645,15 @@
         <v>50534.0918</v>
       </c>
       <c r="G105" t="n">
-        <v>-2820648.9976</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3675,15 @@
         <v>104611.457</v>
       </c>
       <c r="G106" t="n">
-        <v>-2820648.9976</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3705,15 @@
         <v>993.0955</v>
       </c>
       <c r="G107" t="n">
-        <v>-2819655.902100001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3735,15 @@
         <v>108027.1532</v>
       </c>
       <c r="G108" t="n">
-        <v>-2711628.7489</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3765,15 @@
         <v>24258.3268</v>
       </c>
       <c r="G109" t="n">
-        <v>-2735887.0757</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3795,15 @@
         <v>79442.576</v>
       </c>
       <c r="G110" t="n">
-        <v>-2656444.499700001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3825,15 @@
         <v>159213.5066</v>
       </c>
       <c r="G111" t="n">
-        <v>-2815658.0063</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3855,15 @@
         <v>88505.2577</v>
       </c>
       <c r="G112" t="n">
-        <v>-2815658.0063</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3885,15 @@
         <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>-2815608.0063</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3915,15 @@
         <v>204</v>
       </c>
       <c r="G114" t="n">
-        <v>-2815812.0063</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3945,15 @@
         <v>15349.7322</v>
       </c>
       <c r="G115" t="n">
-        <v>-2815812.0063</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3975,15 @@
         <v>163.4006</v>
       </c>
       <c r="G116" t="n">
-        <v>-2815975.4069</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4005,15 @@
         <v>7500</v>
       </c>
       <c r="G117" t="n">
-        <v>-2808475.4069</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4035,15 @@
         <v>59.6658</v>
       </c>
       <c r="G118" t="n">
-        <v>-2808535.0727</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4065,15 @@
         <v>66583.7424</v>
       </c>
       <c r="G119" t="n">
-        <v>-2741951.3303</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4095,15 @@
         <v>80386.3579</v>
       </c>
       <c r="G120" t="n">
-        <v>-2741951.3303</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4125,15 @@
         <v>80364.5981</v>
       </c>
       <c r="G121" t="n">
-        <v>-2661586.7322</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4155,15 @@
         <v>59.6658</v>
       </c>
       <c r="G122" t="n">
-        <v>-2661527.0664</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4185,15 @@
         <v>117.5964</v>
       </c>
       <c r="G123" t="n">
-        <v>-2661409.47</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4215,15 @@
         <v>62550.3375</v>
       </c>
       <c r="G124" t="n">
-        <v>-2723959.8075</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4245,15 @@
         <v>100400.6755</v>
       </c>
       <c r="G125" t="n">
-        <v>-2723959.8075</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4275,21 @@
         <v>213722.9407</v>
       </c>
       <c r="G126" t="n">
-        <v>-2937682.7482</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4311,19 @@
         <v>319.6504</v>
       </c>
       <c r="G127" t="n">
-        <v>-2937682.7482</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4345,21 @@
         <v>80845.6156</v>
       </c>
       <c r="G128" t="n">
-        <v>-2937682.7482</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4381,21 @@
         <v>239.9133</v>
       </c>
       <c r="G129" t="n">
-        <v>-2937682.7482</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4417,21 @@
         <v>1470.9183</v>
       </c>
       <c r="G130" t="n">
-        <v>-2937682.7482</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4453,21 @@
         <v>196775.0673</v>
       </c>
       <c r="G131" t="n">
-        <v>-3134457.8155</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4489,21 @@
         <v>1208.1655</v>
       </c>
       <c r="G132" t="n">
-        <v>-3133249.65</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>11.79</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4525,19 @@
         <v>3814.8367</v>
       </c>
       <c r="G133" t="n">
-        <v>-3133249.65</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4559,19 @@
         <v>837.6738</v>
       </c>
       <c r="G134" t="n">
-        <v>-3134087.3238</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4593,19 @@
         <v>117000</v>
       </c>
       <c r="G135" t="n">
-        <v>-3251087.3238</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4627,21 @@
         <v>245.5507</v>
       </c>
       <c r="G136" t="n">
-        <v>-3250841.7731</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4663,19 @@
         <v>90017.0916</v>
       </c>
       <c r="G137" t="n">
-        <v>-3340858.8647</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4697,19 @@
         <v>112671.4212</v>
       </c>
       <c r="G138" t="n">
-        <v>-3340858.8647</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4731,21 @@
         <v>199.7339</v>
       </c>
       <c r="G139" t="n">
-        <v>-3340659.1308</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4767,21 @@
         <v>7107.2267</v>
       </c>
       <c r="G140" t="n">
-        <v>-3347766.3575</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4803,21 @@
         <v>201890.6452</v>
       </c>
       <c r="G141" t="n">
-        <v>-3549657.002700001</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>11.81</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4839,19 @@
         <v>240.6047</v>
       </c>
       <c r="G142" t="n">
-        <v>-3549416.398000001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4873,19 @@
         <v>370746.4571</v>
       </c>
       <c r="G143" t="n">
-        <v>-3920162.8551</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4907,21 @@
         <v>379.9934</v>
       </c>
       <c r="G144" t="n">
-        <v>-3919782.8617</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4943,19 @@
         <v>43947.5679</v>
       </c>
       <c r="G145" t="n">
-        <v>-3875835.2938</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4977,19 @@
         <v>24809.5958</v>
       </c>
       <c r="G146" t="n">
-        <v>-3875835.2938</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5011,19 @@
         <v>42571.8414</v>
       </c>
       <c r="G147" t="n">
-        <v>-3918407.1352</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5045,21 @@
         <v>11610.1733</v>
       </c>
       <c r="G148" t="n">
-        <v>-3930017.3085</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>11.82</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5081,21 @@
         <v>33743.6337</v>
       </c>
       <c r="G149" t="n">
-        <v>-3896273.6748</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>11.71</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5117,21 @@
         <v>15609.1804</v>
       </c>
       <c r="G150" t="n">
-        <v>-3896273.6748</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5153,21 @@
         <v>108.0378</v>
       </c>
       <c r="G151" t="n">
-        <v>-3896165.637</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5189,19 @@
         <v>7000</v>
       </c>
       <c r="G152" t="n">
-        <v>-3889165.637</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5223,19 @@
         <v>40716.6801</v>
       </c>
       <c r="G153" t="n">
-        <v>-3889165.637</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5257,19 @@
         <v>1502951.7229</v>
       </c>
       <c r="G154" t="n">
-        <v>-5392117.3599</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5291,19 @@
         <v>240300.0531</v>
       </c>
       <c r="G155" t="n">
-        <v>-5151817.306799999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5325,19 @@
         <v>1011.7675</v>
       </c>
       <c r="G156" t="n">
-        <v>-5150805.539299999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5359,19 @@
         <v>69987.679</v>
       </c>
       <c r="G157" t="n">
-        <v>-5080817.860299999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5393,19 @@
         <v>24239.2516</v>
       </c>
       <c r="G158" t="n">
-        <v>-5105057.111899999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5427,19 @@
         <v>25736.6992</v>
       </c>
       <c r="G159" t="n">
-        <v>-5130793.811099999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5461,19 @@
         <v>361.8958</v>
       </c>
       <c r="G160" t="n">
-        <v>-5131155.706899999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5495,19 @@
         <v>195.1267</v>
       </c>
       <c r="G161" t="n">
-        <v>-5130960.580199999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5529,19 @@
         <v>3644.8733</v>
       </c>
       <c r="G162" t="n">
-        <v>-5130960.580199999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5563,19 @@
         <v>277.2708</v>
       </c>
       <c r="G163" t="n">
-        <v>-5130960.580199999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5597,19 @@
         <v>30339.3992</v>
       </c>
       <c r="G164" t="n">
-        <v>-5161299.979399999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5631,21 @@
         <v>697.885</v>
       </c>
       <c r="G165" t="n">
-        <v>-5161997.864399998</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5667,21 @@
         <v>61661.432</v>
       </c>
       <c r="G166" t="n">
-        <v>-5161997.864399998</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>11.39</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5703,21 @@
         <v>156.7173</v>
       </c>
       <c r="G167" t="n">
-        <v>-5161841.147099999</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>11.39</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5739,19 @@
         <v>55359.3171</v>
       </c>
       <c r="G168" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5773,19 @@
         <v>43368.2511</v>
       </c>
       <c r="G169" t="n">
-        <v>-5217200.464199998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5807,19 @@
         <v>46384.2511</v>
       </c>
       <c r="G170" t="n">
-        <v>-5170816.213099998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5841,19 @@
         <v>8994.690000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>-5161821.523099998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5875,19 @@
         <v>131077.1557</v>
       </c>
       <c r="G172" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5909,19 @@
         <v>25353.6061</v>
       </c>
       <c r="G173" t="n">
-        <v>-5030744.367399998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5943,19 @@
         <v>23668.5453</v>
       </c>
       <c r="G174" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5977,19 @@
         <v>183.607</v>
       </c>
       <c r="G175" t="n">
-        <v>-5007075.822099998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6011,19 @@
         <v>87559.1038</v>
       </c>
       <c r="G176" t="n">
-        <v>-5094634.925899997</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6045,19 @@
         <v>155.5691</v>
       </c>
       <c r="G177" t="n">
-        <v>-5094479.356799997</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6079,19 @@
         <v>9754.5304</v>
       </c>
       <c r="G178" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6113,19 @@
         <v>2875.9046</v>
       </c>
       <c r="G179" t="n">
-        <v>-5104233.887199997</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6147,19 @@
         <v>16425.8273</v>
       </c>
       <c r="G180" t="n">
-        <v>-5120659.714499997</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6181,19 @@
         <v>37974.5311</v>
       </c>
       <c r="G181" t="n">
-        <v>-5082685.183399997</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6215,19 @@
         <v>21251.77</v>
       </c>
       <c r="G182" t="n">
-        <v>-5103936.953399996</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6249,19 @@
         <v>566.6808</v>
       </c>
       <c r="G183" t="n">
-        <v>-5103370.272599996</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6283,19 @@
         <v>763.2024</v>
       </c>
       <c r="G184" t="n">
-        <v>-5104133.474999996</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6317,19 @@
         <v>1195.0861</v>
       </c>
       <c r="G185" t="n">
-        <v>-5105328.561099996</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6351,19 @@
         <v>79.7107</v>
       </c>
       <c r="G186" t="n">
-        <v>-5105248.850399996</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6385,19 @@
         <v>9959.397999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>-5115208.248399996</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,22 +6419,19 @@
         <v>324.6859</v>
       </c>
       <c r="G188" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J188" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6623,26 +6453,19 @@
         <v>5178.0299</v>
       </c>
       <c r="G189" t="n">
-        <v>-5114883.562499996</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J189" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6664,26 +6487,19 @@
         <v>100</v>
       </c>
       <c r="G190" t="n">
-        <v>-5114983.562499996</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J190" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6705,26 +6521,19 @@
         <v>4600</v>
       </c>
       <c r="G191" t="n">
-        <v>-5119583.562499996</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J191" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6746,26 +6555,19 @@
         <v>336.999</v>
       </c>
       <c r="G192" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="J192" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6787,26 +6589,19 @@
         <v>11318.8262</v>
       </c>
       <c r="G193" t="n">
-        <v>-5119246.563499996</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J193" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6828,26 +6623,19 @@
         <v>4712.9691</v>
       </c>
       <c r="G194" t="n">
-        <v>-5114533.594399996</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="J194" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6869,26 +6657,19 @@
         <v>6059.8485</v>
       </c>
       <c r="G195" t="n">
-        <v>-5108473.745899996</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="J195" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6910,24 +6691,19 @@
         <v>9757.427100000001</v>
       </c>
       <c r="G196" t="n">
-        <v>-5098716.318799996</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6949,26 +6725,19 @@
         <v>3872.5398</v>
       </c>
       <c r="G197" t="n">
-        <v>-5102588.858599996</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J197" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6990,26 +6759,19 @@
         <v>277.2945</v>
       </c>
       <c r="G198" t="n">
-        <v>-5102311.564099996</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J198" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7031,26 +6793,19 @@
         <v>13280.3553</v>
       </c>
       <c r="G199" t="n">
-        <v>-5089031.208799996</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="J199" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7072,26 +6827,19 @@
         <v>18285.8341</v>
       </c>
       <c r="G200" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="J200" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7113,26 +6861,19 @@
         <v>3818.3594</v>
       </c>
       <c r="G201" t="n">
-        <v>-5107317.042899996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J201" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7154,26 +6895,19 @@
         <v>202058.24</v>
       </c>
       <c r="G202" t="n">
-        <v>-4905258.802899996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="J202" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7195,26 +6929,19 @@
         <v>29532.6065</v>
       </c>
       <c r="G203" t="n">
-        <v>-4934791.409399996</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="J203" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7236,24 +6963,19 @@
         <v>3639.4894</v>
       </c>
       <c r="G204" t="n">
-        <v>-4931151.919999995</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7275,24 +6997,19 @@
         <v>115190.5595</v>
       </c>
       <c r="G205" t="n">
-        <v>-5046342.479499996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7314,24 +7031,19 @@
         <v>124545.215</v>
       </c>
       <c r="G206" t="n">
-        <v>-4921797.264499996</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
